--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -1372,10 +1372,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,13 +1381,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1497,16 +1497,16 @@
       <sheetName val="RunControl"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2039,17 +2039,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
@@ -2236,61 +2236,61 @@
       </c>
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="44" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="44"/>
+      <c r="P4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="45" t="s">
+      <c r="Z4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="47" t="s">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
       <c r="AF4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="42" t="s">
+      <c r="AG4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
       <c r="AJ4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2298,17 +2298,17 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="47" t="s">
+      <c r="AO4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="48" t="s">
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
       <c r="AV4" s="15"/>
       <c r="AW4" s="22"/>
       <c r="AX4" s="20"/>
@@ -3195,7 +3195,7 @@
         <v>156</v>
       </c>
       <c r="AD14" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE14" s="26">
         <v>0.12</v>
@@ -3347,7 +3347,7 @@
         <v>156</v>
       </c>
       <c r="AD15" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE15" s="26">
         <v>0.12</v>
@@ -3499,7 +3499,7 @@
         <v>156</v>
       </c>
       <c r="AD16" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE16" s="26">
         <v>0.12</v>
@@ -3651,7 +3651,7 @@
         <v>156</v>
       </c>
       <c r="AD17" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE17" s="26">
         <v>0.12</v>
@@ -3803,7 +3803,7 @@
         <v>156</v>
       </c>
       <c r="AD18" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE18" s="26">
         <v>0.12</v>
@@ -3955,7 +3955,7 @@
         <v>156</v>
       </c>
       <c r="AD19" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE19" s="26">
         <v>0.12</v>
@@ -4107,7 +4107,7 @@
         <v>156</v>
       </c>
       <c r="AD20" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE20" s="26">
         <v>0.12</v>
@@ -4259,7 +4259,7 @@
         <v>156</v>
       </c>
       <c r="AD21" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE21" s="26">
         <v>0.12</v>
@@ -4411,7 +4411,7 @@
         <v>156</v>
       </c>
       <c r="AD22" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE22" s="26">
         <v>0.12</v>
@@ -4563,7 +4563,7 @@
         <v>156</v>
       </c>
       <c r="AD23" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE23" s="26">
         <v>0.12</v>
@@ -4715,7 +4715,7 @@
         <v>156</v>
       </c>
       <c r="AD24" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE24" s="26">
         <v>0.12</v>
@@ -4895,7 +4895,7 @@
         <v>156</v>
       </c>
       <c r="AD26" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE26" s="26">
         <v>0.12</v>
@@ -5047,7 +5047,7 @@
         <v>156</v>
       </c>
       <c r="AD27" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE27" s="26">
         <v>0.12</v>
@@ -5199,7 +5199,7 @@
         <v>156</v>
       </c>
       <c r="AD28" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE28" s="26">
         <v>0.12</v>
@@ -5351,7 +5351,7 @@
         <v>156</v>
       </c>
       <c r="AD29" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE29" s="26">
         <v>0.12</v>
@@ -5503,7 +5503,7 @@
         <v>156</v>
       </c>
       <c r="AD30" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE30" s="26">
         <v>0.12</v>
@@ -5655,7 +5655,7 @@
         <v>156</v>
       </c>
       <c r="AD31" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE31" s="26">
         <v>0.12</v>
@@ -5828,7 +5828,7 @@
         <v>0.01</v>
       </c>
       <c r="AB33" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AC33" s="26" t="s">
         <v>156</v>
@@ -5980,7 +5980,7 @@
         <v>0.01</v>
       </c>
       <c r="AB34" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AC34" s="26" t="s">
         <v>156</v>
@@ -6132,7 +6132,7 @@
         <v>0.01</v>
       </c>
       <c r="AB35" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC35" s="26" t="s">
         <v>156</v>
@@ -6284,7 +6284,7 @@
         <v>0.01</v>
       </c>
       <c r="AB36" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC36" s="26" t="s">
         <v>156</v>
@@ -6418,7 +6418,7 @@
         <v>275</v>
       </c>
       <c r="C39" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>211</v>
@@ -6499,7 +6499,7 @@
         <v>346</v>
       </c>
       <c r="AD39" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE39" s="26">
         <v>0.12</v>
@@ -6570,7 +6570,7 @@
         <v>277</v>
       </c>
       <c r="C40" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>211</v>
@@ -6651,7 +6651,7 @@
         <v>346</v>
       </c>
       <c r="AD40" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE40" s="26">
         <v>0.12</v>
@@ -6803,7 +6803,7 @@
         <v>346</v>
       </c>
       <c r="AD41" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE41" s="26">
         <v>0.12</v>
@@ -6874,7 +6874,7 @@
         <v>281</v>
       </c>
       <c r="C42" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>211</v>
@@ -6955,7 +6955,7 @@
         <v>346</v>
       </c>
       <c r="AD42" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE42" s="26">
         <v>0.12</v>
@@ -7026,7 +7026,7 @@
         <v>283</v>
       </c>
       <c r="C43" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>211</v>
@@ -7107,7 +7107,7 @@
         <v>346</v>
       </c>
       <c r="AD43" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE43" s="26">
         <v>0.12</v>
@@ -7236,7 +7236,7 @@
         <v>286</v>
       </c>
       <c r="C46" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>211</v>
@@ -7388,7 +7388,7 @@
         <v>289</v>
       </c>
       <c r="C47" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>211</v>
@@ -7534,17 +7534,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM47">
@@ -7677,13 +7677,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7725,7 +7725,7 @@
         <v>0.12</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7753,7 +7753,7 @@
         <v>0.12</v>
       </c>
       <c r="D7">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7781,12 +7781,12 @@
         <v>0.12</v>
       </c>
       <c r="D9">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="B10" s="26">
         <v>-0.25</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="B11" s="26">
         <v>7.4999999999999997E-2</v>
@@ -7809,7 +7809,7 @@
         <v>0.12</v>
       </c>
       <c r="D11">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7837,7 +7837,7 @@
         <v>0.12</v>
       </c>
       <c r="D13">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -7904,7 +7904,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7942,13 +7942,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -7973,7 +7973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="352">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1118,6 +1118,12 @@
   </si>
   <si>
     <t>A1F075_O30pA10_a</t>
+  </si>
+  <si>
+    <t>A1F075_C30pA10</t>
+  </si>
+  <si>
+    <t>75% initial Funding; Closed 30-year cp, 10-year smoothing</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1378,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,16 +1390,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2037,13 +2043,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX47"/>
+  <dimension ref="A1:AX48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,61 +2242,61 @@
       </c>
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="43" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="43" t="s">
+      <c r="O4" s="45"/>
+      <c r="P4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="44" t="s">
+      <c r="Z4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="42" t="s">
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
       <c r="AF4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="45" t="s">
+      <c r="AG4" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
       <c r="AJ4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2298,17 +2304,17 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="42" t="s">
+      <c r="AO4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="46" t="s">
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
       <c r="AV4" s="15"/>
       <c r="AW4" s="22"/>
       <c r="AX4" s="20"/>
@@ -5567,11 +5573,11 @@
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>258</v>
+      <c r="A31" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>259</v>
+        <v>351</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -5664,7 +5670,7 @@
         <v>112</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="AH31" s="2" t="s">
         <v>348</v>
@@ -5676,7 +5682,7 @@
         <v>115</v>
       </c>
       <c r="AK31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL31">
         <v>200</v>
@@ -5691,7 +5697,7 @@
         <v>166</v>
       </c>
       <c r="AP31" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31">
         <v>200</v>
@@ -5719,190 +5725,190 @@
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C32" s="11"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="26"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="17"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="12"/>
-      <c r="AT32" s="12"/>
-      <c r="AU32" s="12"/>
-      <c r="AV32" s="18"/>
-      <c r="AW32" s="18"/>
-      <c r="AX32" s="18"/>
+      <c r="A32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" t="s">
+        <v>215</v>
+      </c>
+      <c r="M32" t="s">
+        <v>202</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0</v>
+      </c>
+      <c r="O32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>75</v>
+      </c>
+      <c r="S32">
+        <v>50</v>
+      </c>
+      <c r="T32">
+        <v>60</v>
+      </c>
+      <c r="U32" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y32" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z32" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA32" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB32" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC32" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD32" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE32" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI32">
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AL32">
+        <v>200</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP32" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>200</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS32" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT32" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU32" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33">
-        <v>1000</v>
-      </c>
-      <c r="G33">
-        <v>500</v>
-      </c>
-      <c r="H33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" t="s">
-        <v>208</v>
-      </c>
-      <c r="K33" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" t="s">
-        <v>215</v>
-      </c>
-      <c r="M33" t="s">
-        <v>202</v>
-      </c>
-      <c r="N33" s="26">
-        <v>0</v>
-      </c>
-      <c r="O33" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P33" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
-      <c r="R33">
-        <v>75</v>
-      </c>
-      <c r="S33">
-        <v>50</v>
-      </c>
-      <c r="T33">
-        <v>60</v>
-      </c>
-      <c r="U33" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>10</v>
-      </c>
-      <c r="X33" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y33" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z33" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA33" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB33" s="26">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AC33" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD33" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE33" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH33" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI33">
-        <v>15</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK33">
-        <v>5</v>
-      </c>
-      <c r="AL33">
-        <v>200</v>
-      </c>
-      <c r="AM33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP33" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ33">
-        <v>200</v>
-      </c>
-      <c r="AR33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS33" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT33" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU33" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV33" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX33" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="C33" s="11"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="26"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="17"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="18"/>
+      <c r="AW33" s="18"/>
+      <c r="AX33" s="18"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>262</v>
+      <c r="A34" s="36" t="s">
+        <v>260</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C34" s="11" t="b">
         <v>0</v>
@@ -5986,7 +5992,7 @@
         <v>156</v>
       </c>
       <c r="AD34" s="41">
-        <v>7.1199999999999999E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE34" s="26">
         <v>0.12</v>
@@ -6050,11 +6056,11 @@
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>266</v>
+      <c r="A35" t="s">
+        <v>262</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
@@ -6132,13 +6138,13 @@
         <v>0.01</v>
       </c>
       <c r="AB35" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AC35" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD35" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="AE35" s="26">
         <v>0.12</v>
@@ -6202,11 +6208,11 @@
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>269</v>
+      <c r="A36" s="37" t="s">
+        <v>266</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C36" s="11" t="b">
         <v>0</v>
@@ -6290,7 +6296,7 @@
         <v>156</v>
       </c>
       <c r="AD36" s="41">
-        <v>6.6199999999999995E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE36" s="26">
         <v>0.12</v>
@@ -6354,36 +6360,158 @@
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C37" s="11"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="26"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="17"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="12"/>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
-      <c r="AV37" s="18"/>
-      <c r="AW37" s="18"/>
-      <c r="AX37" s="18"/>
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37">
+        <v>500</v>
+      </c>
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" t="s">
+        <v>215</v>
+      </c>
+      <c r="M37" t="s">
+        <v>202</v>
+      </c>
+      <c r="N37" s="26">
+        <v>0</v>
+      </c>
+      <c r="O37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>75</v>
+      </c>
+      <c r="S37">
+        <v>50</v>
+      </c>
+      <c r="T37">
+        <v>60</v>
+      </c>
+      <c r="U37" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA37" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB37" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AC37" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD37" s="41">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="AE37" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI37">
+        <v>15</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK37">
+        <v>5</v>
+      </c>
+      <c r="AL37">
+        <v>200</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP37" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ37">
+        <v>200</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT37" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU37" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX37" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
-        <v>273</v>
-      </c>
       <c r="C38" s="11"/>
       <c r="N38" s="26"/>
       <c r="O38" s="18"/>
@@ -6411,163 +6539,41 @@
       <c r="AX38" s="18"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39">
-        <v>1000</v>
-      </c>
-      <c r="G39">
-        <v>500</v>
-      </c>
-      <c r="H39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" t="s">
-        <v>208</v>
-      </c>
-      <c r="K39" t="s">
-        <v>167</v>
-      </c>
-      <c r="L39" t="s">
-        <v>215</v>
-      </c>
-      <c r="M39" t="s">
-        <v>202</v>
-      </c>
-      <c r="N39" s="26">
-        <v>0</v>
-      </c>
-      <c r="O39" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q39">
-        <v>3</v>
-      </c>
-      <c r="R39">
-        <v>75</v>
-      </c>
-      <c r="S39">
-        <v>50</v>
-      </c>
-      <c r="T39">
-        <v>60</v>
-      </c>
-      <c r="U39" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>10</v>
-      </c>
-      <c r="X39" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y39" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z39" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA39" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB39" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC39" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD39" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE39" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK39">
-        <v>5</v>
-      </c>
-      <c r="AL39">
-        <v>200</v>
-      </c>
-      <c r="AM39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP39" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ39">
-        <v>200</v>
-      </c>
-      <c r="AR39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS39" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT39" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU39" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV39" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX39" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B39" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="26"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="17"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="18"/>
+      <c r="AW39" s="18"/>
+      <c r="AX39" s="18"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>276</v>
+      <c r="A40" t="s">
+        <v>274</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C40" s="11" t="b">
         <v>1</v>
@@ -6663,10 +6669,10 @@
         <v>158</v>
       </c>
       <c r="AH40" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AI40">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="s">
         <v>142</v>
@@ -6716,10 +6722,10 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C41" s="11" t="b">
         <v>1</v>
@@ -6821,7 +6827,7 @@
         <v>30</v>
       </c>
       <c r="AJ41" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AK41">
         <v>5</v>
@@ -6868,10 +6874,10 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C42" s="11" t="b">
         <v>1</v>
@@ -6976,7 +6982,7 @@
         <v>115</v>
       </c>
       <c r="AK42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL42">
         <v>200</v>
@@ -7019,11 +7025,11 @@
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
-        <v>282</v>
+      <c r="A43" s="34" t="s">
+        <v>349</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -7128,7 +7134,7 @@
         <v>115</v>
       </c>
       <c r="AK43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL43">
         <v>200</v>
@@ -7143,7 +7149,7 @@
         <v>166</v>
       </c>
       <c r="AP43" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ43">
         <v>200</v>
@@ -7171,37 +7177,159 @@
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="C44" s="11"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="41"/>
-      <c r="AE44" s="26"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="17"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="12"/>
-      <c r="AT44" s="12"/>
-      <c r="AU44" s="12"/>
-      <c r="AV44" s="18"/>
-      <c r="AW44" s="18"/>
-      <c r="AX44" s="18"/>
+      <c r="A44" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44">
+        <v>1000</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
+      </c>
+      <c r="H44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K44" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" t="s">
+        <v>215</v>
+      </c>
+      <c r="M44" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" s="26">
+        <v>0</v>
+      </c>
+      <c r="O44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>75</v>
+      </c>
+      <c r="S44">
+        <v>50</v>
+      </c>
+      <c r="T44">
+        <v>60</v>
+      </c>
+      <c r="U44" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z44" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA44" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB44" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC44" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD44" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE44" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI44">
+        <v>30</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK44">
+        <v>5</v>
+      </c>
+      <c r="AL44">
+        <v>200</v>
+      </c>
+      <c r="AM44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP44" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
+        <v>200</v>
+      </c>
+      <c r="AR44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS44" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT44" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU44" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX44" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
-        <v>284</v>
-      </c>
+      <c r="A45" s="40"/>
       <c r="C45" s="11"/>
       <c r="N45" s="26"/>
       <c r="O45" s="18"/>
@@ -7229,166 +7357,44 @@
       <c r="AX45" s="18"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46">
-        <v>1000</v>
-      </c>
-      <c r="G46">
-        <v>500</v>
-      </c>
-      <c r="H46" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" t="s">
-        <v>109</v>
-      </c>
-      <c r="J46" t="s">
-        <v>208</v>
-      </c>
-      <c r="K46" t="s">
-        <v>167</v>
-      </c>
-      <c r="L46" t="s">
-        <v>215</v>
-      </c>
-      <c r="M46" t="s">
-        <v>202</v>
-      </c>
-      <c r="N46" s="26">
-        <v>0</v>
-      </c>
-      <c r="O46" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q46">
-        <v>3</v>
-      </c>
-      <c r="R46">
-        <v>75</v>
-      </c>
-      <c r="S46">
-        <v>50</v>
-      </c>
-      <c r="T46">
-        <v>60</v>
-      </c>
-      <c r="U46" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>10</v>
-      </c>
-      <c r="X46" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y46" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z46" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA46" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB46" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC46" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD46" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AE46" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH46" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI46">
-        <v>30</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK46">
-        <v>5</v>
-      </c>
-      <c r="AL46">
-        <v>200</v>
-      </c>
-      <c r="AM46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP46" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ46">
-        <v>200</v>
-      </c>
-      <c r="AR46" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS46" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT46" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU46" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV46" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW46" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX46" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B46" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="41"/>
+      <c r="AE46" s="26"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="17"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="18"/>
+      <c r="AW46" s="18"/>
+      <c r="AX46" s="18"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C47" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>211</v>
@@ -7469,7 +7475,7 @@
         <v>156</v>
       </c>
       <c r="AD47" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE47" s="26">
         <v>0.12</v>
@@ -7529,100 +7535,252 @@
         <v>1</v>
       </c>
       <c r="AX47" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48">
+        <v>1000</v>
+      </c>
+      <c r="G48">
+        <v>500</v>
+      </c>
+      <c r="H48" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" t="s">
+        <v>167</v>
+      </c>
+      <c r="L48" t="s">
+        <v>215</v>
+      </c>
+      <c r="M48" t="s">
+        <v>202</v>
+      </c>
+      <c r="N48" s="26">
+        <v>0</v>
+      </c>
+      <c r="O48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>75</v>
+      </c>
+      <c r="S48">
+        <v>50</v>
+      </c>
+      <c r="T48">
+        <v>60</v>
+      </c>
+      <c r="U48" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>10</v>
+      </c>
+      <c r="X48" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y48" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z48" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA48" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB48" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC48" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD48" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE48" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH48" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI48">
+        <v>30</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK48">
+        <v>5</v>
+      </c>
+      <c r="AL48">
+        <v>200</v>
+      </c>
+      <c r="AM48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP48" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ48">
+        <v>200</v>
+      </c>
+      <c r="AR48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS48" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT48" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU48" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX48" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM48">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH48">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG48">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR48">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O47 C13:C47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O48 C13:C48">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA47 U13:U47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 U13:U48 AA13:AA48">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W48">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 X13:Z47 AB13:AB47 AD13:AD47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AD13:AD48 AB13:AB48 X13:Z48">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI48">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT48">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU48">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE48">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK48">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL47">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL48">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN47">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN48">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC47"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX47">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC48"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX48">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO48">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP48">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R48">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I48">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7635,37 +7793,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K47</xm:sqref>
+          <xm:sqref>K6:K9 K13:K48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L47</xm:sqref>
+          <xm:sqref>L6:L9 L13:L48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E47</xm:sqref>
+          <xm:sqref>E6:E9 E13:E48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D9 D13:D47</xm:sqref>
+          <xm:sqref>D6:D9 D13:D48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J9 J13:J47</xm:sqref>
+          <xm:sqref>J6:J9 J13:J48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M47</xm:sqref>
+          <xm:sqref>M6:M9 M13:M48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7678,7 +7836,7 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7719,7 +7877,7 @@
         <v>274</v>
       </c>
       <c r="B5" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C5" s="26">
         <v>0.12</v>
@@ -7747,7 +7905,7 @@
         <v>276</v>
       </c>
       <c r="B7" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C7" s="26">
         <v>0.12</v>
@@ -7775,7 +7933,7 @@
         <v>278</v>
       </c>
       <c r="B9" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C9" s="26">
         <v>0.12</v>
@@ -7803,7 +7961,7 @@
         <v>349</v>
       </c>
       <c r="B11" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C11" s="26">
         <v>0.12</v>
@@ -7831,7 +7989,7 @@
         <v>282</v>
       </c>
       <c r="B13" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C13" s="26">
         <v>0.12</v>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -2046,16 +2046,16 @@
   <dimension ref="A1:AX48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40:C44"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="90" customWidth="1"/>
+    <col min="2" max="2" width="98.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
@@ -5911,7 +5911,7 @@
         <v>261</v>
       </c>
       <c r="C34" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6025,13 +6025,14 @@
         <v>1</v>
       </c>
       <c r="AO34" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AP34" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ34">
-        <v>200</v>
+      <c r="AQ34" s="25">
+        <f>225068282*0.75</f>
+        <v>168801211.5</v>
       </c>
       <c r="AR34" s="2" t="s">
         <v>113</v>
@@ -6063,7 +6064,7 @@
         <v>263</v>
       </c>
       <c r="C35" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -6177,13 +6178,14 @@
         <v>1</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AP35" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ35">
-        <v>200</v>
+      <c r="AQ35" s="25">
+        <f t="shared" ref="AQ35:AQ37" si="0">225068282*0.75</f>
+        <v>168801211.5</v>
       </c>
       <c r="AR35" s="2" t="s">
         <v>113</v>
@@ -6215,7 +6217,7 @@
         <v>267</v>
       </c>
       <c r="C36" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>211</v>
@@ -6329,13 +6331,14 @@
         <v>1</v>
       </c>
       <c r="AO36" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AP36" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ36">
-        <v>200</v>
+      <c r="AQ36" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
       </c>
       <c r="AR36" s="2" t="s">
         <v>113</v>
@@ -6367,7 +6370,7 @@
         <v>270</v>
       </c>
       <c r="C37" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -6481,13 +6484,14 @@
         <v>1</v>
       </c>
       <c r="AO37" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AP37" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ37">
-        <v>200</v>
+      <c r="AQ37" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
       </c>
       <c r="AR37" s="2" t="s">
         <v>113</v>
@@ -6576,7 +6580,7 @@
         <v>275</v>
       </c>
       <c r="C40" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>211</v>
@@ -6728,7 +6732,7 @@
         <v>277</v>
       </c>
       <c r="C41" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>211</v>
@@ -6880,7 +6884,7 @@
         <v>279</v>
       </c>
       <c r="C42" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>211</v>
@@ -7032,7 +7036,7 @@
         <v>281</v>
       </c>
       <c r="C43" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>211</v>
@@ -7184,7 +7188,7 @@
         <v>283</v>
       </c>
       <c r="C44" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>211</v>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="353">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>75% initial Funding; Closed 30-year cp, 10-year smoothing</t>
+  </si>
+  <si>
+    <t>A1F100_O30pA5_cap</t>
   </si>
 </sst>
 </file>
@@ -2043,18 +2046,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX48"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AL22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34:C37"/>
+      <selection pane="bottomRight" activeCell="AR39" sqref="AR39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="98.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
@@ -6494,7 +6497,7 @@
         <v>168801211.5</v>
       </c>
       <c r="AR37" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="AS37" s="12">
         <v>0.25</v>
@@ -6516,6 +6519,7 @@
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
       <c r="C38" s="11"/>
       <c r="N38" s="26"/>
       <c r="O38" s="18"/>
@@ -6534,6 +6538,7 @@
       <c r="AM38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="17"/>
+      <c r="AQ38" s="25"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="12"/>
       <c r="AT38" s="12"/>
@@ -6543,649 +6548,277 @@
       <c r="AX38" s="18"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="26"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="17"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="12"/>
-      <c r="AT39" s="12"/>
-      <c r="AU39" s="12"/>
-      <c r="AV39" s="18"/>
-      <c r="AW39" s="18"/>
-      <c r="AX39" s="18"/>
+      <c r="A39" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" t="s">
+        <v>208</v>
+      </c>
+      <c r="K39" t="s">
+        <v>167</v>
+      </c>
+      <c r="L39" t="s">
+        <v>215</v>
+      </c>
+      <c r="M39" t="s">
+        <v>202</v>
+      </c>
+      <c r="N39" s="26">
+        <v>0</v>
+      </c>
+      <c r="O39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>75</v>
+      </c>
+      <c r="S39">
+        <v>50</v>
+      </c>
+      <c r="T39">
+        <v>60</v>
+      </c>
+      <c r="U39" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y39" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z39" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA39" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB39" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC39" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD39" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE39" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI39">
+        <v>30</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK39">
+        <v>5</v>
+      </c>
+      <c r="AL39">
+        <v>200</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP39" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>200</v>
+      </c>
+      <c r="AR39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS39" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT39" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU39" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40">
-        <v>1000</v>
-      </c>
-      <c r="G40">
-        <v>500</v>
-      </c>
-      <c r="H40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" t="s">
-        <v>109</v>
-      </c>
-      <c r="J40" t="s">
-        <v>208</v>
-      </c>
-      <c r="K40" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" t="s">
-        <v>215</v>
-      </c>
-      <c r="M40" t="s">
-        <v>202</v>
-      </c>
-      <c r="N40" s="26">
-        <v>0</v>
-      </c>
-      <c r="O40" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q40">
-        <v>3</v>
-      </c>
-      <c r="R40">
-        <v>75</v>
-      </c>
-      <c r="S40">
-        <v>50</v>
-      </c>
-      <c r="T40">
-        <v>60</v>
-      </c>
-      <c r="U40" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>10</v>
-      </c>
-      <c r="X40" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y40" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z40" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA40" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB40" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC40" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD40" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE40" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH40" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI40">
-        <v>1</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK40">
-        <v>5</v>
-      </c>
-      <c r="AL40">
-        <v>200</v>
-      </c>
-      <c r="AM40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP40" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ40">
-        <v>200</v>
-      </c>
-      <c r="AR40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT40" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU40" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV40" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX40" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="11"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="26"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="17"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="18"/>
+      <c r="AW40" s="18"/>
+      <c r="AX40" s="18"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41">
-        <v>1000</v>
-      </c>
-      <c r="G41">
-        <v>500</v>
-      </c>
-      <c r="H41" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" t="s">
-        <v>208</v>
-      </c>
-      <c r="K41" t="s">
-        <v>167</v>
-      </c>
-      <c r="L41" t="s">
-        <v>215</v>
-      </c>
-      <c r="M41" t="s">
-        <v>202</v>
-      </c>
-      <c r="N41" s="26">
-        <v>0</v>
-      </c>
-      <c r="O41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q41">
-        <v>3</v>
-      </c>
-      <c r="R41">
-        <v>75</v>
-      </c>
-      <c r="S41">
-        <v>50</v>
-      </c>
-      <c r="T41">
-        <v>60</v>
-      </c>
-      <c r="U41" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>10</v>
-      </c>
-      <c r="X41" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y41" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z41" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA41" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB41" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC41" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD41" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE41" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH41" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI41">
-        <v>30</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK41">
-        <v>5</v>
-      </c>
-      <c r="AL41">
-        <v>200</v>
-      </c>
-      <c r="AM41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP41" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ41">
-        <v>200</v>
-      </c>
-      <c r="AR41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS41" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT41" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU41" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX41" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="11"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="26"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="17"/>
+      <c r="AQ41" s="25"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="18"/>
+      <c r="AW41" s="18"/>
+      <c r="AX41" s="18"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C42" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>211</v>
-      </c>
-      <c r="E42" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42">
-        <v>1000</v>
-      </c>
-      <c r="G42">
-        <v>500</v>
-      </c>
-      <c r="H42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>208</v>
-      </c>
-      <c r="K42" t="s">
-        <v>167</v>
-      </c>
-      <c r="L42" t="s">
-        <v>215</v>
-      </c>
-      <c r="M42" t="s">
-        <v>202</v>
-      </c>
-      <c r="N42" s="26">
-        <v>0</v>
-      </c>
-      <c r="O42" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q42">
-        <v>3</v>
-      </c>
-      <c r="R42">
-        <v>75</v>
-      </c>
-      <c r="S42">
-        <v>50</v>
-      </c>
-      <c r="T42">
-        <v>60</v>
-      </c>
-      <c r="U42" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>10</v>
-      </c>
-      <c r="X42" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y42" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z42" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA42" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB42" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC42" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD42" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE42" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH42" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI42">
-        <v>30</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK42">
-        <v>5</v>
-      </c>
-      <c r="AL42">
-        <v>200</v>
-      </c>
-      <c r="AM42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP42" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ42">
-        <v>200</v>
-      </c>
-      <c r="AR42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS42" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT42" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU42" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV42" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW42" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX42" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="C42" s="11"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="26"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="17"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="18"/>
+      <c r="AW42" s="18"/>
+      <c r="AX42" s="18"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43">
-        <v>1000</v>
-      </c>
-      <c r="G43">
-        <v>500</v>
-      </c>
-      <c r="H43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J43" t="s">
-        <v>208</v>
-      </c>
-      <c r="K43" t="s">
-        <v>167</v>
-      </c>
-      <c r="L43" t="s">
-        <v>215</v>
-      </c>
-      <c r="M43" t="s">
-        <v>202</v>
-      </c>
-      <c r="N43" s="26">
-        <v>0</v>
-      </c>
-      <c r="O43" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P43" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-      <c r="R43">
-        <v>75</v>
-      </c>
-      <c r="S43">
-        <v>50</v>
-      </c>
-      <c r="T43">
-        <v>60</v>
-      </c>
-      <c r="U43" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>10</v>
-      </c>
-      <c r="X43" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y43" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z43" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA43" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB43" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC43" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD43" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE43" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG43" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH43" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI43">
-        <v>30</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK43">
-        <v>10</v>
-      </c>
-      <c r="AL43">
-        <v>200</v>
-      </c>
-      <c r="AM43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP43" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ43">
-        <v>200</v>
-      </c>
-      <c r="AR43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS43" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT43" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU43" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV43" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX43" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B43" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="26"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="17"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="18"/>
+      <c r="AX43" s="18"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>282</v>
+      <c r="A44" t="s">
+        <v>274</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C44" s="11" t="b">
         <v>0</v>
@@ -7281,13 +6914,13 @@
         <v>158</v>
       </c>
       <c r="AH44" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AI44">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AJ44" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AK44">
         <v>5</v>
@@ -7305,7 +6938,7 @@
         <v>166</v>
       </c>
       <c r="AP44" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
         <v>200</v>
@@ -7333,69 +6966,315 @@
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="C45" s="11"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="26"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AM45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="17"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="12"/>
-      <c r="AT45" s="12"/>
-      <c r="AU45" s="12"/>
-      <c r="AV45" s="18"/>
-      <c r="AW45" s="18"/>
-      <c r="AX45" s="18"/>
+      <c r="A45" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45">
+        <v>1000</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" t="s">
+        <v>215</v>
+      </c>
+      <c r="M45" t="s">
+        <v>202</v>
+      </c>
+      <c r="N45" s="26">
+        <v>0</v>
+      </c>
+      <c r="O45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>75</v>
+      </c>
+      <c r="S45">
+        <v>50</v>
+      </c>
+      <c r="T45">
+        <v>60</v>
+      </c>
+      <c r="U45" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA45" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB45" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC45" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD45" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE45" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI45">
+        <v>30</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK45">
+        <v>5</v>
+      </c>
+      <c r="AL45">
+        <v>200</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP45" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ45">
+        <v>200</v>
+      </c>
+      <c r="AR45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS45" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT45" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU45" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B46" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="41"/>
-      <c r="AE46" s="26"/>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AM46" s="2"/>
-      <c r="AO46" s="2"/>
-      <c r="AP46" s="17"/>
-      <c r="AR46" s="2"/>
-      <c r="AS46" s="12"/>
-      <c r="AT46" s="12"/>
-      <c r="AU46" s="12"/>
-      <c r="AV46" s="18"/>
-      <c r="AW46" s="18"/>
-      <c r="AX46" s="18"/>
+      <c r="A46" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="H46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" t="s">
+        <v>208</v>
+      </c>
+      <c r="K46" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46" t="s">
+        <v>215</v>
+      </c>
+      <c r="M46" t="s">
+        <v>202</v>
+      </c>
+      <c r="N46" s="26">
+        <v>0</v>
+      </c>
+      <c r="O46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>75</v>
+      </c>
+      <c r="S46">
+        <v>50</v>
+      </c>
+      <c r="T46">
+        <v>60</v>
+      </c>
+      <c r="U46" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="X46" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y46" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z46" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA46" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB46" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC46" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD46" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE46" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI46">
+        <v>30</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK46">
+        <v>5</v>
+      </c>
+      <c r="AL46">
+        <v>200</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP46" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ46">
+        <v>200</v>
+      </c>
+      <c r="AR46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS46" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT46" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU46" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX46" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -7476,10 +7355,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC47" s="26" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="AD47" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE47" s="26">
         <v>0.12</v>
@@ -7500,7 +7379,7 @@
         <v>115</v>
       </c>
       <c r="AK47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL47">
         <v>200</v>
@@ -7543,11 +7422,11 @@
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
-        <v>288</v>
+      <c r="A48" s="40" t="s">
+        <v>282</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C48" s="11" t="b">
         <v>0</v>
@@ -7628,7 +7507,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC48" s="26" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="AD48" s="41">
         <v>8.2199999999999995E-2</v>
@@ -7667,7 +7546,7 @@
         <v>166</v>
       </c>
       <c r="AP48" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>200</v>
@@ -7691,6 +7570,368 @@
         <v>1</v>
       </c>
       <c r="AX48" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="C49" s="11"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="41"/>
+      <c r="AE49" s="26"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="17"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="18"/>
+      <c r="AW49" s="18"/>
+      <c r="AX49" s="18"/>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="26"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="17"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="18"/>
+      <c r="AW50" s="18"/>
+      <c r="AX50" s="18"/>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51">
+        <v>1000</v>
+      </c>
+      <c r="G51">
+        <v>500</v>
+      </c>
+      <c r="H51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" t="s">
+        <v>208</v>
+      </c>
+      <c r="K51" t="s">
+        <v>167</v>
+      </c>
+      <c r="L51" t="s">
+        <v>215</v>
+      </c>
+      <c r="M51" t="s">
+        <v>202</v>
+      </c>
+      <c r="N51" s="26">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>75</v>
+      </c>
+      <c r="S51">
+        <v>50</v>
+      </c>
+      <c r="T51">
+        <v>60</v>
+      </c>
+      <c r="U51" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>10</v>
+      </c>
+      <c r="X51" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y51" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z51" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA51" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB51" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC51" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD51" s="41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AE51" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI51">
+        <v>30</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK51">
+        <v>5</v>
+      </c>
+      <c r="AL51">
+        <v>200</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP51" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ51">
+        <v>200</v>
+      </c>
+      <c r="AR51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS51" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT51" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU51" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX51" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52">
+        <v>1000</v>
+      </c>
+      <c r="G52">
+        <v>500</v>
+      </c>
+      <c r="H52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" t="s">
+        <v>208</v>
+      </c>
+      <c r="K52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" t="s">
+        <v>215</v>
+      </c>
+      <c r="M52" t="s">
+        <v>202</v>
+      </c>
+      <c r="N52" s="26">
+        <v>0</v>
+      </c>
+      <c r="O52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>75</v>
+      </c>
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>60</v>
+      </c>
+      <c r="U52" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>10</v>
+      </c>
+      <c r="X52" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y52" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z52" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA52" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB52" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC52" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD52" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE52" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH52" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI52">
+        <v>30</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK52">
+        <v>5</v>
+      </c>
+      <c r="AL52">
+        <v>200</v>
+      </c>
+      <c r="AM52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP52" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ52">
+        <v>200</v>
+      </c>
+      <c r="AR52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS52" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT52" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU52" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX52" s="18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7709,82 +7950,82 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM52">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH52">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG52">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR52">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O48 C13:C48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 C13:C52 O13:O52">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 U13:U48 AA13:AA48">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA52 U13:U52">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W48">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W52">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AD13:AD48 AB13:AB48 X13:Z48">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 X13:Z52 AB13:AB52 AD13:AD52">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI48">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI52">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT48">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT52">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU48">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU52">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE48">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE52">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK48">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK52">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL48">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL52">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN48">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN52">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC48"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX48">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC52"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX52">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO52">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP48">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP52">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R48">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R52">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I52">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7797,37 +8038,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K48</xm:sqref>
+          <xm:sqref>K6:K9 K13:K52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L48</xm:sqref>
+          <xm:sqref>L6:L9 L13:L52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E48</xm:sqref>
+          <xm:sqref>E6:E9 E13:E52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D9 D13:D48</xm:sqref>
+          <xm:sqref>D6:D9 D13:D52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J9 J13:J48</xm:sqref>
+          <xm:sqref>J6:J9 J13:J52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M48</xm:sqref>
+          <xm:sqref>M6:M9 M13:M52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="355">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1127,6 +1127,12 @@
   </si>
   <si>
     <t>A1F100_O30pA5_cap</t>
+  </si>
+  <si>
+    <t>A1F075_soa1_cap</t>
+  </si>
+  <si>
+    <t>A1F075_soa3_cap</t>
   </si>
 </sst>
 </file>
@@ -2049,10 +2055,10 @@
   <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AL22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AR39" sqref="AR39"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5914,7 +5920,7 @@
         <v>261</v>
       </c>
       <c r="C34" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6067,7 +6073,7 @@
         <v>263</v>
       </c>
       <c r="C35" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -6220,7 +6226,7 @@
         <v>267</v>
       </c>
       <c r="C36" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>211</v>
@@ -6373,7 +6379,7 @@
         <v>270</v>
       </c>
       <c r="C37" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -6555,7 +6561,7 @@
         <v>259</v>
       </c>
       <c r="C39" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>211</v>
@@ -6678,10 +6684,10 @@
         <v>200</v>
       </c>
       <c r="AR39" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="AS39" s="12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT39" s="12">
         <v>0.14499999999999999</v>
@@ -6700,61 +6706,310 @@
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="11"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="26"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="17"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="12"/>
-      <c r="AT40" s="12"/>
-      <c r="AU40" s="12"/>
-      <c r="AV40" s="18"/>
-      <c r="AW40" s="18"/>
-      <c r="AX40" s="18"/>
+      <c r="A40" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
+        <v>500</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" t="s">
+        <v>208</v>
+      </c>
+      <c r="K40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L40" t="s">
+        <v>215</v>
+      </c>
+      <c r="M40" t="s">
+        <v>202</v>
+      </c>
+      <c r="N40" s="26">
+        <v>0</v>
+      </c>
+      <c r="O40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>75</v>
+      </c>
+      <c r="S40">
+        <v>50</v>
+      </c>
+      <c r="T40">
+        <v>60</v>
+      </c>
+      <c r="U40" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>10</v>
+      </c>
+      <c r="X40" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y40" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z40" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA40" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB40" s="26">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AC40" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD40" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE40" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH40" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI40">
+        <v>15</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK40">
+        <v>5</v>
+      </c>
+      <c r="AL40">
+        <v>200</v>
+      </c>
+      <c r="AM40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP40" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ40" s="25">
+        <f>225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS40" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AT40" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU40" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="11"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="26"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AM41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="17"/>
-      <c r="AQ41" s="25"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="12"/>
-      <c r="AT41" s="12"/>
-      <c r="AU41" s="12"/>
-      <c r="AV41" s="18"/>
-      <c r="AW41" s="18"/>
-      <c r="AX41" s="18"/>
+      <c r="A41" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41">
+        <v>1000</v>
+      </c>
+      <c r="G41">
+        <v>500</v>
+      </c>
+      <c r="H41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" t="s">
+        <v>208</v>
+      </c>
+      <c r="K41" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" t="s">
+        <v>215</v>
+      </c>
+      <c r="M41" t="s">
+        <v>202</v>
+      </c>
+      <c r="N41" s="26">
+        <v>0</v>
+      </c>
+      <c r="O41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>75</v>
+      </c>
+      <c r="S41">
+        <v>50</v>
+      </c>
+      <c r="T41">
+        <v>60</v>
+      </c>
+      <c r="U41" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z41" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA41" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB41" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AC41" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD41" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE41" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI41">
+        <v>15</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK41">
+        <v>5</v>
+      </c>
+      <c r="AL41">
+        <v>200</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP41" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ41" s="25">
+        <f t="shared" ref="AQ41" si="1">225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS41" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AT41" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU41" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C42" s="11"/>
@@ -7966,7 +8221,7 @@
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 C13:C52 O13:O52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O52 C13:C52">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -1126,13 +1126,13 @@
     <t>75% initial Funding; Closed 30-year cp, 10-year smoothing</t>
   </si>
   <si>
-    <t>A1F100_O30pA5_cap</t>
-  </si>
-  <si>
     <t>A1F075_soa1_cap</t>
   </si>
   <si>
     <t>A1F075_soa3_cap</t>
+  </si>
+  <si>
+    <t>A1F075_O30pA5_cap</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2058,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,7 +3129,7 @@
         <v>226</v>
       </c>
       <c r="C14" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>211</v>
@@ -3281,7 +3281,7 @@
         <v>229</v>
       </c>
       <c r="C15" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>211</v>
@@ -3433,7 +3433,7 @@
         <v>231</v>
       </c>
       <c r="C16" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>211</v>
@@ -3585,7 +3585,7 @@
         <v>233</v>
       </c>
       <c r="C17" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>211</v>
@@ -3737,7 +3737,7 @@
         <v>235</v>
       </c>
       <c r="C18" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>211</v>
@@ -3889,7 +3889,7 @@
         <v>237</v>
       </c>
       <c r="C19" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>211</v>
@@ -4041,7 +4041,7 @@
         <v>239</v>
       </c>
       <c r="C20" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>211</v>
@@ -4193,7 +4193,7 @@
         <v>241</v>
       </c>
       <c r="C21" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>211</v>
@@ -4345,7 +4345,7 @@
         <v>243</v>
       </c>
       <c r="C22" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>211</v>
@@ -4497,7 +4497,7 @@
         <v>245</v>
       </c>
       <c r="C23" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>211</v>
@@ -4649,7 +4649,7 @@
         <v>247</v>
       </c>
       <c r="C24" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>211</v>
@@ -4829,7 +4829,7 @@
         <v>249</v>
       </c>
       <c r="C26" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>211</v>
@@ -4981,7 +4981,7 @@
         <v>251</v>
       </c>
       <c r="C27" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>211</v>
@@ -5133,7 +5133,7 @@
         <v>253</v>
       </c>
       <c r="C28" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>211</v>
@@ -5285,7 +5285,7 @@
         <v>255</v>
       </c>
       <c r="C29" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>211</v>
@@ -5437,7 +5437,7 @@
         <v>257</v>
       </c>
       <c r="C30" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>211</v>
@@ -5589,7 +5589,7 @@
         <v>351</v>
       </c>
       <c r="C31" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>211</v>
@@ -5741,7 +5741,7 @@
         <v>259</v>
       </c>
       <c r="C32" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>211</v>
@@ -5920,7 +5920,7 @@
         <v>261</v>
       </c>
       <c r="C34" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6073,7 +6073,7 @@
         <v>263</v>
       </c>
       <c r="C35" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -6226,7 +6226,7 @@
         <v>267</v>
       </c>
       <c r="C36" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>211</v>
@@ -6379,7 +6379,7 @@
         <v>270</v>
       </c>
       <c r="C37" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>259</v>
@@ -6678,7 +6678,7 @@
         <v>166</v>
       </c>
       <c r="AP39" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39">
         <v>200</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>261</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>267</v>
@@ -7076,7 +7076,7 @@
         <v>275</v>
       </c>
       <c r="C44" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>211</v>
@@ -7228,7 +7228,7 @@
         <v>277</v>
       </c>
       <c r="C45" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
         <v>211</v>
@@ -7380,7 +7380,7 @@
         <v>279</v>
       </c>
       <c r="C46" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>211</v>
@@ -7532,7 +7532,7 @@
         <v>281</v>
       </c>
       <c r="C47" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>211</v>
@@ -7684,7 +7684,7 @@
         <v>283</v>
       </c>
       <c r="C48" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
         <v>211</v>
@@ -7894,7 +7894,7 @@
         <v>286</v>
       </c>
       <c r="C51" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>211</v>
@@ -8046,7 +8046,7 @@
         <v>289</v>
       </c>
       <c r="C52" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="358">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1133,6 +1133,15 @@
   </si>
   <si>
     <t>A1F075_O30pA5_cap</t>
+  </si>
+  <si>
+    <t>A1F075_soa4.1</t>
+  </si>
+  <si>
+    <t>75% initial Funding; SOA smoothing: open 15-year cp; 5-year asset smoothing, DR 5.9%, ir 5.9%, sd 12%; Preset MA</t>
+  </si>
+  <si>
+    <t>A1F075_soa2.1</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1396,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,13 +1405,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2052,13 +2061,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX52"/>
+  <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,61 +2260,61 @@
       </c>
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="44" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="44"/>
+      <c r="P4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="45" t="s">
+      <c r="Z4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="47" t="s">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
       <c r="AF4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="42" t="s">
+      <c r="AG4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
       <c r="AJ4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2313,17 +2322,17 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="47" t="s">
+      <c r="AO4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="48" t="s">
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
       <c r="AV4" s="15"/>
       <c r="AW4" s="22"/>
       <c r="AX4" s="20"/>
@@ -3129,7 +3138,7 @@
         <v>226</v>
       </c>
       <c r="C14" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>211</v>
@@ -3281,7 +3290,7 @@
         <v>229</v>
       </c>
       <c r="C15" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>211</v>
@@ -3433,7 +3442,7 @@
         <v>231</v>
       </c>
       <c r="C16" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>211</v>
@@ -3585,7 +3594,7 @@
         <v>233</v>
       </c>
       <c r="C17" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>211</v>
@@ -3737,7 +3746,7 @@
         <v>235</v>
       </c>
       <c r="C18" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>211</v>
@@ -3889,7 +3898,7 @@
         <v>237</v>
       </c>
       <c r="C19" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>211</v>
@@ -4041,7 +4050,7 @@
         <v>239</v>
       </c>
       <c r="C20" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>211</v>
@@ -4193,7 +4202,7 @@
         <v>241</v>
       </c>
       <c r="C21" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>211</v>
@@ -4345,7 +4354,7 @@
         <v>243</v>
       </c>
       <c r="C22" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>211</v>
@@ -4497,7 +4506,7 @@
         <v>245</v>
       </c>
       <c r="C23" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>211</v>
@@ -4649,7 +4658,7 @@
         <v>247</v>
       </c>
       <c r="C24" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>211</v>
@@ -4829,7 +4838,7 @@
         <v>249</v>
       </c>
       <c r="C26" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>211</v>
@@ -4981,7 +4990,7 @@
         <v>251</v>
       </c>
       <c r="C27" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>211</v>
@@ -5133,7 +5142,7 @@
         <v>253</v>
       </c>
       <c r="C28" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>211</v>
@@ -5285,7 +5294,7 @@
         <v>255</v>
       </c>
       <c r="C29" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>211</v>
@@ -5437,7 +5446,7 @@
         <v>257</v>
       </c>
       <c r="C30" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>211</v>
@@ -5589,7 +5598,7 @@
         <v>351</v>
       </c>
       <c r="C31" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>211</v>
@@ -5741,7 +5750,7 @@
         <v>259</v>
       </c>
       <c r="C32" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>211</v>
@@ -5920,7 +5929,7 @@
         <v>261</v>
       </c>
       <c r="C34" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6073,7 +6082,7 @@
         <v>263</v>
       </c>
       <c r="C35" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -6193,7 +6202,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ35" s="25">
-        <f t="shared" ref="AQ35:AQ37" si="0">225068282*0.75</f>
+        <f t="shared" ref="AQ35:AQ39" si="0">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
       <c r="AR35" s="2" t="s">
@@ -6219,14 +6228,14 @@
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>266</v>
+      <c r="A36" t="s">
+        <v>357</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C36" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>211</v>
@@ -6301,13 +6310,13 @@
         <v>0.01</v>
       </c>
       <c r="AB36" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AC36" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD36" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AE36" s="26">
         <v>0.12</v>
@@ -6372,14 +6381,14 @@
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>269</v>
+      <c r="A37" s="37" t="s">
+        <v>266</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -6460,7 +6469,7 @@
         <v>156</v>
       </c>
       <c r="AD37" s="41">
-        <v>6.6199999999999995E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE37" s="26">
         <v>0.12</v>
@@ -6503,7 +6512,7 @@
         <v>168801211.5</v>
       </c>
       <c r="AR37" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="AS37" s="12">
         <v>0.25</v>
@@ -6525,40 +6534,164 @@
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="11"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="26"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="25"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="12"/>
-      <c r="AT38" s="12"/>
-      <c r="AU38" s="12"/>
-      <c r="AV38" s="18"/>
-      <c r="AW38" s="18"/>
-      <c r="AX38" s="18"/>
+      <c r="A38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" t="s">
+        <v>202</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0</v>
+      </c>
+      <c r="O38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>75</v>
+      </c>
+      <c r="S38">
+        <v>50</v>
+      </c>
+      <c r="T38">
+        <v>60</v>
+      </c>
+      <c r="U38" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y38" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z38" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA38" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB38" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AC38" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD38" s="41">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="AE38" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH38" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI38">
+        <v>15</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK38">
+        <v>5</v>
+      </c>
+      <c r="AL38">
+        <v>200</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP38" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ38" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS38" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT38" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU38" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -6636,13 +6769,13 @@
         <v>0.01</v>
       </c>
       <c r="AB39" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC39" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD39" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AE39" s="26">
         <v>0.12</v>
@@ -6657,7 +6790,7 @@
         <v>348</v>
       </c>
       <c r="AI39">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="s">
         <v>115</v>
@@ -6675,19 +6808,20 @@
         <v>1</v>
       </c>
       <c r="AO39" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AP39" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ39">
-        <v>200</v>
+      <c r="AQ39" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
       </c>
       <c r="AR39" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="AS39" s="12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AT39" s="12">
         <v>0.14499999999999999</v>
@@ -6706,681 +6840,558 @@
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="11"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="26"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="17"/>
+      <c r="AQ40" s="25"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="18"/>
+      <c r="AW40" s="18"/>
+      <c r="AX40" s="18"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41">
+        <v>1000</v>
+      </c>
+      <c r="G41">
+        <v>500</v>
+      </c>
+      <c r="H41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" t="s">
+        <v>208</v>
+      </c>
+      <c r="K41" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" t="s">
+        <v>215</v>
+      </c>
+      <c r="M41" t="s">
+        <v>202</v>
+      </c>
+      <c r="N41" s="26">
+        <v>0</v>
+      </c>
+      <c r="O41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>75</v>
+      </c>
+      <c r="S41">
+        <v>50</v>
+      </c>
+      <c r="T41">
+        <v>60</v>
+      </c>
+      <c r="U41" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z41" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA41" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB41" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC41" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD41" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE41" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI41">
+        <v>30</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK41">
+        <v>5</v>
+      </c>
+      <c r="AL41">
+        <v>200</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP41" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ41">
+        <v>200</v>
+      </c>
+      <c r="AR41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS41" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AT41" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU41" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B42" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C40" s="11" t="b">
+      <c r="C42" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42">
+        <v>1000</v>
+      </c>
+      <c r="G42">
+        <v>500</v>
+      </c>
+      <c r="H42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" t="s">
+        <v>167</v>
+      </c>
+      <c r="L42" t="s">
+        <v>215</v>
+      </c>
+      <c r="M42" t="s">
+        <v>202</v>
+      </c>
+      <c r="N42" s="26">
+        <v>0</v>
+      </c>
+      <c r="O42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>75</v>
+      </c>
+      <c r="S42">
+        <v>50</v>
+      </c>
+      <c r="T42">
+        <v>60</v>
+      </c>
+      <c r="U42" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>10</v>
+      </c>
+      <c r="X42" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y42" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z42" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA42" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB42" s="26">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AC42" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD42" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE42" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH42" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI42">
+        <v>15</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK42">
+        <v>5</v>
+      </c>
+      <c r="AL42">
+        <v>200</v>
+      </c>
+      <c r="AM42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN42">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40">
-        <v>1000</v>
-      </c>
-      <c r="G40">
-        <v>500</v>
-      </c>
-      <c r="H40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" t="s">
-        <v>109</v>
-      </c>
-      <c r="J40" t="s">
-        <v>208</v>
-      </c>
-      <c r="K40" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" t="s">
-        <v>215</v>
-      </c>
-      <c r="M40" t="s">
-        <v>202</v>
-      </c>
-      <c r="N40" s="26">
-        <v>0</v>
-      </c>
-      <c r="O40" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q40">
-        <v>3</v>
-      </c>
-      <c r="R40">
-        <v>75</v>
-      </c>
-      <c r="S40">
-        <v>50</v>
-      </c>
-      <c r="T40">
-        <v>60</v>
-      </c>
-      <c r="U40" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>10</v>
-      </c>
-      <c r="X40" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y40" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z40" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA40" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB40" s="26">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AC40" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD40" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE40" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH40" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI40">
-        <v>15</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK40">
-        <v>5</v>
-      </c>
-      <c r="AL40">
-        <v>200</v>
-      </c>
-      <c r="AM40" s="2" t="s">
+      <c r="AO42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP40" s="17">
+      <c r="AP42" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ40" s="25">
+      <c r="AQ42" s="25">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AR40" s="2" t="s">
+      <c r="AR42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AS40" s="12">
+      <c r="AS42" s="12">
         <v>0.2</v>
       </c>
-      <c r="AT40" s="12">
+      <c r="AT42" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU40" s="12">
+      <c r="AU42" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV40" s="18" t="b">
+      <c r="AV42" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW40" s="18" t="b">
+      <c r="AW42" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX40" s="18" t="b">
+      <c r="AX42" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41">
-        <v>1000</v>
-      </c>
-      <c r="G41">
-        <v>500</v>
-      </c>
-      <c r="H41" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" t="s">
-        <v>208</v>
-      </c>
-      <c r="K41" t="s">
-        <v>167</v>
-      </c>
-      <c r="L41" t="s">
-        <v>215</v>
-      </c>
-      <c r="M41" t="s">
-        <v>202</v>
-      </c>
-      <c r="N41" s="26">
-        <v>0</v>
-      </c>
-      <c r="O41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q41">
-        <v>3</v>
-      </c>
-      <c r="R41">
-        <v>75</v>
-      </c>
-      <c r="S41">
-        <v>50</v>
-      </c>
-      <c r="T41">
-        <v>60</v>
-      </c>
-      <c r="U41" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>10</v>
-      </c>
-      <c r="X41" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y41" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z41" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA41" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB41" s="26">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="AC41" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD41" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE41" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH41" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI41">
-        <v>15</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK41">
-        <v>5</v>
-      </c>
-      <c r="AL41">
-        <v>200</v>
-      </c>
-      <c r="AM41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP41" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ41" s="25">
-        <f t="shared" ref="AQ41" si="1">225068282*0.75</f>
-        <v>168801211.5</v>
-      </c>
-      <c r="AR41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS41" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="AT41" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU41" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX41" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C42" s="11"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="26"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AM42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="17"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="12"/>
-      <c r="AT42" s="12"/>
-      <c r="AU42" s="12"/>
-      <c r="AV42" s="18"/>
-      <c r="AW42" s="18"/>
-      <c r="AX42" s="18"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="41"/>
-      <c r="AE43" s="26"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AM43" s="2"/>
-      <c r="AO43" s="2"/>
-      <c r="AP43" s="17"/>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="12"/>
-      <c r="AT43" s="12"/>
-      <c r="AU43" s="12"/>
-      <c r="AV43" s="18"/>
-      <c r="AW43" s="18"/>
-      <c r="AX43" s="18"/>
+      <c r="A43" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43">
+        <v>1000</v>
+      </c>
+      <c r="G43">
+        <v>500</v>
+      </c>
+      <c r="H43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" t="s">
+        <v>167</v>
+      </c>
+      <c r="L43" t="s">
+        <v>215</v>
+      </c>
+      <c r="M43" t="s">
+        <v>202</v>
+      </c>
+      <c r="N43" s="26">
+        <v>0</v>
+      </c>
+      <c r="O43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>75</v>
+      </c>
+      <c r="S43">
+        <v>50</v>
+      </c>
+      <c r="T43">
+        <v>60</v>
+      </c>
+      <c r="U43" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>10</v>
+      </c>
+      <c r="X43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z43" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA43" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB43" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AC43" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD43" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE43" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI43">
+        <v>15</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK43">
+        <v>5</v>
+      </c>
+      <c r="AL43">
+        <v>200</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP43" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ43" s="25">
+        <f t="shared" ref="AQ43" si="1">225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS43" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AT43" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU43" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C44" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44">
-        <v>1000</v>
-      </c>
-      <c r="G44">
-        <v>500</v>
-      </c>
-      <c r="H44" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" t="s">
-        <v>208</v>
-      </c>
-      <c r="K44" t="s">
-        <v>167</v>
-      </c>
-      <c r="L44" t="s">
-        <v>215</v>
-      </c>
-      <c r="M44" t="s">
-        <v>202</v>
-      </c>
-      <c r="N44" s="26">
-        <v>0</v>
-      </c>
-      <c r="O44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q44">
-        <v>3</v>
-      </c>
-      <c r="R44">
-        <v>75</v>
-      </c>
-      <c r="S44">
-        <v>50</v>
-      </c>
-      <c r="T44">
-        <v>60</v>
-      </c>
-      <c r="U44" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>10</v>
-      </c>
-      <c r="X44" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y44" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z44" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA44" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB44" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC44" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD44" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE44" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH44" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK44">
-        <v>5</v>
-      </c>
-      <c r="AL44">
-        <v>200</v>
-      </c>
-      <c r="AM44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP44" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ44">
-        <v>200</v>
-      </c>
-      <c r="AR44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS44" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT44" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU44" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX44" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="C44" s="11"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="26"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="17"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="18"/>
+      <c r="AW44" s="18"/>
+      <c r="AX44" s="18"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45">
-        <v>1000</v>
-      </c>
-      <c r="G45">
-        <v>500</v>
-      </c>
-      <c r="H45" t="s">
-        <v>109</v>
-      </c>
-      <c r="I45" t="s">
-        <v>109</v>
-      </c>
-      <c r="J45" t="s">
-        <v>208</v>
-      </c>
-      <c r="K45" t="s">
-        <v>167</v>
-      </c>
-      <c r="L45" t="s">
-        <v>215</v>
-      </c>
-      <c r="M45" t="s">
-        <v>202</v>
-      </c>
-      <c r="N45" s="26">
-        <v>0</v>
-      </c>
-      <c r="O45" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P45" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
-      <c r="R45">
-        <v>75</v>
-      </c>
-      <c r="S45">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>60</v>
-      </c>
-      <c r="U45" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>10</v>
-      </c>
-      <c r="X45" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y45" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z45" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA45" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB45" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC45" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD45" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE45" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH45" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI45">
-        <v>30</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK45">
-        <v>5</v>
-      </c>
-      <c r="AL45">
-        <v>200</v>
-      </c>
-      <c r="AM45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP45" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ45">
-        <v>200</v>
-      </c>
-      <c r="AR45" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS45" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT45" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU45" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV45" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX45" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B45" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="26"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="17"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="18"/>
+      <c r="AW45" s="18"/>
+      <c r="AX45" s="18"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>278</v>
+      <c r="A46" t="s">
+        <v>274</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C46" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>211</v>
@@ -7473,13 +7484,13 @@
         <v>158</v>
       </c>
       <c r="AH46" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AI46">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AJ46" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AK46">
         <v>5</v>
@@ -7526,13 +7537,13 @@
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C47" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>211</v>
@@ -7631,10 +7642,10 @@
         <v>30</v>
       </c>
       <c r="AJ47" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AK47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL47">
         <v>200</v>
@@ -7677,14 +7688,14 @@
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
-        <v>282</v>
+      <c r="A48" s="34" t="s">
+        <v>278</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C48" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>211</v>
@@ -7801,7 +7812,7 @@
         <v>166</v>
       </c>
       <c r="AP48" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
         <v>200</v>
@@ -7829,458 +7840,762 @@
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="C49" s="11"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="26"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="17"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="12"/>
-      <c r="AT49" s="12"/>
-      <c r="AU49" s="12"/>
-      <c r="AV49" s="18"/>
-      <c r="AW49" s="18"/>
-      <c r="AX49" s="18"/>
+      <c r="A49" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49">
+        <v>1000</v>
+      </c>
+      <c r="G49">
+        <v>500</v>
+      </c>
+      <c r="H49" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" t="s">
+        <v>208</v>
+      </c>
+      <c r="K49" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" t="s">
+        <v>215</v>
+      </c>
+      <c r="M49" t="s">
+        <v>202</v>
+      </c>
+      <c r="N49" s="26">
+        <v>0</v>
+      </c>
+      <c r="O49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>75</v>
+      </c>
+      <c r="S49">
+        <v>50</v>
+      </c>
+      <c r="T49">
+        <v>60</v>
+      </c>
+      <c r="U49" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>10</v>
+      </c>
+      <c r="X49" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y49" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z49" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA49" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB49" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC49" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD49" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE49" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH49" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI49">
+        <v>30</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK49">
+        <v>10</v>
+      </c>
+      <c r="AL49">
+        <v>200</v>
+      </c>
+      <c r="AM49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP49" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ49">
+        <v>200</v>
+      </c>
+      <c r="AR49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS49" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT49" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU49" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX49" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="41"/>
-      <c r="AE50" s="26"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AM50" s="2"/>
-      <c r="AO50" s="2"/>
-      <c r="AP50" s="17"/>
-      <c r="AR50" s="2"/>
-      <c r="AS50" s="12"/>
-      <c r="AT50" s="12"/>
-      <c r="AU50" s="12"/>
-      <c r="AV50" s="18"/>
-      <c r="AW50" s="18"/>
-      <c r="AX50" s="18"/>
+      <c r="A50" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50">
+        <v>1000</v>
+      </c>
+      <c r="G50">
+        <v>500</v>
+      </c>
+      <c r="H50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" t="s">
+        <v>208</v>
+      </c>
+      <c r="K50" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" t="s">
+        <v>215</v>
+      </c>
+      <c r="M50" t="s">
+        <v>202</v>
+      </c>
+      <c r="N50" s="26">
+        <v>0</v>
+      </c>
+      <c r="O50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>75</v>
+      </c>
+      <c r="S50">
+        <v>50</v>
+      </c>
+      <c r="T50">
+        <v>60</v>
+      </c>
+      <c r="U50" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>10</v>
+      </c>
+      <c r="X50" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y50" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z50" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA50" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB50" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC50" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD50" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE50" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI50">
+        <v>30</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK50">
+        <v>5</v>
+      </c>
+      <c r="AL50">
+        <v>200</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP50" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>200</v>
+      </c>
+      <c r="AR50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS50" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT50" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU50" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E51" t="s">
-        <v>188</v>
-      </c>
-      <c r="F51">
-        <v>1000</v>
-      </c>
-      <c r="G51">
-        <v>500</v>
-      </c>
-      <c r="H51" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" t="s">
-        <v>109</v>
-      </c>
-      <c r="J51" t="s">
-        <v>208</v>
-      </c>
-      <c r="K51" t="s">
-        <v>167</v>
-      </c>
-      <c r="L51" t="s">
-        <v>215</v>
-      </c>
-      <c r="M51" t="s">
-        <v>202</v>
-      </c>
-      <c r="N51" s="26">
-        <v>0</v>
-      </c>
-      <c r="O51" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q51">
-        <v>3</v>
-      </c>
-      <c r="R51">
-        <v>75</v>
-      </c>
-      <c r="S51">
-        <v>50</v>
-      </c>
-      <c r="T51">
-        <v>60</v>
-      </c>
-      <c r="U51" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>10</v>
-      </c>
-      <c r="X51" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y51" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z51" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA51" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB51" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC51" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD51" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AE51" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG51" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH51" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI51">
-        <v>30</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK51">
-        <v>5</v>
-      </c>
-      <c r="AL51">
-        <v>200</v>
-      </c>
-      <c r="AM51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP51" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ51">
-        <v>200</v>
-      </c>
-      <c r="AR51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS51" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT51" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU51" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV51" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW51" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX51" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="A51" s="40"/>
+      <c r="C51" s="11"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="26"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="17"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18"/>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="B52" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="26"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="41"/>
+      <c r="AE52" s="26"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="17"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="18"/>
+      <c r="AW52" s="18"/>
+      <c r="AX52" s="18"/>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53">
+        <v>1000</v>
+      </c>
+      <c r="G53">
+        <v>500</v>
+      </c>
+      <c r="H53" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J53" t="s">
+        <v>208</v>
+      </c>
+      <c r="K53" t="s">
+        <v>167</v>
+      </c>
+      <c r="L53" t="s">
+        <v>215</v>
+      </c>
+      <c r="M53" t="s">
+        <v>202</v>
+      </c>
+      <c r="N53" s="26">
+        <v>0</v>
+      </c>
+      <c r="O53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>75</v>
+      </c>
+      <c r="S53">
+        <v>50</v>
+      </c>
+      <c r="T53">
+        <v>60</v>
+      </c>
+      <c r="U53" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>10</v>
+      </c>
+      <c r="X53" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y53" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z53" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA53" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB53" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC53" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD53" s="41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AE53" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH53" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI53">
+        <v>30</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK53">
+        <v>5</v>
+      </c>
+      <c r="AL53">
+        <v>200</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP53" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ53">
+        <v>200</v>
+      </c>
+      <c r="AR53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS53" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT53" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU53" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX53" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B54" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="11" t="b">
+      <c r="C54" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54">
+        <v>1000</v>
+      </c>
+      <c r="G54">
+        <v>500</v>
+      </c>
+      <c r="H54" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J54" t="s">
+        <v>208</v>
+      </c>
+      <c r="K54" t="s">
+        <v>167</v>
+      </c>
+      <c r="L54" t="s">
+        <v>215</v>
+      </c>
+      <c r="M54" t="s">
+        <v>202</v>
+      </c>
+      <c r="N54" s="26">
+        <v>0</v>
+      </c>
+      <c r="O54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>75</v>
+      </c>
+      <c r="S54">
+        <v>50</v>
+      </c>
+      <c r="T54">
+        <v>60</v>
+      </c>
+      <c r="U54" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>10</v>
+      </c>
+      <c r="X54" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y54" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z54" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA54" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB54" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC54" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD54" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE54" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH54" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI54">
+        <v>30</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK54">
+        <v>5</v>
+      </c>
+      <c r="AL54">
+        <v>200</v>
+      </c>
+      <c r="AM54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN54">
         <v>1</v>
       </c>
-      <c r="D52" t="s">
-        <v>211</v>
-      </c>
-      <c r="E52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52">
-        <v>1000</v>
-      </c>
-      <c r="G52">
-        <v>500</v>
-      </c>
-      <c r="H52" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" t="s">
-        <v>109</v>
-      </c>
-      <c r="J52" t="s">
-        <v>208</v>
-      </c>
-      <c r="K52" t="s">
-        <v>167</v>
-      </c>
-      <c r="L52" t="s">
-        <v>215</v>
-      </c>
-      <c r="M52" t="s">
-        <v>202</v>
-      </c>
-      <c r="N52" s="26">
+      <c r="AO54" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP54" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ54">
+        <v>200</v>
+      </c>
+      <c r="AR54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS54" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT54" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU54" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV54" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="O52" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P52" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q52">
-        <v>3</v>
-      </c>
-      <c r="R52">
-        <v>75</v>
-      </c>
-      <c r="S52">
-        <v>50</v>
-      </c>
-      <c r="T52">
-        <v>60</v>
-      </c>
-      <c r="U52" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>10</v>
-      </c>
-      <c r="X52" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y52" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z52" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA52" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB52" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC52" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD52" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE52" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH52" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI52">
-        <v>30</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK52">
-        <v>5</v>
-      </c>
-      <c r="AL52">
-        <v>200</v>
-      </c>
-      <c r="AM52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN52">
+      <c r="AW54" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AO52" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP52" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ52">
-        <v>200</v>
-      </c>
-      <c r="AR52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS52" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT52" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU52" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV52" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW52" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX52" s="18" t="b">
+      <c r="AX54" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM54">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH54">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG54">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR54">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O52 C13:C52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 C13:C54 O13:O54">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA52 U13:U52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA54 U13:U54">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W52">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W54">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 X13:Z52 AB13:AB52 AD13:AD52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 X13:Z54 AB13:AB54 AD13:AD54">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI52">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI54">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT54">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU54">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE54">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK52">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK54">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL52">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL54">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN52">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC52"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX52">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC54"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX54">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO54">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP54">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R52">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R54">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I54">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8293,37 +8608,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K52</xm:sqref>
+          <xm:sqref>K6:K9 K13:K54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L52</xm:sqref>
+          <xm:sqref>L6:L9 L13:L54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E52</xm:sqref>
+          <xm:sqref>E6:E9 E13:E54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D9 D13:D52</xm:sqref>
+          <xm:sqref>D6:D9 D13:D54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J9 J13:J52</xm:sqref>
+          <xm:sqref>J6:J9 J13:J54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M52</xm:sqref>
+          <xm:sqref>M6:M9 M13:M54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="359">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1142,6 +1142,9 @@
   </si>
   <si>
     <t>A1F075_soa2.1</t>
+  </si>
+  <si>
+    <t>save.indiv</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1322,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1396,6 +1399,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2061,58 +2067,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX54"/>
+  <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="98.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="9" width="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125"/>
-    <col min="12" max="13" width="22" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="20" width="9.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16"/>
-    <col min="22" max="23" width="12.7109375"/>
-    <col min="24" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="28" width="12.7109375"/>
-    <col min="29" max="29" width="11.140625" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" style="24"/>
-    <col min="31" max="34" width="12.7109375"/>
-    <col min="35" max="35" width="12.7109375" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" customWidth="1"/>
-    <col min="41" max="42" width="11.7109375" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" customWidth="1"/>
-    <col min="44" max="47" width="12.7109375"/>
-    <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="1037" width="8.5703125"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125"/>
+    <col min="13" max="14" width="22" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16"/>
+    <col min="23" max="24" width="12.7109375"/>
+    <col min="25" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="24"/>
+    <col min="32" max="35" width="12.7109375"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="42" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" customWidth="1"/>
+    <col min="45" max="48" width="12.7109375"/>
+    <col min="51" max="51" width="9" customWidth="1"/>
+    <col min="52" max="1038" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AR1" s="1" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AS1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:50" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2132,212 +2138,215 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AE2" s="24"/>
+      <c r="AJ2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="4" t="s">
+      <c r="AL2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="AI3" s="4" t="s">
+      <c r="U3" s="4"/>
+      <c r="AJ3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AP3" s="4"/>
-      <c r="AS3" s="4" t="s">
+      <c r="AQ3" s="4"/>
+      <c r="AT3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="27"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="43" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="44" t="s">
+      <c r="M4" s="44"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="29"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="44" t="s">
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="42" t="s">
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="7" t="s">
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="45" t="s">
+      <c r="AH4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="21" t="s">
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="42" t="s">
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="46" t="s">
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="20"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="20"/>
     </row>
-    <row r="5" spans="1:50" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -2348,148 +2357,151 @@
         <v>73</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AB5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AC5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AD5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AE5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AG5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AH5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AM5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AN5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AN5" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AP5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AR5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AS5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AT5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AU5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AV5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AW5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="AW5" s="9" t="s">
+      <c r="AX5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AY5" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -2499,140 +2511,140 @@
       <c r="C6" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>211</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>188</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>500</v>
-      </c>
-      <c r="H6" t="s">
-        <v>109</v>
       </c>
       <c r="I6" t="s">
         <v>109</v>
       </c>
       <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
         <v>208</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>167</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>215</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>202</v>
       </c>
-      <c r="N6" s="26">
+      <c r="O6" s="26">
         <v>0</v>
       </c>
-      <c r="O6" s="18" t="b">
+      <c r="P6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="26">
+      <c r="Q6" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>75</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>50</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>60</v>
       </c>
-      <c r="U6" s="26">
+      <c r="V6" s="26">
         <v>0.02</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10</v>
-      </c>
-      <c r="X6" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y6" s="26">
         <v>0.04</v>
       </c>
       <c r="Z6" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA6" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AB6" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AC6" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AD6" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD6" s="41">
+      <c r="AE6" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AF6" s="26">
         <v>0</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>112</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>142</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>5</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>200</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP6" s="17">
+      <c r="AQ6" s="17">
         <v>1</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>200</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS6" s="12">
+      <c r="AT6" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AU6" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AV6" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV6" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW6" s="18" t="b">
         <v>0</v>
@@ -2640,8 +2652,11 @@
       <c r="AX6" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY6" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -2651,140 +2666,140 @@
       <c r="C7" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>212</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>196</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>600</v>
-      </c>
-      <c r="H7" t="s">
-        <v>109</v>
       </c>
       <c r="I7" t="s">
         <v>109</v>
       </c>
       <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
         <v>209</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>167</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>215</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>202</v>
       </c>
-      <c r="N7" s="26">
+      <c r="O7" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O7" s="18" t="b">
+      <c r="P7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="26">
+      <c r="Q7" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>75</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>50</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>60</v>
       </c>
-      <c r="U7" s="26">
+      <c r="V7" s="26">
         <v>0.02</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>10</v>
-      </c>
-      <c r="X7" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y7" s="26">
         <v>0.04</v>
       </c>
       <c r="Z7" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA7" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AB7" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AC7" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AD7" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD7" s="41">
+      <c r="AE7" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AF7" s="26">
         <v>0</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>112</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>142</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>200</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AQ7" s="17">
         <v>1</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>200</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AT7" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AU7" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AV7" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV7" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW7" s="18" t="b">
         <v>0</v>
@@ -2792,8 +2807,11 @@
       <c r="AX7" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY7" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -2803,140 +2821,140 @@
       <c r="C8" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>213</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>197</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>600</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
       </c>
       <c r="I8" t="s">
         <v>109</v>
       </c>
       <c r="J8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
         <v>210</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>167</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>215</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>202</v>
       </c>
-      <c r="N8" s="26">
+      <c r="O8" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O8" s="18" t="b">
+      <c r="P8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="26">
+      <c r="Q8" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>75</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>50</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>60</v>
       </c>
-      <c r="U8" s="26">
+      <c r="V8" s="26">
         <v>0.02</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>10</v>
-      </c>
-      <c r="X8" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y8" s="26">
         <v>0.04</v>
       </c>
       <c r="Z8" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA8" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AB8" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB8" s="26">
+      <c r="AC8" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AD8" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AE8" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AF8" s="26">
         <v>0</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>112</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>142</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>5</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>200</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1</v>
       </c>
-      <c r="AO8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AQ8" s="17">
         <v>1</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>200</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS8" s="12">
+      <c r="AT8" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT8" s="12">
+      <c r="AU8" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU8" s="12">
+      <c r="AV8" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV8" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW8" s="18" t="b">
         <v>0</v>
@@ -2944,8 +2962,11 @@
       <c r="AX8" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY8" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -2955,140 +2976,140 @@
       <c r="C9" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>214</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>198</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>300</v>
-      </c>
-      <c r="H9" t="s">
-        <v>109</v>
       </c>
       <c r="I9" t="s">
         <v>109</v>
       </c>
       <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
         <v>207</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>167</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>215</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>202</v>
       </c>
-      <c r="N9" s="26">
+      <c r="O9" s="26">
         <v>0.01</v>
       </c>
-      <c r="O9" s="18" t="b">
+      <c r="P9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="26">
+      <c r="Q9" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>75</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>50</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>60</v>
       </c>
-      <c r="U9" s="26">
+      <c r="V9" s="26">
         <v>0.02</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>10</v>
-      </c>
-      <c r="X9" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y9" s="26">
         <v>0.04</v>
       </c>
       <c r="Z9" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA9" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AB9" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AC9" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AD9" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD9" s="41">
+      <c r="AE9" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE9" s="26">
+      <c r="AF9" s="26">
         <v>0</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>112</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>142</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>5</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>200</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="AQ9" s="17">
         <v>1</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>200</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS9" s="12">
+      <c r="AT9" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT9" s="12">
+      <c r="AU9" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU9" s="12">
+      <c r="AV9" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV9" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW9" s="18" t="b">
         <v>0</v>
@@ -3096,41 +3117,46 @@
       <c r="AX9" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY9" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>224</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="X13" s="26"/>
+      <c r="D13" s="11"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="26"/>
+      <c r="V13" s="26"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="26"/>
-      <c r="AG13" s="2"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="26"/>
       <c r="AH13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="17"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="12"/>
+      <c r="AI13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="17"/>
+      <c r="AS13" s="2"/>
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
-      <c r="AV13" s="18"/>
+      <c r="AV13" s="12"/>
       <c r="AW13" s="18"/>
       <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -3138,142 +3164,142 @@
         <v>226</v>
       </c>
       <c r="C14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>211</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>500</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
       </c>
       <c r="I14" t="s">
         <v>109</v>
       </c>
       <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
         <v>208</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>167</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>215</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>202</v>
       </c>
-      <c r="N14" s="26">
+      <c r="O14" s="26">
         <v>0</v>
       </c>
-      <c r="O14" s="18" t="b">
+      <c r="P14" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="26">
+      <c r="Q14" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>75</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>50</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>60</v>
       </c>
-      <c r="U14" s="26">
+      <c r="V14" s="26">
         <v>0.02</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>10</v>
-      </c>
-      <c r="X14" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y14" s="26">
         <v>0.04</v>
       </c>
       <c r="Z14" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA14" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AB14" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB14" s="26">
+      <c r="AC14" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC14" s="26" t="s">
+      <c r="AD14" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD14" s="41">
+      <c r="AE14" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE14" s="26">
+      <c r="AF14" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>112</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>142</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>5</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>200</v>
       </c>
-      <c r="AM14" s="2" t="s">
+      <c r="AN14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AP14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP14" s="17">
+      <c r="AQ14" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>200</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AS14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS14" s="12">
+      <c r="AT14" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT14" s="12">
+      <c r="AU14" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU14" s="12">
+      <c r="AV14" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV14" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW14" s="18" t="b">
         <v>0</v>
@@ -3281,8 +3307,11 @@
       <c r="AX14" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY14" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>228</v>
       </c>
@@ -3290,151 +3319,154 @@
         <v>229</v>
       </c>
       <c r="C15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>211</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>188</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>500</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
       </c>
       <c r="I15" t="s">
         <v>109</v>
       </c>
       <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s">
         <v>208</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>167</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>215</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="26">
+      <c r="O15" s="26">
         <v>0</v>
       </c>
-      <c r="O15" s="18" t="b">
+      <c r="P15" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="26">
+      <c r="Q15" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>75</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>50</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>60</v>
       </c>
-      <c r="U15" s="26">
+      <c r="V15" s="26">
         <v>0.02</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>10</v>
-      </c>
-      <c r="X15" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y15" s="26">
         <v>0.04</v>
       </c>
       <c r="Z15" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA15" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA15" s="26">
+      <c r="AB15" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB15" s="26">
+      <c r="AC15" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC15" s="26" t="s">
+      <c r="AD15" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD15" s="41">
+      <c r="AE15" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE15" s="26">
+      <c r="AF15" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>112</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AH15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>142</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>5</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>200</v>
       </c>
-      <c r="AM15" s="2" t="s">
+      <c r="AN15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1</v>
       </c>
-      <c r="AO15" s="2" t="s">
+      <c r="AP15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP15" s="17">
+      <c r="AQ15" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>200</v>
       </c>
-      <c r="AR15" s="2" t="s">
+      <c r="AS15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS15" s="12">
+      <c r="AT15" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT15" s="12">
+      <c r="AU15" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU15" s="12">
+      <c r="AV15" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV15" s="18" t="b">
+      <c r="AW15" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW15" s="18" t="b">
+      <c r="AX15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX15" s="18" t="b">
+      <c r="AY15" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>230</v>
       </c>
@@ -3442,151 +3474,154 @@
         <v>231</v>
       </c>
       <c r="C16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>211</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>500</v>
-      </c>
-      <c r="H16" t="s">
-        <v>109</v>
       </c>
       <c r="I16" t="s">
         <v>109</v>
       </c>
       <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
         <v>208</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>167</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>215</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>202</v>
       </c>
-      <c r="N16" s="26">
+      <c r="O16" s="26">
         <v>0</v>
       </c>
-      <c r="O16" s="18" t="b">
+      <c r="P16" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="26">
+      <c r="Q16" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>75</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>50</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>60</v>
       </c>
-      <c r="U16" s="26">
+      <c r="V16" s="26">
         <v>0.02</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>10</v>
-      </c>
-      <c r="X16" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y16" s="26">
         <v>0.04</v>
       </c>
       <c r="Z16" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA16" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA16" s="26">
+      <c r="AB16" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB16" s="26">
+      <c r="AC16" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC16" s="26" t="s">
+      <c r="AD16" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD16" s="41">
+      <c r="AE16" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE16" s="26">
+      <c r="AF16" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>112</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>15</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>142</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>5</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>200</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AN16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1</v>
       </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AP16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP16" s="17">
+      <c r="AQ16" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>200</v>
       </c>
-      <c r="AR16" s="2" t="s">
+      <c r="AS16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS16" s="12">
+      <c r="AT16" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT16" s="12">
+      <c r="AU16" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU16" s="12">
+      <c r="AV16" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV16" s="18" t="b">
+      <c r="AW16" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW16" s="18" t="b">
+      <c r="AX16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX16" s="18" t="b">
+      <c r="AY16" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>232</v>
       </c>
@@ -3594,151 +3629,154 @@
         <v>233</v>
       </c>
       <c r="C17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>211</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>500</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>109</v>
       </c>
       <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
         <v>208</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>167</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>215</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>202</v>
       </c>
-      <c r="N17" s="26">
+      <c r="O17" s="26">
         <v>0</v>
       </c>
-      <c r="O17" s="18" t="b">
+      <c r="P17" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="26">
+      <c r="Q17" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>75</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>50</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>60</v>
       </c>
-      <c r="U17" s="26">
+      <c r="V17" s="26">
         <v>0.02</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>10</v>
-      </c>
-      <c r="X17" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y17" s="26">
         <v>0.04</v>
       </c>
       <c r="Z17" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA17" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA17" s="26">
+      <c r="AB17" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB17" s="26">
+      <c r="AC17" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC17" s="26" t="s">
+      <c r="AD17" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD17" s="41">
+      <c r="AE17" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE17" s="26">
+      <c r="AF17" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>112</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>15</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>142</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>5</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>200</v>
       </c>
-      <c r="AM17" s="2" t="s">
+      <c r="AN17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1</v>
       </c>
-      <c r="AO17" s="2" t="s">
+      <c r="AP17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP17" s="17">
+      <c r="AQ17" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>200</v>
       </c>
-      <c r="AR17" s="2" t="s">
+      <c r="AS17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS17" s="12">
+      <c r="AT17" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT17" s="12">
+      <c r="AU17" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU17" s="12">
+      <c r="AV17" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV17" s="18" t="b">
+      <c r="AW17" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW17" s="18" t="b">
+      <c r="AX17" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX17" s="18" t="b">
+      <c r="AY17" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>234</v>
       </c>
@@ -3746,151 +3784,154 @@
         <v>235</v>
       </c>
       <c r="C18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>211</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>500</v>
-      </c>
-      <c r="H18" t="s">
-        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>109</v>
       </c>
       <c r="J18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" t="s">
         <v>208</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>167</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>215</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>202</v>
       </c>
-      <c r="N18" s="26">
+      <c r="O18" s="26">
         <v>0</v>
       </c>
-      <c r="O18" s="18" t="b">
+      <c r="P18" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="26">
+      <c r="Q18" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>3</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>75</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>50</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>60</v>
       </c>
-      <c r="U18" s="26">
+      <c r="V18" s="26">
         <v>0.02</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>10</v>
-      </c>
-      <c r="X18" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y18" s="26">
         <v>0.04</v>
       </c>
       <c r="Z18" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA18" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA18" s="26">
+      <c r="AB18" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB18" s="26">
+      <c r="AC18" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC18" s="26" t="s">
+      <c r="AD18" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD18" s="41">
+      <c r="AE18" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE18" s="26">
+      <c r="AF18" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>112</v>
       </c>
-      <c r="AG18" s="2" t="s">
+      <c r="AH18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AI18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>30</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>142</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>5</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>200</v>
       </c>
-      <c r="AM18" s="2" t="s">
+      <c r="AN18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1</v>
       </c>
-      <c r="AO18" s="2" t="s">
+      <c r="AP18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP18" s="17">
+      <c r="AQ18" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>200</v>
       </c>
-      <c r="AR18" s="2" t="s">
+      <c r="AS18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS18" s="12">
+      <c r="AT18" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT18" s="12">
+      <c r="AU18" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU18" s="12">
+      <c r="AV18" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV18" s="18" t="b">
+      <c r="AW18" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW18" s="18" t="b">
+      <c r="AX18" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX18" s="18" t="b">
+      <c r="AY18" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>236</v>
       </c>
@@ -3898,151 +3939,154 @@
         <v>237</v>
       </c>
       <c r="C19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>211</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>500</v>
-      </c>
-      <c r="H19" t="s">
-        <v>109</v>
       </c>
       <c r="I19" t="s">
         <v>109</v>
       </c>
       <c r="J19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" t="s">
         <v>208</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>167</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>215</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>202</v>
       </c>
-      <c r="N19" s="26">
+      <c r="O19" s="26">
         <v>0</v>
       </c>
-      <c r="O19" s="18" t="b">
+      <c r="P19" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="26">
+      <c r="Q19" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>3</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>75</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>50</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>60</v>
       </c>
-      <c r="U19" s="26">
+      <c r="V19" s="26">
         <v>0.02</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>10</v>
-      </c>
-      <c r="X19" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y19" s="26">
         <v>0.04</v>
       </c>
       <c r="Z19" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA19" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA19" s="26">
+      <c r="AB19" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB19" s="26">
+      <c r="AC19" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC19" s="26" t="s">
+      <c r="AD19" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD19" s="41">
+      <c r="AE19" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE19" s="26">
+      <c r="AF19" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>112</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AH19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>30</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>142</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>5</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>200</v>
       </c>
-      <c r="AM19" s="2" t="s">
+      <c r="AN19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1</v>
       </c>
-      <c r="AO19" s="2" t="s">
+      <c r="AP19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP19" s="17">
+      <c r="AQ19" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>200</v>
       </c>
-      <c r="AR19" s="2" t="s">
+      <c r="AS19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS19" s="12">
+      <c r="AT19" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT19" s="12">
+      <c r="AU19" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU19" s="12">
+      <c r="AV19" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV19" s="18" t="b">
+      <c r="AW19" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW19" s="18" t="b">
+      <c r="AX19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX19" s="18" t="b">
+      <c r="AY19" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>238</v>
       </c>
@@ -4050,151 +4094,154 @@
         <v>239</v>
       </c>
       <c r="C20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>211</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>500</v>
-      </c>
-      <c r="H20" t="s">
-        <v>109</v>
       </c>
       <c r="I20" t="s">
         <v>109</v>
       </c>
       <c r="J20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" t="s">
         <v>208</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>167</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>215</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>202</v>
       </c>
-      <c r="N20" s="26">
+      <c r="O20" s="26">
         <v>0</v>
       </c>
-      <c r="O20" s="18" t="b">
+      <c r="P20" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="26">
+      <c r="Q20" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>75</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>50</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>60</v>
       </c>
-      <c r="U20" s="26">
+      <c r="V20" s="26">
         <v>0.02</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>10</v>
-      </c>
-      <c r="X20" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y20" s="26">
         <v>0.04</v>
       </c>
       <c r="Z20" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA20" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA20" s="26">
+      <c r="AB20" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB20" s="26">
+      <c r="AC20" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC20" s="26" t="s">
+      <c r="AD20" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD20" s="41">
+      <c r="AE20" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE20" s="26">
+      <c r="AF20" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>112</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AH20" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AI20" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>10</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>142</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>5</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>200</v>
       </c>
-      <c r="AM20" s="2" t="s">
+      <c r="AN20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>1</v>
       </c>
-      <c r="AO20" s="2" t="s">
+      <c r="AP20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP20" s="17">
+      <c r="AQ20" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>200</v>
       </c>
-      <c r="AR20" s="2" t="s">
+      <c r="AS20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS20" s="12">
+      <c r="AT20" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT20" s="12">
+      <c r="AU20" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU20" s="12">
+      <c r="AV20" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV20" s="18" t="b">
+      <c r="AW20" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW20" s="18" t="b">
+      <c r="AX20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX20" s="18" t="b">
+      <c r="AY20" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -4202,151 +4249,154 @@
         <v>241</v>
       </c>
       <c r="C21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>211</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>188</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>500</v>
-      </c>
-      <c r="H21" t="s">
-        <v>109</v>
       </c>
       <c r="I21" t="s">
         <v>109</v>
       </c>
       <c r="J21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" t="s">
         <v>208</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>167</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>215</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>202</v>
       </c>
-      <c r="N21" s="26">
+      <c r="O21" s="26">
         <v>0</v>
       </c>
-      <c r="O21" s="18" t="b">
+      <c r="P21" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="26">
+      <c r="Q21" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>75</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>50</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>60</v>
       </c>
-      <c r="U21" s="26">
+      <c r="V21" s="26">
         <v>0.02</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>10</v>
-      </c>
-      <c r="X21" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y21" s="26">
         <v>0.04</v>
       </c>
       <c r="Z21" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA21" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA21" s="26">
+      <c r="AB21" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="26">
+      <c r="AC21" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC21" s="26" t="s">
+      <c r="AD21" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD21" s="41">
+      <c r="AE21" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE21" s="26">
+      <c r="AF21" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>112</v>
       </c>
-      <c r="AG21" s="2" t="s">
+      <c r="AH21" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AI21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>15</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>142</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>5</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>200</v>
       </c>
-      <c r="AM21" s="2" t="s">
+      <c r="AN21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1</v>
       </c>
-      <c r="AO21" s="2" t="s">
+      <c r="AP21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP21" s="17">
+      <c r="AQ21" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>200</v>
       </c>
-      <c r="AR21" s="2" t="s">
+      <c r="AS21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS21" s="12">
+      <c r="AT21" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT21" s="12">
+      <c r="AU21" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU21" s="12">
+      <c r="AV21" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV21" s="18" t="b">
+      <c r="AW21" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW21" s="18" t="b">
+      <c r="AX21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX21" s="18" t="b">
+      <c r="AY21" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -4354,151 +4404,154 @@
         <v>243</v>
       </c>
       <c r="C22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>211</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>500</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
       </c>
       <c r="I22" t="s">
         <v>109</v>
       </c>
       <c r="J22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" t="s">
         <v>208</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>167</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>215</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>202</v>
       </c>
-      <c r="N22" s="26">
+      <c r="O22" s="26">
         <v>0</v>
       </c>
-      <c r="O22" s="18" t="b">
+      <c r="P22" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P22" s="26">
+      <c r="Q22" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>3</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>75</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>50</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>60</v>
       </c>
-      <c r="U22" s="26">
+      <c r="V22" s="26">
         <v>0.02</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>10</v>
-      </c>
-      <c r="X22" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y22" s="26">
         <v>0.04</v>
       </c>
       <c r="Z22" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA22" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA22" s="26">
+      <c r="AB22" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB22" s="26">
+      <c r="AC22" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC22" s="26" t="s">
+      <c r="AD22" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD22" s="41">
+      <c r="AE22" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE22" s="26">
+      <c r="AF22" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>112</v>
       </c>
-      <c r="AG22" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>15</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>142</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>5</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>200</v>
       </c>
-      <c r="AM22" s="2" t="s">
+      <c r="AN22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1</v>
       </c>
-      <c r="AO22" s="2" t="s">
+      <c r="AP22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP22" s="17">
+      <c r="AQ22" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>200</v>
       </c>
-      <c r="AR22" s="2" t="s">
+      <c r="AS22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS22" s="12">
+      <c r="AT22" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT22" s="12">
+      <c r="AU22" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU22" s="12">
+      <c r="AV22" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV22" s="18" t="b">
+      <c r="AW22" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW22" s="18" t="b">
+      <c r="AX22" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX22" s="18" t="b">
+      <c r="AY22" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>244</v>
       </c>
@@ -4506,151 +4559,154 @@
         <v>245</v>
       </c>
       <c r="C23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>211</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>500</v>
-      </c>
-      <c r="H23" t="s">
-        <v>109</v>
       </c>
       <c r="I23" t="s">
         <v>109</v>
       </c>
       <c r="J23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" t="s">
         <v>208</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>167</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>215</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>202</v>
       </c>
-      <c r="N23" s="26">
+      <c r="O23" s="26">
         <v>0</v>
       </c>
-      <c r="O23" s="18" t="b">
+      <c r="P23" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P23" s="26">
+      <c r="Q23" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>75</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>50</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>60</v>
       </c>
-      <c r="U23" s="26">
+      <c r="V23" s="26">
         <v>0.02</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>10</v>
-      </c>
-      <c r="X23" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y23" s="26">
         <v>0.04</v>
       </c>
       <c r="Z23" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA23" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA23" s="26">
+      <c r="AB23" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB23" s="26">
+      <c r="AC23" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC23" s="26" t="s">
+      <c r="AD23" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD23" s="41">
+      <c r="AE23" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE23" s="26">
+      <c r="AF23" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>112</v>
       </c>
-      <c r="AG23" s="2" t="s">
+      <c r="AH23" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>30</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>142</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>5</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>200</v>
       </c>
-      <c r="AM23" s="2" t="s">
+      <c r="AN23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1</v>
       </c>
-      <c r="AO23" s="2" t="s">
+      <c r="AP23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP23" s="17">
+      <c r="AQ23" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>200</v>
       </c>
-      <c r="AR23" s="2" t="s">
+      <c r="AS23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS23" s="12">
+      <c r="AT23" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT23" s="12">
+      <c r="AU23" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU23" s="12">
+      <c r="AV23" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV23" s="18" t="b">
+      <c r="AW23" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW23" s="18" t="b">
+      <c r="AX23" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX23" s="18" t="b">
+      <c r="AY23" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>246</v>
       </c>
@@ -4658,179 +4714,183 @@
         <v>247</v>
       </c>
       <c r="C24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>211</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>188</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>500</v>
-      </c>
-      <c r="H24" t="s">
-        <v>109</v>
       </c>
       <c r="I24" t="s">
         <v>109</v>
       </c>
       <c r="J24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" t="s">
         <v>208</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>167</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>215</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="26">
+      <c r="O24" s="26">
         <v>0</v>
       </c>
-      <c r="O24" s="18" t="b">
+      <c r="P24" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P24" s="26">
+      <c r="Q24" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>75</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>50</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>60</v>
       </c>
-      <c r="U24" s="26">
+      <c r="V24" s="26">
         <v>0.02</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>10</v>
-      </c>
-      <c r="X24" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y24" s="26">
         <v>0.04</v>
       </c>
       <c r="Z24" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA24" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA24" s="26">
+      <c r="AB24" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB24" s="26">
+      <c r="AC24" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC24" s="26" t="s">
+      <c r="AD24" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD24" s="41">
+      <c r="AE24" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE24" s="26">
+      <c r="AF24" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>112</v>
       </c>
-      <c r="AG24" s="2" t="s">
+      <c r="AH24" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AH24" s="2" t="s">
+      <c r="AI24" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>30</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>142</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>5</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>200</v>
       </c>
-      <c r="AM24" s="2" t="s">
+      <c r="AN24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1</v>
       </c>
-      <c r="AO24" s="2" t="s">
+      <c r="AP24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP24" s="17">
+      <c r="AQ24" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>200</v>
       </c>
-      <c r="AR24" s="2" t="s">
+      <c r="AS24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS24" s="12">
+      <c r="AT24" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT24" s="12">
+      <c r="AU24" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU24" s="12">
+      <c r="AV24" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV24" s="18" t="b">
+      <c r="AW24" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW24" s="18" t="b">
+      <c r="AX24" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX24" s="18" t="b">
+      <c r="AY24" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="11"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="X25" s="26"/>
+      <c r="D25" s="11"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="26"/>
+      <c r="V25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26"/>
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
       <c r="AC25" s="26"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="26"/>
-      <c r="AG25" s="2"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="26"/>
       <c r="AH25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="17"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="12"/>
+      <c r="AI25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="17"/>
+      <c r="AS25" s="2"/>
       <c r="AT25" s="12"/>
       <c r="AU25" s="12"/>
-      <c r="AV25" s="18"/>
+      <c r="AV25" s="12"/>
       <c r="AW25" s="18"/>
       <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -4838,151 +4898,154 @@
         <v>249</v>
       </c>
       <c r="C26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>211</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>188</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>500</v>
-      </c>
-      <c r="H26" t="s">
-        <v>109</v>
       </c>
       <c r="I26" t="s">
         <v>109</v>
       </c>
       <c r="J26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" t="s">
         <v>208</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>167</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>215</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>202</v>
       </c>
-      <c r="N26" s="26">
+      <c r="O26" s="26">
         <v>0</v>
       </c>
-      <c r="O26" s="18" t="b">
+      <c r="P26" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P26" s="26">
+      <c r="Q26" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>75</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>50</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>60</v>
       </c>
-      <c r="U26" s="26">
+      <c r="V26" s="26">
         <v>0.02</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>10</v>
-      </c>
-      <c r="X26" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y26" s="26">
         <v>0.04</v>
       </c>
       <c r="Z26" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA26" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA26" s="26">
+      <c r="AB26" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB26" s="26">
+      <c r="AC26" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC26" s="26" t="s">
+      <c r="AD26" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD26" s="41">
+      <c r="AE26" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE26" s="26">
+      <c r="AF26" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>112</v>
       </c>
-      <c r="AG26" s="2" t="s">
+      <c r="AH26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH26" s="2" t="s">
+      <c r="AI26" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>115</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>5</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>200</v>
       </c>
-      <c r="AM26" s="2" t="s">
+      <c r="AN26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1</v>
       </c>
-      <c r="AO26" s="2" t="s">
+      <c r="AP26" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP26" s="17">
+      <c r="AQ26" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>200</v>
       </c>
-      <c r="AR26" s="2" t="s">
+      <c r="AS26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS26" s="12">
+      <c r="AT26" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT26" s="12">
+      <c r="AU26" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU26" s="12">
+      <c r="AV26" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV26" s="18" t="b">
+      <c r="AW26" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW26" s="18" t="b">
+      <c r="AX26" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX26" s="18" t="b">
+      <c r="AY26" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>250</v>
       </c>
@@ -4990,151 +5053,154 @@
         <v>251</v>
       </c>
       <c r="C27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>211</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>500</v>
-      </c>
-      <c r="H27" t="s">
-        <v>109</v>
       </c>
       <c r="I27" t="s">
         <v>109</v>
       </c>
       <c r="J27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" t="s">
         <v>208</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>167</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>215</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>202</v>
       </c>
-      <c r="N27" s="26">
+      <c r="O27" s="26">
         <v>0</v>
       </c>
-      <c r="O27" s="18" t="b">
+      <c r="P27" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P27" s="26">
+      <c r="Q27" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>3</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>75</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>50</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>60</v>
       </c>
-      <c r="U27" s="26">
+      <c r="V27" s="26">
         <v>0.02</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>10</v>
-      </c>
-      <c r="X27" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y27" s="26">
         <v>0.04</v>
       </c>
       <c r="Z27" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA27" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA27" s="26">
+      <c r="AB27" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB27" s="26">
+      <c r="AC27" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC27" s="26" t="s">
+      <c r="AD27" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD27" s="41">
+      <c r="AE27" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE27" s="26">
+      <c r="AF27" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>112</v>
       </c>
-      <c r="AG27" s="2" t="s">
+      <c r="AH27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH27" s="2" t="s">
+      <c r="AI27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>115</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>10</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>200</v>
       </c>
-      <c r="AM27" s="2" t="s">
+      <c r="AN27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1</v>
       </c>
-      <c r="AO27" s="2" t="s">
+      <c r="AP27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP27" s="17">
+      <c r="AQ27" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>200</v>
       </c>
-      <c r="AR27" s="2" t="s">
+      <c r="AS27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS27" s="12">
+      <c r="AT27" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT27" s="12">
+      <c r="AU27" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU27" s="12">
+      <c r="AV27" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV27" s="18" t="b">
+      <c r="AW27" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW27" s="18" t="b">
+      <c r="AX27" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX27" s="18" t="b">
+      <c r="AY27" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>252</v>
       </c>
@@ -5142,151 +5208,154 @@
         <v>253</v>
       </c>
       <c r="C28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>211</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>500</v>
-      </c>
-      <c r="H28" t="s">
-        <v>109</v>
       </c>
       <c r="I28" t="s">
         <v>109</v>
       </c>
       <c r="J28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" t="s">
         <v>208</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>167</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>215</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>202</v>
       </c>
-      <c r="N28" s="26">
+      <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="O28" s="18" t="b">
+      <c r="P28" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P28" s="26">
+      <c r="Q28" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>75</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>50</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>60</v>
       </c>
-      <c r="U28" s="26">
+      <c r="V28" s="26">
         <v>0.02</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>10</v>
-      </c>
-      <c r="X28" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y28" s="26">
         <v>0.04</v>
       </c>
       <c r="Z28" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA28" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA28" s="26">
+      <c r="AB28" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB28" s="26">
+      <c r="AC28" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC28" s="26" t="s">
+      <c r="AD28" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD28" s="41">
+      <c r="AE28" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE28" s="26">
+      <c r="AF28" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>112</v>
       </c>
-      <c r="AG28" s="2" t="s">
+      <c r="AH28" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH28" s="2" t="s">
+      <c r="AI28" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>30</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>115</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>5</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>200</v>
       </c>
-      <c r="AM28" s="2" t="s">
+      <c r="AN28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1</v>
       </c>
-      <c r="AO28" s="2" t="s">
+      <c r="AP28" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP28" s="17">
+      <c r="AQ28" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>200</v>
       </c>
-      <c r="AR28" s="2" t="s">
+      <c r="AS28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS28" s="12">
+      <c r="AT28" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT28" s="12">
+      <c r="AU28" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU28" s="12">
+      <c r="AV28" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV28" s="18" t="b">
+      <c r="AW28" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW28" s="18" t="b">
+      <c r="AX28" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX28" s="18" t="b">
+      <c r="AY28" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>254</v>
       </c>
@@ -5294,151 +5363,154 @@
         <v>255</v>
       </c>
       <c r="C29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>211</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>500</v>
-      </c>
-      <c r="H29" t="s">
-        <v>109</v>
       </c>
       <c r="I29" t="s">
         <v>109</v>
       </c>
       <c r="J29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" t="s">
         <v>208</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>167</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>215</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>202</v>
       </c>
-      <c r="N29" s="26">
+      <c r="O29" s="26">
         <v>0</v>
       </c>
-      <c r="O29" s="18" t="b">
+      <c r="P29" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P29" s="26">
+      <c r="Q29" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>3</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>75</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>50</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>60</v>
       </c>
-      <c r="U29" s="26">
+      <c r="V29" s="26">
         <v>0.02</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>10</v>
-      </c>
-      <c r="X29" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y29" s="26">
         <v>0.04</v>
       </c>
       <c r="Z29" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA29" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA29" s="26">
+      <c r="AB29" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB29" s="26">
+      <c r="AC29" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC29" s="26" t="s">
+      <c r="AD29" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD29" s="41">
+      <c r="AE29" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE29" s="26">
+      <c r="AF29" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>112</v>
       </c>
-      <c r="AG29" s="2" t="s">
+      <c r="AH29" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH29" s="2" t="s">
+      <c r="AI29" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>30</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
         <v>115</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>10</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>200</v>
       </c>
-      <c r="AM29" s="2" t="s">
+      <c r="AN29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1</v>
       </c>
-      <c r="AO29" s="2" t="s">
+      <c r="AP29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP29" s="17">
+      <c r="AQ29" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>200</v>
       </c>
-      <c r="AR29" s="2" t="s">
+      <c r="AS29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS29" s="12">
+      <c r="AT29" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT29" s="12">
+      <c r="AU29" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU29" s="12">
+      <c r="AV29" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV29" s="18" t="b">
+      <c r="AW29" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW29" s="18" t="b">
+      <c r="AX29" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX29" s="18" t="b">
+      <c r="AY29" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>256</v>
       </c>
@@ -5446,151 +5518,154 @@
         <v>257</v>
       </c>
       <c r="C30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>211</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>500</v>
-      </c>
-      <c r="H30" t="s">
-        <v>109</v>
       </c>
       <c r="I30" t="s">
         <v>109</v>
       </c>
       <c r="J30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" t="s">
         <v>208</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>167</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>215</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>202</v>
       </c>
-      <c r="N30" s="26">
+      <c r="O30" s="26">
         <v>0</v>
       </c>
-      <c r="O30" s="18" t="b">
+      <c r="P30" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="26">
+      <c r="Q30" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>3</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>75</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>50</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>60</v>
       </c>
-      <c r="U30" s="26">
+      <c r="V30" s="26">
         <v>0.02</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>10</v>
-      </c>
-      <c r="X30" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y30" s="26">
         <v>0.04</v>
       </c>
       <c r="Z30" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA30" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA30" s="26">
+      <c r="AB30" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB30" s="26">
+      <c r="AC30" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC30" s="26" t="s">
+      <c r="AD30" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD30" s="41">
+      <c r="AE30" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE30" s="26">
+      <c r="AF30" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>112</v>
       </c>
-      <c r="AG30" s="2" t="s">
+      <c r="AH30" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AH30" s="2" t="s">
+      <c r="AI30" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>30</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AK30" t="s">
         <v>115</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>5</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>200</v>
       </c>
-      <c r="AM30" s="2" t="s">
+      <c r="AN30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1</v>
       </c>
-      <c r="AO30" s="2" t="s">
+      <c r="AP30" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP30" s="17">
+      <c r="AQ30" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>200</v>
       </c>
-      <c r="AR30" s="2" t="s">
+      <c r="AS30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS30" s="12">
+      <c r="AT30" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT30" s="12">
+      <c r="AU30" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU30" s="12">
+      <c r="AV30" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV30" s="18" t="b">
+      <c r="AW30" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW30" s="18" t="b">
+      <c r="AX30" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX30" s="18" t="b">
+      <c r="AY30" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>350</v>
       </c>
@@ -5598,151 +5673,154 @@
         <v>351</v>
       </c>
       <c r="C31" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>211</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>188</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>500</v>
-      </c>
-      <c r="H31" t="s">
-        <v>109</v>
       </c>
       <c r="I31" t="s">
         <v>109</v>
       </c>
       <c r="J31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" t="s">
         <v>208</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>167</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>215</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>202</v>
       </c>
-      <c r="N31" s="26">
+      <c r="O31" s="26">
         <v>0</v>
       </c>
-      <c r="O31" s="18" t="b">
+      <c r="P31" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="26">
+      <c r="Q31" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>3</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>75</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>50</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>60</v>
       </c>
-      <c r="U31" s="26">
+      <c r="V31" s="26">
         <v>0.02</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>10</v>
-      </c>
-      <c r="X31" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y31" s="26">
         <v>0.04</v>
       </c>
       <c r="Z31" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA31" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA31" s="26">
+      <c r="AB31" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB31" s="26">
+      <c r="AC31" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC31" s="26" t="s">
+      <c r="AD31" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD31" s="41">
+      <c r="AE31" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE31" s="26">
+      <c r="AF31" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>112</v>
       </c>
-      <c r="AG31" s="2" t="s">
+      <c r="AH31" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AI31" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>30</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
         <v>115</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>10</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>200</v>
       </c>
-      <c r="AM31" s="2" t="s">
+      <c r="AN31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1</v>
       </c>
-      <c r="AO31" s="2" t="s">
+      <c r="AP31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP31" s="17">
+      <c r="AQ31" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>200</v>
       </c>
-      <c r="AR31" s="2" t="s">
+      <c r="AS31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS31" s="12">
+      <c r="AT31" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT31" s="12">
+      <c r="AU31" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU31" s="12">
+      <c r="AV31" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV31" s="18" t="b">
+      <c r="AW31" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW31" s="18" t="b">
+      <c r="AX31" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX31" s="18" t="b">
+      <c r="AY31" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>258</v>
       </c>
@@ -5750,178 +5828,182 @@
         <v>259</v>
       </c>
       <c r="C32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>211</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>500</v>
-      </c>
-      <c r="H32" t="s">
-        <v>109</v>
       </c>
       <c r="I32" t="s">
         <v>109</v>
       </c>
       <c r="J32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" t="s">
         <v>208</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>167</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>215</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>202</v>
       </c>
-      <c r="N32" s="26">
+      <c r="O32" s="26">
         <v>0</v>
       </c>
-      <c r="O32" s="18" t="b">
+      <c r="P32" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P32" s="26">
+      <c r="Q32" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>3</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>75</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>50</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>60</v>
       </c>
-      <c r="U32" s="26">
+      <c r="V32" s="26">
         <v>0.02</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>10</v>
-      </c>
-      <c r="X32" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y32" s="26">
         <v>0.04</v>
       </c>
       <c r="Z32" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA32" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA32" s="26">
+      <c r="AB32" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB32" s="26">
+      <c r="AC32" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC32" s="26" t="s">
+      <c r="AD32" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD32" s="41">
+      <c r="AE32" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE32" s="26">
+      <c r="AF32" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>112</v>
       </c>
-      <c r="AG32" s="2" t="s">
+      <c r="AH32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH32" s="2" t="s">
+      <c r="AI32" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>30</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" t="s">
         <v>115</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>5</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>200</v>
       </c>
-      <c r="AM32" s="2" t="s">
+      <c r="AN32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>1</v>
       </c>
-      <c r="AO32" s="2" t="s">
+      <c r="AP32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP32" s="17">
+      <c r="AQ32" s="17">
         <v>1</v>
       </c>
-      <c r="AQ32">
+      <c r="AR32">
         <v>200</v>
       </c>
-      <c r="AR32" s="2" t="s">
+      <c r="AS32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS32" s="12">
+      <c r="AT32" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT32" s="12">
+      <c r="AU32" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU32" s="12">
+      <c r="AV32" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV32" s="18" t="b">
+      <c r="AW32" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW32" s="18" t="b">
+      <c r="AX32" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX32" s="18" t="b">
+      <c r="AY32" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C33" s="11"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="X33" s="26"/>
+      <c r="D33" s="11"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="26"/>
+      <c r="V33" s="26"/>
       <c r="Y33" s="26"/>
       <c r="Z33" s="26"/>
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
       <c r="AC33" s="26"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="26"/>
-      <c r="AG33" s="2"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="26"/>
       <c r="AH33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="17"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="12"/>
+      <c r="AI33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="17"/>
+      <c r="AS33" s="2"/>
       <c r="AT33" s="12"/>
       <c r="AU33" s="12"/>
-      <c r="AV33" s="18"/>
+      <c r="AV33" s="12"/>
       <c r="AW33" s="18"/>
       <c r="AX33" s="18"/>
+      <c r="AY33" s="18"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>260</v>
       </c>
@@ -5929,152 +6011,155 @@
         <v>261</v>
       </c>
       <c r="C34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>211</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>500</v>
-      </c>
-      <c r="H34" t="s">
-        <v>109</v>
       </c>
       <c r="I34" t="s">
         <v>109</v>
       </c>
       <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
         <v>208</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>167</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>215</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>202</v>
       </c>
-      <c r="N34" s="26">
+      <c r="O34" s="26">
         <v>0</v>
       </c>
-      <c r="O34" s="18" t="b">
+      <c r="P34" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P34" s="26">
+      <c r="Q34" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>3</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>75</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>50</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>60</v>
       </c>
-      <c r="U34" s="26">
+      <c r="V34" s="26">
         <v>0.02</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>10</v>
-      </c>
-      <c r="X34" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y34" s="26">
         <v>0.04</v>
       </c>
       <c r="Z34" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA34" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA34" s="26">
+      <c r="AB34" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB34" s="26">
+      <c r="AC34" s="26">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AC34" s="26" t="s">
+      <c r="AD34" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD34" s="41">
+      <c r="AE34" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE34" s="26">
+      <c r="AF34" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>112</v>
       </c>
-      <c r="AG34" s="2" t="s">
+      <c r="AH34" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AI34" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>15</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AK34" t="s">
         <v>115</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>5</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>200</v>
       </c>
-      <c r="AM34" s="2" t="s">
+      <c r="AN34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1</v>
       </c>
-      <c r="AO34" s="2" t="s">
+      <c r="AP34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP34" s="17">
+      <c r="AQ34" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ34" s="25">
+      <c r="AR34" s="25">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AR34" s="2" t="s">
+      <c r="AS34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS34" s="12">
+      <c r="AT34" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT34" s="12">
+      <c r="AU34" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU34" s="12">
+      <c r="AV34" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV34" s="18" t="b">
+      <c r="AW34" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW34" s="18" t="b">
+      <c r="AX34" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX34" s="18" t="b">
+      <c r="AY34" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>262</v>
       </c>
@@ -6082,152 +6167,155 @@
         <v>263</v>
       </c>
       <c r="C35" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>211</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>188</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>500</v>
-      </c>
-      <c r="H35" t="s">
-        <v>109</v>
       </c>
       <c r="I35" t="s">
         <v>109</v>
       </c>
       <c r="J35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s">
         <v>208</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>167</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>215</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>202</v>
       </c>
-      <c r="N35" s="26">
+      <c r="O35" s="26">
         <v>0</v>
       </c>
-      <c r="O35" s="18" t="b">
+      <c r="P35" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P35" s="26">
+      <c r="Q35" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>3</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>75</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>50</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>60</v>
       </c>
-      <c r="U35" s="26">
+      <c r="V35" s="26">
         <v>0.02</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>10</v>
-      </c>
-      <c r="X35" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y35" s="26">
         <v>0.04</v>
       </c>
       <c r="Z35" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA35" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA35" s="26">
+      <c r="AB35" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB35" s="26">
+      <c r="AC35" s="26">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AC35" s="26" t="s">
+      <c r="AD35" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD35" s="41">
+      <c r="AE35" s="41">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="AE35" s="26">
+      <c r="AF35" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>112</v>
       </c>
-      <c r="AG35" s="2" t="s">
+      <c r="AH35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH35" s="2" t="s">
+      <c r="AI35" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>15</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
         <v>115</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>5</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>200</v>
       </c>
-      <c r="AM35" s="2" t="s">
+      <c r="AN35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>1</v>
       </c>
-      <c r="AO35" s="2" t="s">
+      <c r="AP35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP35" s="17">
+      <c r="AQ35" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ35" s="25">
-        <f t="shared" ref="AQ35:AQ39" si="0">225068282*0.75</f>
+      <c r="AR35" s="25">
+        <f t="shared" ref="AR35:AR39" si="0">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AR35" s="2" t="s">
+      <c r="AS35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS35" s="12">
+      <c r="AT35" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT35" s="12">
+      <c r="AU35" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU35" s="12">
+      <c r="AV35" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV35" s="18" t="b">
+      <c r="AW35" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW35" s="18" t="b">
+      <c r="AX35" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX35" s="18" t="b">
+      <c r="AY35" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>357</v>
       </c>
@@ -6235,152 +6323,155 @@
         <v>263</v>
       </c>
       <c r="C36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>211</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>500</v>
-      </c>
-      <c r="H36" t="s">
-        <v>109</v>
       </c>
       <c r="I36" t="s">
         <v>109</v>
       </c>
       <c r="J36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" t="s">
         <v>208</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>167</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>215</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>202</v>
       </c>
-      <c r="N36" s="26">
+      <c r="O36" s="26">
         <v>0</v>
       </c>
-      <c r="O36" s="18" t="b">
+      <c r="P36" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P36" s="26">
+      <c r="Q36" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>3</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>75</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>50</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>60</v>
       </c>
-      <c r="U36" s="26">
+      <c r="V36" s="26">
         <v>0.02</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>10</v>
-      </c>
-      <c r="X36" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y36" s="26">
         <v>0.04</v>
       </c>
       <c r="Z36" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA36" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA36" s="26">
+      <c r="AB36" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB36" s="26">
+      <c r="AC36" s="26">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AC36" s="26" t="s">
+      <c r="AD36" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD36" s="41">
+      <c r="AE36" s="41">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AE36" s="26">
+      <c r="AF36" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>112</v>
       </c>
-      <c r="AG36" s="2" t="s">
+      <c r="AH36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH36" s="2" t="s">
+      <c r="AI36" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>15</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AK36" t="s">
         <v>115</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>5</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>200</v>
       </c>
-      <c r="AM36" s="2" t="s">
+      <c r="AN36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1</v>
       </c>
-      <c r="AO36" s="2" t="s">
+      <c r="AP36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP36" s="17">
+      <c r="AQ36" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ36" s="25">
+      <c r="AR36" s="25">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AR36" s="2" t="s">
+      <c r="AS36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS36" s="12">
+      <c r="AT36" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT36" s="12">
+      <c r="AU36" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU36" s="12">
+      <c r="AV36" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV36" s="18" t="b">
+      <c r="AW36" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW36" s="18" t="b">
+      <c r="AX36" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX36" s="18" t="b">
+      <c r="AY36" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>266</v>
       </c>
@@ -6388,152 +6479,155 @@
         <v>267</v>
       </c>
       <c r="C37" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>211</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>500</v>
-      </c>
-      <c r="H37" t="s">
-        <v>109</v>
       </c>
       <c r="I37" t="s">
         <v>109</v>
       </c>
       <c r="J37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" t="s">
         <v>208</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>167</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>215</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>202</v>
       </c>
-      <c r="N37" s="26">
+      <c r="O37" s="26">
         <v>0</v>
       </c>
-      <c r="O37" s="18" t="b">
+      <c r="P37" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="26">
+      <c r="Q37" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>3</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>75</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>50</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>60</v>
       </c>
-      <c r="U37" s="26">
+      <c r="V37" s="26">
         <v>0.02</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>10</v>
-      </c>
-      <c r="X37" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y37" s="26">
         <v>0.04</v>
       </c>
       <c r="Z37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA37" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA37" s="26">
+      <c r="AB37" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB37" s="26">
+      <c r="AC37" s="26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AC37" s="26" t="s">
+      <c r="AD37" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD37" s="41">
+      <c r="AE37" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE37" s="26">
+      <c r="AF37" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>112</v>
       </c>
-      <c r="AG37" s="2" t="s">
+      <c r="AH37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH37" s="2" t="s">
+      <c r="AI37" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>15</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AK37" t="s">
         <v>115</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>5</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>200</v>
       </c>
-      <c r="AM37" s="2" t="s">
+      <c r="AN37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>1</v>
       </c>
-      <c r="AO37" s="2" t="s">
+      <c r="AP37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP37" s="17">
+      <c r="AQ37" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ37" s="25">
+      <c r="AR37" s="25">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AR37" s="2" t="s">
+      <c r="AS37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS37" s="12">
+      <c r="AT37" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT37" s="12">
+      <c r="AU37" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU37" s="12">
+      <c r="AV37" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV37" s="18" t="b">
+      <c r="AW37" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW37" s="18" t="b">
+      <c r="AX37" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX37" s="18" t="b">
+      <c r="AY37" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>269</v>
       </c>
@@ -6543,150 +6637,153 @@
       <c r="C38" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>211</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>500</v>
-      </c>
-      <c r="H38" t="s">
-        <v>109</v>
       </c>
       <c r="I38" t="s">
         <v>109</v>
       </c>
       <c r="J38" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" t="s">
         <v>208</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>167</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>215</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>202</v>
       </c>
-      <c r="N38" s="26">
+      <c r="O38" s="26">
         <v>0</v>
       </c>
-      <c r="O38" s="18" t="b">
+      <c r="P38" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P38" s="26">
+      <c r="Q38" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>3</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>75</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>50</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>60</v>
       </c>
-      <c r="U38" s="26">
+      <c r="V38" s="26">
         <v>0.02</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>10</v>
-      </c>
-      <c r="X38" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y38" s="26">
         <v>0.04</v>
       </c>
       <c r="Z38" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA38" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA38" s="26">
+      <c r="AB38" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB38" s="26">
+      <c r="AC38" s="26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AC38" s="26" t="s">
+      <c r="AD38" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD38" s="41">
+      <c r="AE38" s="41">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="AE38" s="26">
+      <c r="AF38" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>112</v>
       </c>
-      <c r="AG38" s="2" t="s">
+      <c r="AH38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>15</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AK38" t="s">
         <v>115</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>5</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>200</v>
       </c>
-      <c r="AM38" s="2" t="s">
+      <c r="AN38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>1</v>
       </c>
-      <c r="AO38" s="2" t="s">
+      <c r="AP38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP38" s="17">
+      <c r="AQ38" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ38" s="25">
+      <c r="AR38" s="25">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AR38" s="2" t="s">
+      <c r="AS38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS38" s="12">
+      <c r="AT38" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT38" s="12">
+      <c r="AU38" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU38" s="12">
+      <c r="AV38" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV38" s="18" t="b">
+      <c r="AW38" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW38" s="18" t="b">
+      <c r="AX38" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX38" s="18" t="b">
+      <c r="AY38" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>355</v>
       </c>
@@ -6696,179 +6793,183 @@
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>211</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>500</v>
-      </c>
-      <c r="H39" t="s">
-        <v>109</v>
       </c>
       <c r="I39" t="s">
         <v>109</v>
       </c>
       <c r="J39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" t="s">
         <v>208</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>167</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>215</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>202</v>
       </c>
-      <c r="N39" s="26">
+      <c r="O39" s="26">
         <v>0</v>
       </c>
-      <c r="O39" s="18" t="b">
+      <c r="P39" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P39" s="26">
+      <c r="Q39" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>3</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>75</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>50</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>60</v>
       </c>
-      <c r="U39" s="26">
+      <c r="V39" s="26">
         <v>0.02</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>10</v>
-      </c>
-      <c r="X39" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y39" s="26">
         <v>0.04</v>
       </c>
       <c r="Z39" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA39" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA39" s="26">
+      <c r="AB39" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB39" s="26">
+      <c r="AC39" s="26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AC39" s="26" t="s">
+      <c r="AD39" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD39" s="41">
+      <c r="AE39" s="41">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AE39" s="26">
+      <c r="AF39" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AG39" t="s">
         <v>112</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>15</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AK39" t="s">
         <v>115</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>5</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>200</v>
       </c>
-      <c r="AM39" s="2" t="s">
+      <c r="AN39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>1</v>
       </c>
-      <c r="AO39" s="2" t="s">
+      <c r="AP39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP39" s="17">
+      <c r="AQ39" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ39" s="25">
+      <c r="AR39" s="25">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AR39" s="2" t="s">
+      <c r="AS39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS39" s="12">
+      <c r="AT39" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT39" s="12">
+      <c r="AU39" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU39" s="12">
+      <c r="AV39" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV39" s="18" t="b">
+      <c r="AW39" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW39" s="18" t="b">
+      <c r="AX39" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX39" s="18" t="b">
+      <c r="AY39" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="11"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="X40" s="26"/>
+      <c r="D40" s="11"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="26"/>
+      <c r="V40" s="26"/>
       <c r="Y40" s="26"/>
       <c r="Z40" s="26"/>
       <c r="AA40" s="26"/>
       <c r="AB40" s="26"/>
       <c r="AC40" s="26"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="26"/>
-      <c r="AG40" s="2"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="26"/>
       <c r="AH40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="17"/>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="12"/>
+      <c r="AI40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="17"/>
+      <c r="AR40" s="25"/>
+      <c r="AS40" s="2"/>
       <c r="AT40" s="12"/>
       <c r="AU40" s="12"/>
-      <c r="AV40" s="18"/>
+      <c r="AV40" s="12"/>
       <c r="AW40" s="18"/>
       <c r="AX40" s="18"/>
+      <c r="AY40" s="18"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>354</v>
       </c>
@@ -6876,151 +6977,154 @@
         <v>259</v>
       </c>
       <c r="C41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>211</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>188</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1000</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>500</v>
-      </c>
-      <c r="H41" t="s">
-        <v>109</v>
       </c>
       <c r="I41" t="s">
         <v>109</v>
       </c>
       <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" t="s">
         <v>208</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>167</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>215</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>202</v>
       </c>
-      <c r="N41" s="26">
+      <c r="O41" s="26">
         <v>0</v>
       </c>
-      <c r="O41" s="18" t="b">
+      <c r="P41" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P41" s="26">
+      <c r="Q41" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>3</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>75</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>50</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>60</v>
       </c>
-      <c r="U41" s="26">
+      <c r="V41" s="26">
         <v>0.02</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>10</v>
-      </c>
-      <c r="X41" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y41" s="26">
         <v>0.04</v>
       </c>
       <c r="Z41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA41" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA41" s="26">
+      <c r="AB41" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB41" s="26">
+      <c r="AC41" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC41" s="26" t="s">
+      <c r="AD41" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD41" s="41">
+      <c r="AE41" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE41" s="26">
+      <c r="AF41" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AG41" t="s">
         <v>112</v>
       </c>
-      <c r="AG41" s="2" t="s">
+      <c r="AH41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH41" s="2" t="s">
+      <c r="AI41" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>30</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AK41" t="s">
         <v>115</v>
       </c>
-      <c r="AK41">
+      <c r="AL41">
         <v>5</v>
       </c>
-      <c r="AL41">
+      <c r="AM41">
         <v>200</v>
       </c>
-      <c r="AM41" s="2" t="s">
+      <c r="AN41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN41">
+      <c r="AO41">
         <v>1</v>
       </c>
-      <c r="AO41" s="2" t="s">
+      <c r="AP41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP41" s="17">
+      <c r="AQ41" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ41">
+      <c r="AR41">
         <v>200</v>
       </c>
-      <c r="AR41" s="2" t="s">
+      <c r="AS41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AS41" s="12">
+      <c r="AT41" s="12">
         <v>0.2</v>
       </c>
-      <c r="AT41" s="12">
+      <c r="AU41" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU41" s="12">
+      <c r="AV41" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV41" s="18" t="b">
+      <c r="AW41" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW41" s="18" t="b">
+      <c r="AX41" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX41" s="18" t="b">
+      <c r="AY41" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>352</v>
       </c>
@@ -7028,152 +7132,155 @@
         <v>261</v>
       </c>
       <c r="C42" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>211</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1000</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>500</v>
-      </c>
-      <c r="H42" t="s">
-        <v>109</v>
       </c>
       <c r="I42" t="s">
         <v>109</v>
       </c>
       <c r="J42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" t="s">
         <v>208</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>167</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>215</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>202</v>
       </c>
-      <c r="N42" s="26">
+      <c r="O42" s="26">
         <v>0</v>
       </c>
-      <c r="O42" s="18" t="b">
+      <c r="P42" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P42" s="26">
+      <c r="Q42" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>3</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>75</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>50</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>60</v>
       </c>
-      <c r="U42" s="26">
+      <c r="V42" s="26">
         <v>0.02</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>10</v>
-      </c>
-      <c r="X42" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y42" s="26">
         <v>0.04</v>
       </c>
       <c r="Z42" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA42" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA42" s="26">
+      <c r="AB42" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB42" s="26">
+      <c r="AC42" s="26">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AC42" s="26" t="s">
+      <c r="AD42" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD42" s="41">
+      <c r="AE42" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE42" s="26">
+      <c r="AF42" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
         <v>112</v>
       </c>
-      <c r="AG42" s="2" t="s">
+      <c r="AH42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH42" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>15</v>
       </c>
-      <c r="AJ42" t="s">
+      <c r="AK42" t="s">
         <v>115</v>
       </c>
-      <c r="AK42">
+      <c r="AL42">
         <v>5</v>
       </c>
-      <c r="AL42">
+      <c r="AM42">
         <v>200</v>
       </c>
-      <c r="AM42" s="2" t="s">
+      <c r="AN42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN42">
+      <c r="AO42">
         <v>1</v>
       </c>
-      <c r="AO42" s="2" t="s">
+      <c r="AP42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP42" s="17">
+      <c r="AQ42" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ42" s="25">
+      <c r="AR42" s="25">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AR42" s="2" t="s">
+      <c r="AS42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AS42" s="12">
+      <c r="AT42" s="12">
         <v>0.2</v>
       </c>
-      <c r="AT42" s="12">
+      <c r="AU42" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU42" s="12">
+      <c r="AV42" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV42" s="18" t="b">
+      <c r="AW42" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW42" s="18" t="b">
+      <c r="AX42" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX42" s="18" t="b">
+      <c r="AY42" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>353</v>
       </c>
@@ -7181,209 +7288,214 @@
         <v>267</v>
       </c>
       <c r="C43" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>211</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1000</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>500</v>
-      </c>
-      <c r="H43" t="s">
-        <v>109</v>
       </c>
       <c r="I43" t="s">
         <v>109</v>
       </c>
       <c r="J43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
         <v>208</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>167</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>215</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>202</v>
       </c>
-      <c r="N43" s="26">
+      <c r="O43" s="26">
         <v>0</v>
       </c>
-      <c r="O43" s="18" t="b">
+      <c r="P43" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P43" s="26">
+      <c r="Q43" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>3</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>75</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>50</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>60</v>
       </c>
-      <c r="U43" s="26">
+      <c r="V43" s="26">
         <v>0.02</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>10</v>
-      </c>
-      <c r="X43" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y43" s="26">
         <v>0.04</v>
       </c>
       <c r="Z43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA43" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA43" s="26">
+      <c r="AB43" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB43" s="26">
+      <c r="AC43" s="26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AC43" s="26" t="s">
+      <c r="AD43" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD43" s="41">
+      <c r="AE43" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE43" s="26">
+      <c r="AF43" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AG43" t="s">
         <v>112</v>
       </c>
-      <c r="AG43" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH43" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>15</v>
       </c>
-      <c r="AJ43" t="s">
+      <c r="AK43" t="s">
         <v>115</v>
       </c>
-      <c r="AK43">
+      <c r="AL43">
         <v>5</v>
       </c>
-      <c r="AL43">
+      <c r="AM43">
         <v>200</v>
       </c>
-      <c r="AM43" s="2" t="s">
+      <c r="AN43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN43">
+      <c r="AO43">
         <v>1</v>
       </c>
-      <c r="AO43" s="2" t="s">
+      <c r="AP43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP43" s="17">
+      <c r="AQ43" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ43" s="25">
-        <f t="shared" ref="AQ43" si="1">225068282*0.75</f>
+      <c r="AR43" s="25">
+        <f t="shared" ref="AR43" si="1">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AR43" s="2" t="s">
+      <c r="AS43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AS43" s="12">
+      <c r="AT43" s="12">
         <v>0.2</v>
       </c>
-      <c r="AT43" s="12">
+      <c r="AU43" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU43" s="12">
+      <c r="AV43" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV43" s="18" t="b">
+      <c r="AW43" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW43" s="18" t="b">
+      <c r="AX43" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX43" s="18" t="b">
+      <c r="AY43" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C44" s="11"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="X44" s="26"/>
+      <c r="D44" s="11"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="26"/>
+      <c r="V44" s="26"/>
       <c r="Y44" s="26"/>
       <c r="Z44" s="26"/>
       <c r="AA44" s="26"/>
       <c r="AB44" s="26"/>
       <c r="AC44" s="26"/>
-      <c r="AD44" s="41"/>
-      <c r="AE44" s="26"/>
-      <c r="AG44" s="2"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="41"/>
+      <c r="AF44" s="26"/>
       <c r="AH44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="17"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="12"/>
+      <c r="AI44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="17"/>
+      <c r="AS44" s="2"/>
       <c r="AT44" s="12"/>
       <c r="AU44" s="12"/>
-      <c r="AV44" s="18"/>
+      <c r="AV44" s="12"/>
       <c r="AW44" s="18"/>
       <c r="AX44" s="18"/>
+      <c r="AY44" s="18"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="X45" s="26"/>
+      <c r="D45" s="11"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="26"/>
+      <c r="V45" s="26"/>
       <c r="Y45" s="26"/>
       <c r="Z45" s="26"/>
       <c r="AA45" s="26"/>
       <c r="AB45" s="26"/>
       <c r="AC45" s="26"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="26"/>
-      <c r="AG45" s="2"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="26"/>
       <c r="AH45" s="2"/>
-      <c r="AM45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="17"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="12"/>
+      <c r="AI45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="17"/>
+      <c r="AS45" s="2"/>
       <c r="AT45" s="12"/>
       <c r="AU45" s="12"/>
-      <c r="AV45" s="18"/>
+      <c r="AV45" s="12"/>
       <c r="AW45" s="18"/>
       <c r="AX45" s="18"/>
+      <c r="AY45" s="18"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>274</v>
       </c>
@@ -7391,151 +7503,154 @@
         <v>275</v>
       </c>
       <c r="C46" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>211</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1000</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>500</v>
-      </c>
-      <c r="H46" t="s">
-        <v>109</v>
       </c>
       <c r="I46" t="s">
         <v>109</v>
       </c>
       <c r="J46" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
         <v>208</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>167</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>215</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>202</v>
       </c>
-      <c r="N46" s="26">
+      <c r="O46" s="26">
         <v>0</v>
       </c>
-      <c r="O46" s="18" t="b">
+      <c r="P46" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P46" s="26">
+      <c r="Q46" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>3</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>75</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>50</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>60</v>
       </c>
-      <c r="U46" s="26">
+      <c r="V46" s="26">
         <v>0.02</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>10</v>
-      </c>
-      <c r="X46" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y46" s="26">
         <v>0.04</v>
       </c>
       <c r="Z46" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA46" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA46" s="26">
+      <c r="AB46" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB46" s="26">
+      <c r="AC46" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC46" s="26" t="s">
+      <c r="AD46" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="AD46" s="41">
+      <c r="AE46" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE46" s="26">
+      <c r="AF46" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>112</v>
       </c>
-      <c r="AG46" s="2" t="s">
+      <c r="AH46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH46" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>1</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AK46" t="s">
         <v>142</v>
       </c>
-      <c r="AK46">
+      <c r="AL46">
         <v>5</v>
       </c>
-      <c r="AL46">
+      <c r="AM46">
         <v>200</v>
       </c>
-      <c r="AM46" s="2" t="s">
+      <c r="AN46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN46">
+      <c r="AO46">
         <v>1</v>
       </c>
-      <c r="AO46" s="2" t="s">
+      <c r="AP46" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP46" s="17">
+      <c r="AQ46" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ46">
+      <c r="AR46">
         <v>200</v>
       </c>
-      <c r="AR46" s="2" t="s">
+      <c r="AS46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS46" s="12">
+      <c r="AT46" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT46" s="12">
+      <c r="AU46" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU46" s="12">
+      <c r="AV46" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV46" s="18" t="b">
+      <c r="AW46" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW46" s="18" t="b">
+      <c r="AX46" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX46" s="18" t="b">
+      <c r="AY46" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>276</v>
       </c>
@@ -7543,151 +7658,154 @@
         <v>277</v>
       </c>
       <c r="C47" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>211</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1000</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>500</v>
-      </c>
-      <c r="H47" t="s">
-        <v>109</v>
       </c>
       <c r="I47" t="s">
         <v>109</v>
       </c>
       <c r="J47" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" t="s">
         <v>208</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>167</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>215</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>202</v>
       </c>
-      <c r="N47" s="26">
+      <c r="O47" s="26">
         <v>0</v>
       </c>
-      <c r="O47" s="18" t="b">
+      <c r="P47" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P47" s="26">
+      <c r="Q47" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>3</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>75</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>50</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>60</v>
       </c>
-      <c r="U47" s="26">
+      <c r="V47" s="26">
         <v>0.02</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>10</v>
-      </c>
-      <c r="X47" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y47" s="26">
         <v>0.04</v>
       </c>
       <c r="Z47" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA47" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA47" s="26">
+      <c r="AB47" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB47" s="26">
+      <c r="AC47" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC47" s="26" t="s">
+      <c r="AD47" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="AD47" s="41">
+      <c r="AE47" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE47" s="26">
+      <c r="AF47" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AG47" t="s">
         <v>112</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH47" s="2" t="s">
+      <c r="AI47" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>30</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AK47" t="s">
         <v>142</v>
       </c>
-      <c r="AK47">
+      <c r="AL47">
         <v>5</v>
       </c>
-      <c r="AL47">
+      <c r="AM47">
         <v>200</v>
       </c>
-      <c r="AM47" s="2" t="s">
+      <c r="AN47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN47">
+      <c r="AO47">
         <v>1</v>
       </c>
-      <c r="AO47" s="2" t="s">
+      <c r="AP47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP47" s="17">
+      <c r="AQ47" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ47">
+      <c r="AR47">
         <v>200</v>
       </c>
-      <c r="AR47" s="2" t="s">
+      <c r="AS47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS47" s="12">
+      <c r="AT47" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT47" s="12">
+      <c r="AU47" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU47" s="12">
+      <c r="AV47" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV47" s="18" t="b">
+      <c r="AW47" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW47" s="18" t="b">
+      <c r="AX47" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX47" s="18" t="b">
+      <c r="AY47" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>278</v>
       </c>
@@ -7695,151 +7813,154 @@
         <v>279</v>
       </c>
       <c r="C48" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>211</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>188</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1000</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>500</v>
-      </c>
-      <c r="H48" t="s">
-        <v>109</v>
       </c>
       <c r="I48" t="s">
         <v>109</v>
       </c>
       <c r="J48" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" t="s">
         <v>208</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>167</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>215</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>202</v>
       </c>
-      <c r="N48" s="26">
+      <c r="O48" s="26">
         <v>0</v>
       </c>
-      <c r="O48" s="18" t="b">
+      <c r="P48" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P48" s="26">
+      <c r="Q48" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>3</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>75</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>50</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>60</v>
       </c>
-      <c r="U48" s="26">
+      <c r="V48" s="26">
         <v>0.02</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>10</v>
-      </c>
-      <c r="X48" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y48" s="26">
         <v>0.04</v>
       </c>
       <c r="Z48" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA48" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA48" s="26">
+      <c r="AB48" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB48" s="26">
+      <c r="AC48" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC48" s="26" t="s">
+      <c r="AD48" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="AD48" s="41">
+      <c r="AE48" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE48" s="26">
+      <c r="AF48" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF48" t="s">
+      <c r="AG48" t="s">
         <v>112</v>
       </c>
-      <c r="AG48" s="2" t="s">
+      <c r="AH48" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH48" s="2" t="s">
+      <c r="AI48" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>30</v>
       </c>
-      <c r="AJ48" t="s">
+      <c r="AK48" t="s">
         <v>115</v>
       </c>
-      <c r="AK48">
+      <c r="AL48">
         <v>5</v>
       </c>
-      <c r="AL48">
+      <c r="AM48">
         <v>200</v>
       </c>
-      <c r="AM48" s="2" t="s">
+      <c r="AN48" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN48">
+      <c r="AO48">
         <v>1</v>
       </c>
-      <c r="AO48" s="2" t="s">
+      <c r="AP48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP48" s="17">
+      <c r="AQ48" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ48">
+      <c r="AR48">
         <v>200</v>
       </c>
-      <c r="AR48" s="2" t="s">
+      <c r="AS48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS48" s="12">
+      <c r="AT48" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT48" s="12">
+      <c r="AU48" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU48" s="12">
+      <c r="AV48" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV48" s="18" t="b">
+      <c r="AW48" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW48" s="18" t="b">
+      <c r="AX48" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX48" s="18" t="b">
+      <c r="AY48" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>349</v>
       </c>
@@ -7847,151 +7968,154 @@
         <v>281</v>
       </c>
       <c r="C49" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>211</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>1000</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>500</v>
-      </c>
-      <c r="H49" t="s">
-        <v>109</v>
       </c>
       <c r="I49" t="s">
         <v>109</v>
       </c>
       <c r="J49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
         <v>208</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>167</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>215</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>202</v>
       </c>
-      <c r="N49" s="26">
+      <c r="O49" s="26">
         <v>0</v>
       </c>
-      <c r="O49" s="18" t="b">
+      <c r="P49" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P49" s="26">
+      <c r="Q49" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>3</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>75</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>50</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>60</v>
       </c>
-      <c r="U49" s="26">
+      <c r="V49" s="26">
         <v>0.02</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>10</v>
-      </c>
-      <c r="X49" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y49" s="26">
         <v>0.04</v>
       </c>
       <c r="Z49" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA49" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA49" s="26">
+      <c r="AB49" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB49" s="26">
+      <c r="AC49" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC49" s="26" t="s">
+      <c r="AD49" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="AD49" s="41">
+      <c r="AE49" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE49" s="26">
+      <c r="AF49" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AG49" t="s">
         <v>112</v>
       </c>
-      <c r="AG49" s="2" t="s">
+      <c r="AH49" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH49" s="2" t="s">
+      <c r="AI49" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI49">
+      <c r="AJ49">
         <v>30</v>
       </c>
-      <c r="AJ49" t="s">
+      <c r="AK49" t="s">
         <v>115</v>
       </c>
-      <c r="AK49">
+      <c r="AL49">
         <v>10</v>
       </c>
-      <c r="AL49">
+      <c r="AM49">
         <v>200</v>
       </c>
-      <c r="AM49" s="2" t="s">
+      <c r="AN49" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN49">
+      <c r="AO49">
         <v>1</v>
       </c>
-      <c r="AO49" s="2" t="s">
+      <c r="AP49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP49" s="17">
+      <c r="AQ49" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ49">
+      <c r="AR49">
         <v>200</v>
       </c>
-      <c r="AR49" s="2" t="s">
+      <c r="AS49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS49" s="12">
+      <c r="AT49" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT49" s="12">
+      <c r="AU49" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU49" s="12">
+      <c r="AV49" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV49" s="18" t="b">
+      <c r="AW49" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW49" s="18" t="b">
+      <c r="AX49" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX49" s="18" t="b">
+      <c r="AY49" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
         <v>282</v>
       </c>
@@ -7999,209 +8123,214 @@
         <v>283</v>
       </c>
       <c r="C50" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1000</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>500</v>
-      </c>
-      <c r="H50" t="s">
-        <v>109</v>
       </c>
       <c r="I50" t="s">
         <v>109</v>
       </c>
       <c r="J50" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" t="s">
         <v>208</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>167</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>215</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>202</v>
       </c>
-      <c r="N50" s="26">
+      <c r="O50" s="26">
         <v>0</v>
       </c>
-      <c r="O50" s="18" t="b">
+      <c r="P50" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P50" s="26">
+      <c r="Q50" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>3</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>75</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>50</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>60</v>
       </c>
-      <c r="U50" s="26">
+      <c r="V50" s="26">
         <v>0.02</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>10</v>
-      </c>
-      <c r="X50" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y50" s="26">
         <v>0.04</v>
       </c>
       <c r="Z50" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA50" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA50" s="26">
+      <c r="AB50" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB50" s="26">
+      <c r="AC50" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC50" s="26" t="s">
+      <c r="AD50" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="AD50" s="41">
+      <c r="AE50" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE50" s="26">
+      <c r="AF50" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AG50" t="s">
         <v>112</v>
       </c>
-      <c r="AG50" s="2" t="s">
+      <c r="AH50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH50" s="2" t="s">
+      <c r="AI50" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>30</v>
       </c>
-      <c r="AJ50" t="s">
+      <c r="AK50" t="s">
         <v>115</v>
       </c>
-      <c r="AK50">
+      <c r="AL50">
         <v>5</v>
       </c>
-      <c r="AL50">
+      <c r="AM50">
         <v>200</v>
       </c>
-      <c r="AM50" s="2" t="s">
+      <c r="AN50" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN50">
+      <c r="AO50">
         <v>1</v>
       </c>
-      <c r="AO50" s="2" t="s">
+      <c r="AP50" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP50" s="17">
+      <c r="AQ50" s="17">
         <v>1</v>
       </c>
-      <c r="AQ50">
+      <c r="AR50">
         <v>200</v>
       </c>
-      <c r="AR50" s="2" t="s">
+      <c r="AS50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS50" s="12">
+      <c r="AT50" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT50" s="12">
+      <c r="AU50" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU50" s="12">
+      <c r="AV50" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV50" s="18" t="b">
+      <c r="AW50" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW50" s="18" t="b">
+      <c r="AX50" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX50" s="18" t="b">
+      <c r="AY50" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="C51" s="11"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="X51" s="26"/>
+      <c r="D51" s="11"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="26"/>
+      <c r="V51" s="26"/>
       <c r="Y51" s="26"/>
       <c r="Z51" s="26"/>
       <c r="AA51" s="26"/>
       <c r="AB51" s="26"/>
       <c r="AC51" s="26"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="26"/>
-      <c r="AG51" s="2"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="26"/>
       <c r="AH51" s="2"/>
-      <c r="AM51" s="2"/>
-      <c r="AO51" s="2"/>
-      <c r="AP51" s="17"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="12"/>
+      <c r="AI51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="17"/>
+      <c r="AS51" s="2"/>
       <c r="AT51" s="12"/>
       <c r="AU51" s="12"/>
-      <c r="AV51" s="18"/>
+      <c r="AV51" s="12"/>
       <c r="AW51" s="18"/>
       <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>284</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="X52" s="26"/>
+      <c r="D52" s="11"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="26"/>
+      <c r="V52" s="26"/>
       <c r="Y52" s="26"/>
       <c r="Z52" s="26"/>
       <c r="AA52" s="26"/>
       <c r="AB52" s="26"/>
       <c r="AC52" s="26"/>
-      <c r="AD52" s="41"/>
-      <c r="AE52" s="26"/>
-      <c r="AG52" s="2"/>
+      <c r="AD52" s="26"/>
+      <c r="AE52" s="41"/>
+      <c r="AF52" s="26"/>
       <c r="AH52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="17"/>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="12"/>
+      <c r="AI52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="17"/>
+      <c r="AS52" s="2"/>
       <c r="AT52" s="12"/>
       <c r="AU52" s="12"/>
-      <c r="AV52" s="18"/>
+      <c r="AV52" s="12"/>
       <c r="AW52" s="18"/>
       <c r="AX52" s="18"/>
+      <c r="AY52" s="18"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>285</v>
       </c>
@@ -8209,151 +8338,154 @@
         <v>286</v>
       </c>
       <c r="C53" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>211</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>1000</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>500</v>
-      </c>
-      <c r="H53" t="s">
-        <v>109</v>
       </c>
       <c r="I53" t="s">
         <v>109</v>
       </c>
       <c r="J53" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" t="s">
         <v>208</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>167</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>215</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>202</v>
       </c>
-      <c r="N53" s="26">
+      <c r="O53" s="26">
         <v>0</v>
       </c>
-      <c r="O53" s="18" t="b">
+      <c r="P53" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P53" s="26">
+      <c r="Q53" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>3</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>75</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>50</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>60</v>
       </c>
-      <c r="U53" s="26">
+      <c r="V53" s="26">
         <v>0.02</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>10</v>
-      </c>
-      <c r="X53" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y53" s="26">
         <v>0.04</v>
       </c>
       <c r="Z53" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA53" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA53" s="26">
+      <c r="AB53" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB53" s="26">
+      <c r="AC53" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC53" s="26" t="s">
+      <c r="AD53" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD53" s="41">
+      <c r="AE53" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE53" s="26">
+      <c r="AF53" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AG53" t="s">
         <v>112</v>
       </c>
-      <c r="AG53" s="2" t="s">
+      <c r="AH53" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH53" s="2" t="s">
+      <c r="AI53" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI53">
+      <c r="AJ53">
         <v>30</v>
       </c>
-      <c r="AJ53" t="s">
+      <c r="AK53" t="s">
         <v>115</v>
       </c>
-      <c r="AK53">
+      <c r="AL53">
         <v>5</v>
       </c>
-      <c r="AL53">
+      <c r="AM53">
         <v>200</v>
       </c>
-      <c r="AM53" s="2" t="s">
+      <c r="AN53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN53">
+      <c r="AO53">
         <v>1</v>
       </c>
-      <c r="AO53" s="2" t="s">
+      <c r="AP53" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP53" s="17">
+      <c r="AQ53" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ53">
+      <c r="AR53">
         <v>200</v>
       </c>
-      <c r="AR53" s="2" t="s">
+      <c r="AS53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS53" s="12">
+      <c r="AT53" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT53" s="12">
+      <c r="AU53" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU53" s="12">
+      <c r="AV53" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV53" s="18" t="b">
+      <c r="AW53" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW53" s="18" t="b">
+      <c r="AX53" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX53" s="18" t="b">
+      <c r="AY53" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>288</v>
       </c>
@@ -8361,241 +8493,244 @@
         <v>289</v>
       </c>
       <c r="C54" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>211</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>188</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>1000</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>500</v>
-      </c>
-      <c r="H54" t="s">
-        <v>109</v>
       </c>
       <c r="I54" t="s">
         <v>109</v>
       </c>
       <c r="J54" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" t="s">
         <v>208</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>167</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>215</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>202</v>
       </c>
-      <c r="N54" s="26">
+      <c r="O54" s="26">
         <v>0</v>
       </c>
-      <c r="O54" s="18" t="b">
+      <c r="P54" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P54" s="26">
+      <c r="Q54" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>3</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>75</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>50</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>60</v>
       </c>
-      <c r="U54" s="26">
+      <c r="V54" s="26">
         <v>0.02</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>10</v>
-      </c>
-      <c r="X54" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y54" s="26">
         <v>0.04</v>
       </c>
       <c r="Z54" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA54" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA54" s="26">
+      <c r="AB54" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB54" s="26">
+      <c r="AC54" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC54" s="26" t="s">
+      <c r="AD54" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD54" s="41">
+      <c r="AE54" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE54" s="26">
+      <c r="AF54" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="AG54" t="s">
         <v>112</v>
       </c>
-      <c r="AG54" s="2" t="s">
+      <c r="AH54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH54" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI54">
+      <c r="AJ54">
         <v>30</v>
       </c>
-      <c r="AJ54" t="s">
+      <c r="AK54" t="s">
         <v>115</v>
       </c>
-      <c r="AK54">
+      <c r="AL54">
         <v>5</v>
       </c>
-      <c r="AL54">
+      <c r="AM54">
         <v>200</v>
       </c>
-      <c r="AM54" s="2" t="s">
+      <c r="AN54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN54">
+      <c r="AO54">
         <v>1</v>
       </c>
-      <c r="AO54" s="2" t="s">
+      <c r="AP54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP54" s="17">
+      <c r="AQ54" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ54">
+      <c r="AR54">
         <v>200</v>
       </c>
-      <c r="AR54" s="2" t="s">
+      <c r="AS54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS54" s="12">
+      <c r="AT54" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT54" s="12">
+      <c r="AU54" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU54" s="12">
+      <c r="AV54" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV54" s="18" t="b">
+      <c r="AW54" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW54" s="18" t="b">
+      <c r="AX54" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX54" s="18" t="b">
+      <c r="AY54" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="P4:W4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="AD4:AF4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI54">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH54">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS54">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 C13:C54 O13:O54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 P13:P54 C6:D10 C13:D54">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA54 U13:U54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB54 V13:V54">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X54">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 X13:Z54 AB13:AB54 AD13:AD54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 Y13:AA54 AC13:AC54 AE13:AE54">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ54">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU54">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV54">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF54">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL54">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL54">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM54">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO54">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC54"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX54">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD54"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY54">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP54">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ54">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S54">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J54">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8608,37 +8743,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K54</xm:sqref>
+          <xm:sqref>L6:L9 L13:L54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L54</xm:sqref>
+          <xm:sqref>M6:M9 M13:M54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E54</xm:sqref>
+          <xm:sqref>F6:F9 F13:F54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D9 D13:D54</xm:sqref>
+          <xm:sqref>E6:E9 E13:E54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J9 J13:J54</xm:sqref>
+          <xm:sqref>K6:K9 K13:K54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M54</xm:sqref>
+          <xm:sqref>N6:N9 N13:N54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\Model_Main\IO_M1_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2073,7 +2073,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1618,6 +1618,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1653,6 +1670,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2070,7 +2104,7 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
@@ -2079,7 +2113,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="98.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1402,7 +1402,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,16 +1414,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2104,16 +2104,16 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="T18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
@@ -2302,62 +2302,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="44" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="44" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="43" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AH4" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2365,17 +2365,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="47" t="s">
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -8676,17 +8676,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1402,10 +1402,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,13 +1411,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2104,7 +2104,7 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="T18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="X42" sqref="X42"/>
@@ -2302,62 +2302,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="45" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="45" t="s">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="48" t="s">
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2365,17 +2365,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="48" t="s">
+      <c r="AP4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="49" t="s">
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -8676,17 +8676,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1402,7 +1402,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,16 +1414,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1850,9 +1850,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125"/>
-    <col min="2" max="2" width="16.7109375"/>
-    <col min="3" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="7.625"/>
+    <col min="2" max="2" width="16.75"/>
+    <col min="3" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="X42" sqref="X42"/>
@@ -2112,33 +2112,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
+    <col min="3" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="24.375"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="21" width="9.28515625" customWidth="1"/>
+    <col min="15" max="16" width="13.125" customWidth="1"/>
+    <col min="17" max="21" width="9.25" customWidth="1"/>
     <col min="22" max="22" width="16"/>
-    <col min="23" max="24" width="12.7109375"/>
-    <col min="25" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="29" width="12.7109375"/>
-    <col min="30" max="30" width="11.140625" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" style="24"/>
-    <col min="32" max="35" width="12.7109375"/>
-    <col min="36" max="36" width="12.7109375" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" customWidth="1"/>
-    <col min="42" max="43" width="11.7109375" customWidth="1"/>
-    <col min="44" max="44" width="13.140625" customWidth="1"/>
-    <col min="45" max="48" width="12.7109375"/>
+    <col min="23" max="24" width="12.75"/>
+    <col min="25" max="26" width="10.875" customWidth="1"/>
+    <col min="27" max="29" width="12.75"/>
+    <col min="30" max="30" width="11.125" customWidth="1"/>
+    <col min="31" max="31" width="12.75" style="24"/>
+    <col min="32" max="35" width="12.75"/>
+    <col min="36" max="36" width="12.75" customWidth="1"/>
+    <col min="37" max="37" width="11.875" customWidth="1"/>
+    <col min="42" max="43" width="11.75" customWidth="1"/>
+    <col min="44" max="44" width="13.125" customWidth="1"/>
+    <col min="45" max="48" width="12.75"/>
     <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="1038" width="8.5703125"/>
+    <col min="52" max="1038" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -2302,62 +2302,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="44" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="44" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="43" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AH4" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2365,17 +2365,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="47" t="s">
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -8676,17 +8676,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">
@@ -8825,7 +8825,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9051,7 +9051,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9121,10 +9121,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125"/>
+    <col min="1" max="1" width="23.375"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.42578125"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="3" max="3" width="85.375"/>
+    <col min="4" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9533,11 +9533,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
     <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10183,11 +10183,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1"/>
-    <col min="4" max="4" width="72.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="4" max="4" width="72.25" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M1_new\"/>
@@ -1402,10 +1402,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,13 +1411,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1850,9 +1850,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625"/>
-    <col min="2" max="2" width="16.75"/>
-    <col min="3" max="1025" width="8.625"/>
+    <col min="1" max="1" width="7.5703125"/>
+    <col min="2" max="2" width="16.7109375"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.625"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2104,41 +2104,41 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X42" sqref="X42"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="37.75" customWidth="1"/>
-    <col min="3" max="4" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="24.375"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="16" width="13.125" customWidth="1"/>
-    <col min="17" max="21" width="9.25" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="21" width="9.28515625" customWidth="1"/>
     <col min="22" max="22" width="16"/>
-    <col min="23" max="24" width="12.75"/>
-    <col min="25" max="26" width="10.875" customWidth="1"/>
-    <col min="27" max="29" width="12.75"/>
-    <col min="30" max="30" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="12.75" style="24"/>
-    <col min="32" max="35" width="12.75"/>
-    <col min="36" max="36" width="12.75" customWidth="1"/>
-    <col min="37" max="37" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="11.75" customWidth="1"/>
-    <col min="44" max="44" width="13.125" customWidth="1"/>
-    <col min="45" max="48" width="12.75"/>
+    <col min="23" max="24" width="12.7109375"/>
+    <col min="25" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="24"/>
+    <col min="32" max="35" width="12.7109375"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="42" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" customWidth="1"/>
+    <col min="45" max="48" width="12.7109375"/>
     <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="1038" width="8.625"/>
+    <col min="52" max="1038" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -2302,62 +2302,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="45" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="45" t="s">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="48" t="s">
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2365,17 +2365,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="48" t="s">
+      <c r="AP4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="49" t="s">
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -3353,7 +3353,7 @@
         <v>229</v>
       </c>
       <c r="C15" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="11" t="b">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>231</v>
       </c>
       <c r="C16" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="11" t="b">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>233</v>
       </c>
       <c r="C17" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="11" t="b">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>235</v>
       </c>
       <c r="C18" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="11" t="b">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>237</v>
       </c>
       <c r="C19" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="11" t="b">
         <v>0</v>
@@ -4128,7 +4128,7 @@
         <v>239</v>
       </c>
       <c r="C20" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="11" t="b">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>241</v>
       </c>
       <c r="C21" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="11" t="b">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>243</v>
       </c>
       <c r="C22" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="11" t="b">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>245</v>
       </c>
       <c r="C23" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="11" t="b">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>247</v>
       </c>
       <c r="C24" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="11" t="b">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>249</v>
       </c>
       <c r="C26" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="11" t="b">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>251</v>
       </c>
       <c r="C27" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="11" t="b">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>253</v>
       </c>
       <c r="C28" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="11" t="b">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>255</v>
       </c>
       <c r="C29" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="11" t="b">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>257</v>
       </c>
       <c r="C30" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="11" t="b">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>351</v>
       </c>
       <c r="C31" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="11" t="b">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>259</v>
       </c>
       <c r="C32" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="11" t="b">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>261</v>
       </c>
       <c r="C34" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="11" t="b">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>263</v>
       </c>
       <c r="C35" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="11" t="b">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>263</v>
       </c>
       <c r="C36" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="11" t="b">
         <v>0</v>
@@ -6513,7 +6513,7 @@
         <v>267</v>
       </c>
       <c r="C37" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="11" t="b">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>270</v>
       </c>
       <c r="C38" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="11" t="b">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>356</v>
       </c>
       <c r="C39" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="11" t="b">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>259</v>
       </c>
       <c r="C41" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="11" t="b">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>261</v>
       </c>
       <c r="C42" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="11" t="b">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>267</v>
       </c>
       <c r="C43" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="11" t="b">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="11" t="b">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>277</v>
       </c>
       <c r="C47" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="11" t="b">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>279</v>
       </c>
       <c r="C48" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="11" t="b">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>281</v>
       </c>
       <c r="C49" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="11" t="b">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>283</v>
       </c>
       <c r="C50" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="11" t="b">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>286</v>
       </c>
       <c r="C53" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="11" t="b">
         <v>0</v>
@@ -8527,7 +8527,7 @@
         <v>289</v>
       </c>
       <c r="C54" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="11" t="b">
         <v>0</v>
@@ -8676,17 +8676,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">
@@ -8825,7 +8825,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9051,7 +9051,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.625"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9121,10 +9121,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375"/>
+    <col min="1" max="1" width="23.42578125"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.375"/>
-    <col min="4" max="1025" width="8.625"/>
+    <col min="3" max="3" width="85.42578125"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9533,11 +9533,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10183,11 +10183,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="4" max="4" width="72.25" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="364">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1146,11 +1146,26 @@
   <si>
     <t>save.indiv</t>
   </si>
+  <si>
+    <t>NYSLRS</t>
+  </si>
+  <si>
+    <t>NYSLRS_1</t>
+  </si>
+  <si>
+    <t>NYSLRS, plan policies</t>
+  </si>
+  <si>
+    <t>use_AGG</t>
+  </si>
+  <si>
+    <t>use aggregate method for funding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1322,7 +1337,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1402,7 +1417,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,18 +1429,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1838,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1889,9 +1905,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Notes'!A1" display="Notes"/>
-    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl"/>
-    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns"/>
+    <hyperlink ref="B2" location="'Notes'!A1" display="Notes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1899,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2011,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2100,20 +2116,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AJ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
@@ -2131,28 +2147,31 @@
     <col min="27" max="29" width="12.7109375"/>
     <col min="30" max="30" width="11.140625" customWidth="1"/>
     <col min="31" max="31" width="12.7109375" style="24"/>
-    <col min="32" max="35" width="12.7109375"/>
-    <col min="36" max="36" width="12.7109375" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" customWidth="1"/>
-    <col min="42" max="43" width="11.7109375" customWidth="1"/>
-    <col min="44" max="44" width="13.140625" customWidth="1"/>
-    <col min="45" max="48" width="12.7109375"/>
-    <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="1038" width="8.5703125"/>
+    <col min="32" max="32" width="12.7109375"/>
+    <col min="33" max="33" width="17.28515625" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
+    <col min="35" max="36" width="12.7109375"/>
+    <col min="37" max="37" width="12.7109375" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" customWidth="1"/>
+    <col min="43" max="44" width="11.7109375" customWidth="1"/>
+    <col min="45" max="45" width="13.140625" customWidth="1"/>
+    <col min="46" max="49" width="12.7109375"/>
+    <col min="52" max="52" width="9" customWidth="1"/>
+    <col min="53" max="1039" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AS1" s="1" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AT1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
     </row>
-    <row r="2" spans="1:51" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2219,36 +2238,36 @@
         <v>37</v>
       </c>
       <c r="AE2" s="24"/>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="4" t="s">
+      <c r="AM2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -2275,112 +2294,115 @@
         <v>50</v>
       </c>
       <c r="U3" s="4"/>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AQ3" s="4"/>
-      <c r="AT3" s="4" t="s">
+      <c r="AR3" s="4"/>
+      <c r="AU3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:52" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="44" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="44" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="43" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AH4" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI4" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="21" t="s">
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="47" t="s">
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="20"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="20"/>
     </row>
-    <row r="5" spans="1:51" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -2481,61 +2503,64 @@
         <v>94</v>
       </c>
       <c r="AH5" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AM5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AN5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AN5" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AP5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AR5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AS5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AT5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AU5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AV5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AW5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AW5" s="9" t="s">
+      <c r="AX5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AY5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AY5" s="9" t="s">
+      <c r="AZ5" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -2635,62 +2660,62 @@
       <c r="AG6" t="s">
         <v>112</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>142</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>5</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>200</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AO6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>1</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ6" s="17">
+      <c r="AR6" s="17">
         <v>1</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>200</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AT6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AU6" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AV6" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV6" s="12">
+      <c r="AW6" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW6" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX6" s="18" t="b">
         <v>0</v>
       </c>
       <c r="AY6" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AZ6" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -2790,62 +2815,62 @@
       <c r="AG7" t="s">
         <v>112</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>142</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>5</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>200</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>1</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ7" s="17">
+      <c r="AR7" s="17">
         <v>1</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>200</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AT7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AU7" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AV7" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV7" s="12">
+      <c r="AW7" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW7" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX7" s="18" t="b">
         <v>0</v>
       </c>
       <c r="AY7" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AZ7" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -2945,62 +2970,62 @@
       <c r="AG8" t="s">
         <v>112</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>142</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>5</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>200</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AO8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>1</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ8" s="17">
+      <c r="AR8" s="17">
         <v>1</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>200</v>
       </c>
-      <c r="AS8" s="2" t="s">
+      <c r="AT8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT8" s="12">
+      <c r="AU8" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU8" s="12">
+      <c r="AV8" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV8" s="12">
+      <c r="AW8" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW8" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX8" s="18" t="b">
         <v>0</v>
       </c>
       <c r="AY8" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AZ8" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -3100,257 +3125,292 @@
       <c r="AG9" t="s">
         <v>112</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>142</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>5</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>200</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AO9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>1</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AQ9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ9" s="17">
+      <c r="AR9" s="17">
         <v>1</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>200</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AT9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT9" s="12">
+      <c r="AU9" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU9" s="12">
+      <c r="AV9" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV9" s="12">
+      <c r="AW9" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW9" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX9" s="18" t="b">
         <v>0</v>
       </c>
       <c r="AY9" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AZ9" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="26"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="17"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12">
+        <v>600000</v>
+      </c>
+      <c r="H12">
+        <v>400000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" t="s">
+        <v>215</v>
+      </c>
+      <c r="N12" t="s">
+        <v>202</v>
+      </c>
+      <c r="O12" s="26">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>75</v>
+      </c>
+      <c r="T12">
+        <v>50</v>
+      </c>
+      <c r="U12">
+        <v>60</v>
+      </c>
+      <c r="V12" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC12" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD12" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE12" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF12" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK12">
+        <v>30</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM12">
+        <v>5</v>
+      </c>
+      <c r="AN12">
+        <v>200</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR12" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="AS12">
+        <v>200</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU12" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV12" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW12" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AX12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="26"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="17"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="18"/>
-      <c r="AX13" s="18"/>
-      <c r="AY13" s="18"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="26"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="17"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="C14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>500</v>
-      </c>
-      <c r="I14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>208</v>
-      </c>
-      <c r="L14" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s">
-        <v>215</v>
-      </c>
-      <c r="N14" t="s">
-        <v>202</v>
-      </c>
-      <c r="O14" s="26">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>75</v>
-      </c>
-      <c r="T14">
-        <v>50</v>
-      </c>
-      <c r="U14">
-        <v>60</v>
-      </c>
-      <c r="V14" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z14" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA14" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB14" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC14" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD14" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE14" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF14" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL14">
-        <v>5</v>
-      </c>
-      <c r="AM14">
-        <v>200</v>
-      </c>
-      <c r="AN14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ14" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR14">
-        <v>200</v>
-      </c>
-      <c r="AS14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU14" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV14" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
@@ -3445,67 +3505,67 @@
       <c r="AG15" t="s">
         <v>112</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>142</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>5</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>200</v>
       </c>
-      <c r="AN15" s="2" t="s">
+      <c r="AO15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>1</v>
       </c>
-      <c r="AP15" s="2" t="s">
+      <c r="AQ15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ15" s="17">
+      <c r="AR15" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>200</v>
       </c>
-      <c r="AS15" s="2" t="s">
+      <c r="AT15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT15" s="12">
+      <c r="AU15" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU15" s="12">
+      <c r="AV15" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV15" s="12">
+      <c r="AW15" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW15" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX15" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AZ15" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" s="11" t="b">
         <v>0</v>
@@ -3600,67 +3660,67 @@
       <c r="AG16" t="s">
         <v>112</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ16">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="s">
         <v>142</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>5</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>200</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AO16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>1</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ16" s="17">
+      <c r="AR16" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>200</v>
       </c>
-      <c r="AS16" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT16" s="12">
+      <c r="AU16" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU16" s="12">
+      <c r="AV16" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV16" s="12">
+      <c r="AW16" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW16" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX16" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY16" s="18" t="b">
+      <c r="AZ16" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C17" s="11" t="b">
         <v>0</v>
@@ -3755,67 +3815,67 @@
       <c r="AG17" t="s">
         <v>112</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI17" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ17">
+      <c r="AJ17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK17">
         <v>15</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>142</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>5</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>200</v>
       </c>
-      <c r="AN17" s="2" t="s">
+      <c r="AO17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>1</v>
       </c>
-      <c r="AP17" s="2" t="s">
+      <c r="AQ17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ17" s="17">
+      <c r="AR17" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>200</v>
       </c>
-      <c r="AS17" s="2" t="s">
+      <c r="AT17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT17" s="12">
+      <c r="AU17" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU17" s="12">
+      <c r="AV17" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV17" s="12">
+      <c r="AW17" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW17" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY17" s="18" t="b">
+      <c r="AZ17" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" s="11" t="b">
         <v>0</v>
@@ -3910,67 +3970,67 @@
       <c r="AG18" t="s">
         <v>112</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AI18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ18">
-        <v>30</v>
-      </c>
-      <c r="AK18" t="s">
+      <c r="AJ18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK18">
+        <v>15</v>
+      </c>
+      <c r="AL18" t="s">
         <v>142</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>5</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>200</v>
       </c>
-      <c r="AN18" s="2" t="s">
+      <c r="AO18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>1</v>
       </c>
-      <c r="AP18" s="2" t="s">
+      <c r="AQ18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ18" s="17">
+      <c r="AR18" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>200</v>
       </c>
-      <c r="AS18" s="2" t="s">
+      <c r="AT18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT18" s="12">
+      <c r="AU18" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU18" s="12">
+      <c r="AV18" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV18" s="12">
+      <c r="AW18" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW18" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY18" s="18" t="b">
+      <c r="AZ18" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
@@ -4065,67 +4125,67 @@
       <c r="AG19" t="s">
         <v>112</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI19" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ19">
+      <c r="AJ19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK19">
         <v>30</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>142</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>5</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>200</v>
       </c>
-      <c r="AN19" s="2" t="s">
+      <c r="AO19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>1</v>
       </c>
-      <c r="AP19" s="2" t="s">
+      <c r="AQ19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ19" s="17">
+      <c r="AR19" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>200</v>
       </c>
-      <c r="AS19" s="2" t="s">
+      <c r="AT19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT19" s="12">
+      <c r="AU19" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU19" s="12">
+      <c r="AV19" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV19" s="12">
+      <c r="AW19" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW19" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY19" s="18" t="b">
+      <c r="AZ19" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>238</v>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" s="11" t="b">
         <v>0</v>
@@ -4220,67 +4280,67 @@
       <c r="AG20" t="s">
         <v>112</v>
       </c>
-      <c r="AH20" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="AI20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ20">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK20">
+        <v>30</v>
+      </c>
+      <c r="AL20" t="s">
         <v>142</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>5</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>200</v>
       </c>
-      <c r="AN20" s="2" t="s">
+      <c r="AO20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>1</v>
       </c>
-      <c r="AP20" s="2" t="s">
+      <c r="AQ20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ20" s="17">
+      <c r="AR20" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>200</v>
       </c>
-      <c r="AS20" s="2" t="s">
+      <c r="AT20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT20" s="12">
+      <c r="AU20" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU20" s="12">
+      <c r="AV20" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV20" s="12">
+      <c r="AW20" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW20" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY20" s="18" t="b">
+      <c r="AZ20" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>240</v>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C21" s="11" t="b">
         <v>0</v>
@@ -4375,67 +4435,67 @@
       <c r="AG21" t="s">
         <v>112</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AI21" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AI21" s="2" t="s">
+      <c r="AJ21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ21">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="s">
+      <c r="AK21">
+        <v>10</v>
+      </c>
+      <c r="AL21" t="s">
         <v>142</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>5</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>200</v>
       </c>
-      <c r="AN21" s="2" t="s">
+      <c r="AO21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>1</v>
       </c>
-      <c r="AP21" s="2" t="s">
+      <c r="AQ21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ21" s="17">
+      <c r="AR21" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>200</v>
       </c>
-      <c r="AS21" s="2" t="s">
+      <c r="AT21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT21" s="12">
+      <c r="AU21" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU21" s="12">
+      <c r="AV21" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV21" s="12">
+      <c r="AW21" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW21" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX21" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY21" s="18" t="b">
+      <c r="AZ21" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" s="11" t="b">
         <v>0</v>
@@ -4530,67 +4590,67 @@
       <c r="AG22" t="s">
         <v>112</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AI22" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ22">
+      <c r="AJ22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK22">
         <v>15</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>142</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>5</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>200</v>
       </c>
-      <c r="AN22" s="2" t="s">
+      <c r="AO22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>1</v>
       </c>
-      <c r="AP22" s="2" t="s">
+      <c r="AQ22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ22" s="17">
+      <c r="AR22" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>200</v>
       </c>
-      <c r="AS22" s="2" t="s">
+      <c r="AT22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT22" s="12">
+      <c r="AU22" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU22" s="12">
+      <c r="AV22" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV22" s="12">
+      <c r="AW22" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW22" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX22" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY22" s="18" t="b">
+      <c r="AZ22" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
@@ -4685,67 +4745,67 @@
       <c r="AG23" t="s">
         <v>112</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AI23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ23">
-        <v>30</v>
-      </c>
-      <c r="AK23" t="s">
+      <c r="AJ23" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK23">
+        <v>15</v>
+      </c>
+      <c r="AL23" t="s">
         <v>142</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>5</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>200</v>
       </c>
-      <c r="AN23" s="2" t="s">
+      <c r="AO23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>1</v>
       </c>
-      <c r="AP23" s="2" t="s">
+      <c r="AQ23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ23" s="17">
+      <c r="AR23" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>200</v>
       </c>
-      <c r="AS23" s="2" t="s">
+      <c r="AT23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT23" s="12">
+      <c r="AU23" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU23" s="12">
+      <c r="AV23" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV23" s="12">
+      <c r="AW23" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW23" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX23" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY23" s="18" t="b">
+      <c r="AZ23" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>246</v>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>244</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C24" s="11" t="b">
         <v>0</v>
@@ -4840,251 +4900,251 @@
       <c r="AG24" t="s">
         <v>112</v>
       </c>
-      <c r="AH24" s="2" t="s">
+      <c r="AI24" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AI24" s="2" t="s">
+      <c r="AJ24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK24">
+        <v>30</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM24">
+        <v>5</v>
+      </c>
+      <c r="AN24">
+        <v>200</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR24" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS24">
+        <v>200</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU24" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV24" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW24" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX24" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>500</v>
+      </c>
+      <c r="I25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" t="s">
+        <v>215</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0</v>
+      </c>
+      <c r="P25" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>75</v>
+      </c>
+      <c r="T25">
+        <v>50</v>
+      </c>
+      <c r="U25">
+        <v>60</v>
+      </c>
+      <c r="V25" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z25" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA25" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB25" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC25" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD25" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE25" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF25" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ24">
+      <c r="AK25">
         <v>30</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL25" t="s">
         <v>142</v>
       </c>
-      <c r="AL24">
+      <c r="AM25">
         <v>5</v>
       </c>
-      <c r="AM24">
+      <c r="AN25">
         <v>200</v>
       </c>
-      <c r="AN24" s="2" t="s">
+      <c r="AO25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO24">
+      <c r="AP25">
         <v>1</v>
       </c>
-      <c r="AP24" s="2" t="s">
+      <c r="AQ25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ24" s="17">
+      <c r="AR25" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR24">
+      <c r="AS25">
         <v>200</v>
       </c>
-      <c r="AS24" s="2" t="s">
+      <c r="AT25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT24" s="12">
+      <c r="AU25" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU24" s="12">
+      <c r="AV25" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV24" s="12">
+      <c r="AW25" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW24" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="18" t="b">
+      <c r="AX25" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY24" s="18" t="b">
+      <c r="AZ25" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="26"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="17"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
-      <c r="AV25" s="12"/>
-      <c r="AW25" s="18"/>
-      <c r="AX25" s="18"/>
-      <c r="AY25" s="18"/>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="26"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="17"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="C26" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-      <c r="H26">
-        <v>500</v>
-      </c>
-      <c r="I26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" t="s">
-        <v>208</v>
-      </c>
-      <c r="L26" t="s">
-        <v>167</v>
-      </c>
-      <c r="M26" t="s">
-        <v>215</v>
-      </c>
-      <c r="N26" t="s">
-        <v>202</v>
-      </c>
-      <c r="O26" s="26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R26">
-        <v>3</v>
-      </c>
-      <c r="S26">
-        <v>75</v>
-      </c>
-      <c r="T26">
-        <v>50</v>
-      </c>
-      <c r="U26">
-        <v>60</v>
-      </c>
-      <c r="V26" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>10</v>
-      </c>
-      <c r="Y26" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z26" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA26" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB26" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC26" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD26" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE26" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF26" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL26">
-        <v>5</v>
-      </c>
-      <c r="AM26">
-        <v>200</v>
-      </c>
-      <c r="AN26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO26">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ26" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR26">
-        <v>200</v>
-      </c>
-      <c r="AS26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT26" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU26" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV26" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW26" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY26" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>251</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
@@ -5179,67 +5239,67 @@
       <c r="AG27" t="s">
         <v>112</v>
       </c>
-      <c r="AH27" s="2" t="s">
+      <c r="AI27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI27" s="2" t="s">
+      <c r="AJ27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>115</v>
       </c>
-      <c r="AL27">
-        <v>10</v>
-      </c>
       <c r="AM27">
+        <v>5</v>
+      </c>
+      <c r="AN27">
         <v>200</v>
       </c>
-      <c r="AN27" s="2" t="s">
+      <c r="AO27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>1</v>
       </c>
-      <c r="AP27" s="2" t="s">
+      <c r="AQ27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ27" s="17">
+      <c r="AR27" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>200</v>
       </c>
-      <c r="AS27" s="2" t="s">
+      <c r="AT27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT27" s="12">
+      <c r="AU27" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU27" s="12">
+      <c r="AV27" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV27" s="12">
+      <c r="AW27" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW27" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX27" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY27" s="18" t="b">
+      <c r="AZ27" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>252</v>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>250</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
@@ -5334,67 +5394,67 @@
       <c r="AG28" t="s">
         <v>112</v>
       </c>
-      <c r="AH28" s="2" t="s">
+      <c r="AI28" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI28" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ28">
-        <v>30</v>
-      </c>
-      <c r="AK28" t="s">
+      <c r="AJ28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="s">
         <v>115</v>
       </c>
-      <c r="AL28">
-        <v>5</v>
-      </c>
       <c r="AM28">
+        <v>10</v>
+      </c>
+      <c r="AN28">
         <v>200</v>
       </c>
-      <c r="AN28" s="2" t="s">
+      <c r="AO28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <v>1</v>
       </c>
-      <c r="AP28" s="2" t="s">
+      <c r="AQ28" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ28" s="17">
+      <c r="AR28" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>200</v>
       </c>
-      <c r="AS28" s="2" t="s">
+      <c r="AT28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT28" s="12">
+      <c r="AU28" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU28" s="12">
+      <c r="AV28" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV28" s="12">
+      <c r="AW28" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW28" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX28" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY28" s="18" t="b">
+      <c r="AZ28" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>254</v>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" s="11" t="b">
         <v>0</v>
@@ -5489,67 +5549,67 @@
       <c r="AG29" t="s">
         <v>112</v>
       </c>
-      <c r="AH29" s="2" t="s">
+      <c r="AI29" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI29" s="2" t="s">
+      <c r="AJ29" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>30</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AL29" t="s">
         <v>115</v>
       </c>
-      <c r="AL29">
-        <v>10</v>
-      </c>
       <c r="AM29">
+        <v>5</v>
+      </c>
+      <c r="AN29">
         <v>200</v>
       </c>
-      <c r="AN29" s="2" t="s">
+      <c r="AO29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <v>1</v>
       </c>
-      <c r="AP29" s="2" t="s">
+      <c r="AQ29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ29" s="17">
+      <c r="AR29" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR29">
+      <c r="AS29">
         <v>200</v>
       </c>
-      <c r="AS29" s="2" t="s">
+      <c r="AT29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT29" s="12">
+      <c r="AU29" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU29" s="12">
+      <c r="AV29" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV29" s="12">
+      <c r="AW29" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW29" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX29" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY29" s="18" t="b">
+      <c r="AZ29" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>256</v>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>254</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C30" s="11" t="b">
         <v>0</v>
@@ -5644,67 +5704,67 @@
       <c r="AG30" t="s">
         <v>112</v>
       </c>
-      <c r="AH30" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="AI30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>30</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30" t="s">
         <v>115</v>
       </c>
-      <c r="AL30">
-        <v>5</v>
-      </c>
       <c r="AM30">
+        <v>10</v>
+      </c>
+      <c r="AN30">
         <v>200</v>
       </c>
-      <c r="AN30" s="2" t="s">
+      <c r="AO30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO30">
+      <c r="AP30">
         <v>1</v>
       </c>
-      <c r="AP30" s="2" t="s">
+      <c r="AQ30" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ30" s="17">
+      <c r="AR30" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR30">
+      <c r="AS30">
         <v>200</v>
       </c>
-      <c r="AS30" s="2" t="s">
+      <c r="AT30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT30" s="12">
+      <c r="AU30" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU30" s="12">
+      <c r="AV30" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV30" s="12">
+      <c r="AW30" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW30" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY30" s="18" t="b">
+      <c r="AZ30" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -5799,67 +5859,67 @@
       <c r="AG31" t="s">
         <v>112</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AI31" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AI31" s="2" t="s">
+      <c r="AJ31" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>30</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AL31" t="s">
         <v>115</v>
       </c>
-      <c r="AL31">
-        <v>10</v>
-      </c>
       <c r="AM31">
+        <v>5</v>
+      </c>
+      <c r="AN31">
         <v>200</v>
       </c>
-      <c r="AN31" s="2" t="s">
+      <c r="AO31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>1</v>
       </c>
-      <c r="AP31" s="2" t="s">
+      <c r="AQ31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ31" s="17">
+      <c r="AR31" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR31">
+      <c r="AS31">
         <v>200</v>
       </c>
-      <c r="AS31" s="2" t="s">
+      <c r="AT31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT31" s="12">
+      <c r="AU31" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU31" s="12">
+      <c r="AV31" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV31" s="12">
+      <c r="AW31" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW31" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX31" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY31" s="18" t="b">
+      <c r="AZ31" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>258</v>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>259</v>
+        <v>351</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>0</v>
@@ -5954,404 +6014,403 @@
       <c r="AG32" t="s">
         <v>112</v>
       </c>
-      <c r="AH32" s="2" t="s">
+      <c r="AI32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK32">
+        <v>30</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM32">
+        <v>10</v>
+      </c>
+      <c r="AN32">
+        <v>200</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR32" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS32">
+        <v>200</v>
+      </c>
+      <c r="AT32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU32" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV32" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW32" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>500</v>
+      </c>
+      <c r="I33" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" t="s">
+        <v>215</v>
+      </c>
+      <c r="N33" t="s">
+        <v>202</v>
+      </c>
+      <c r="O33" s="26">
+        <v>0</v>
+      </c>
+      <c r="P33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>75</v>
+      </c>
+      <c r="T33">
+        <v>50</v>
+      </c>
+      <c r="U33">
+        <v>60</v>
+      </c>
+      <c r="V33" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z33" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA33" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB33" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC33" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD33" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE33" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF33" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI32" s="2" t="s">
+      <c r="AJ33" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ32">
+      <c r="AK33">
         <v>30</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AL33" t="s">
         <v>115</v>
       </c>
-      <c r="AL32">
+      <c r="AM33">
         <v>5</v>
       </c>
-      <c r="AM32">
+      <c r="AN33">
         <v>200</v>
       </c>
-      <c r="AN32" s="2" t="s">
+      <c r="AO33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO32">
+      <c r="AP33">
         <v>1</v>
       </c>
-      <c r="AP32" s="2" t="s">
+      <c r="AQ33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ32" s="17">
+      <c r="AR33" s="17">
         <v>1</v>
       </c>
-      <c r="AR32">
+      <c r="AS33">
         <v>200</v>
       </c>
-      <c r="AS32" s="2" t="s">
+      <c r="AT33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT32" s="12">
+      <c r="AU33" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU32" s="12">
+      <c r="AV33" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV32" s="12">
+      <c r="AW33" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW32" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="18" t="b">
+      <c r="AX33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY32" s="18" t="b">
+      <c r="AZ33" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="26"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="17"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="12"/>
-      <c r="AU33" s="12"/>
-      <c r="AV33" s="12"/>
-      <c r="AW33" s="18"/>
-      <c r="AX33" s="18"/>
-      <c r="AY33" s="18"/>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="26"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="17"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="18"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B35" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>211</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>188</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>1000</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>500</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>109</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>109</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K35" t="s">
         <v>208</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L35" t="s">
         <v>167</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M35" t="s">
         <v>215</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N35" t="s">
         <v>202</v>
       </c>
-      <c r="O34" s="26">
-        <v>0</v>
-      </c>
-      <c r="P34" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="26">
+      <c r="O35" s="26">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R34">
+      <c r="R35">
         <v>3</v>
       </c>
-      <c r="S34">
+      <c r="S35">
         <v>75</v>
       </c>
-      <c r="T34">
+      <c r="T35">
         <v>50</v>
       </c>
-      <c r="U34">
+      <c r="U35">
         <v>60</v>
       </c>
-      <c r="V34" s="26">
+      <c r="V35" s="26">
         <v>0.02</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
         <v>10</v>
       </c>
-      <c r="Y34" s="26">
+      <c r="Y35" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z34" s="26">
+      <c r="Z35" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA34" s="26">
+      <c r="AA35" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB34" s="26">
+      <c r="AB35" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC34" s="26">
+      <c r="AC35" s="26">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AD34" s="26" t="s">
+      <c r="AD35" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE34" s="41">
+      <c r="AE35" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF34" s="26">
+      <c r="AF35" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG35" t="s">
         <v>112</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AI35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI34" s="2" t="s">
+      <c r="AJ35" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ34">
+      <c r="AK35">
         <v>15</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AL35" t="s">
         <v>115</v>
       </c>
-      <c r="AL34">
+      <c r="AM35">
         <v>5</v>
       </c>
-      <c r="AM34">
+      <c r="AN35">
         <v>200</v>
       </c>
-      <c r="AN34" s="2" t="s">
+      <c r="AO35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO34">
+      <c r="AP35">
         <v>1</v>
       </c>
-      <c r="AP34" s="2" t="s">
+      <c r="AQ35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AQ34" s="17">
+      <c r="AR35" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR34" s="25">
+      <c r="AS35" s="25">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AS34" s="2" t="s">
+      <c r="AT35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT34" s="12">
+      <c r="AU35" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU34" s="12">
+      <c r="AV35" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV34" s="12">
+      <c r="AW35" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW34" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="18" t="b">
+      <c r="AX35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY34" s="18" t="b">
+      <c r="AZ35" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>262</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35">
-        <v>500</v>
-      </c>
-      <c r="I35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K35" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" t="s">
-        <v>167</v>
-      </c>
-      <c r="M35" t="s">
-        <v>215</v>
-      </c>
-      <c r="N35" t="s">
-        <v>202</v>
-      </c>
-      <c r="O35" s="26">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R35">
-        <v>3</v>
-      </c>
-      <c r="S35">
-        <v>75</v>
-      </c>
-      <c r="T35">
-        <v>50</v>
-      </c>
-      <c r="U35">
-        <v>60</v>
-      </c>
-      <c r="V35" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z35" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA35" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB35" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC35" s="26">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AD35" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE35" s="41">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="AF35" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ35">
-        <v>15</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL35">
-        <v>5</v>
-      </c>
-      <c r="AM35">
-        <v>200</v>
-      </c>
-      <c r="AN35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO35">
-        <v>1</v>
-      </c>
-      <c r="AP35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ35" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR35" s="25">
-        <f t="shared" ref="AR35:AR39" si="0">225068282*0.75</f>
-        <v>168801211.5</v>
-      </c>
-      <c r="AS35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT35" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU35" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV35" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW35" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY35" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>357</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>263</v>
@@ -6441,7 +6500,7 @@
         <v>156</v>
       </c>
       <c r="AE36" s="41">
-        <v>6.4000000000000001E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="AF36" s="26">
         <v>0.12</v>
@@ -6449,721 +6508,722 @@
       <c r="AG36" t="s">
         <v>112</v>
       </c>
-      <c r="AH36" s="2" t="s">
+      <c r="AI36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI36" s="2" t="s">
+      <c r="AJ36" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>15</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AL36" t="s">
         <v>115</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>5</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>200</v>
       </c>
-      <c r="AN36" s="2" t="s">
+      <c r="AO36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO36">
+      <c r="AP36">
         <v>1</v>
       </c>
-      <c r="AP36" s="2" t="s">
+      <c r="AQ36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AQ36" s="17">
+      <c r="AR36" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR36" s="25">
+      <c r="AS36" s="25">
+        <f t="shared" ref="AS36:AS40" si="0">225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AT36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU36" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV36" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW36" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>500</v>
+      </c>
+      <c r="I37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" t="s">
+        <v>208</v>
+      </c>
+      <c r="L37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M37" t="s">
+        <v>215</v>
+      </c>
+      <c r="N37" t="s">
+        <v>202</v>
+      </c>
+      <c r="O37" s="26">
+        <v>0</v>
+      </c>
+      <c r="P37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>75</v>
+      </c>
+      <c r="T37">
+        <v>50</v>
+      </c>
+      <c r="U37">
+        <v>60</v>
+      </c>
+      <c r="V37" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA37" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB37" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC37" s="26">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AD37" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE37" s="41">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AF37" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ37" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK37">
+        <v>15</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM37">
+        <v>5</v>
+      </c>
+      <c r="AN37">
+        <v>200</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR37" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS37" s="25">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AS36" s="2" t="s">
+      <c r="AT37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT36" s="12">
+      <c r="AU37" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU36" s="12">
+      <c r="AV37" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV36" s="12">
+      <c r="AW37" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW36" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="18" t="b">
+      <c r="AX37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY36" s="18" t="b">
+      <c r="AZ37" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C37" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>211</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>1000</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>500</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>109</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J38" t="s">
         <v>109</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K38" t="s">
         <v>208</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L38" t="s">
         <v>167</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M38" t="s">
         <v>215</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N38" t="s">
         <v>202</v>
       </c>
-      <c r="O37" s="26">
-        <v>0</v>
-      </c>
-      <c r="P37" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="26">
+      <c r="O38" s="26">
+        <v>0</v>
+      </c>
+      <c r="P38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R37">
+      <c r="R38">
         <v>3</v>
       </c>
-      <c r="S37">
+      <c r="S38">
         <v>75</v>
       </c>
-      <c r="T37">
+      <c r="T38">
         <v>50</v>
       </c>
-      <c r="U37">
+      <c r="U38">
         <v>60</v>
       </c>
-      <c r="V37" s="26">
+      <c r="V38" s="26">
         <v>0.02</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
         <v>10</v>
       </c>
-      <c r="Y37" s="26">
+      <c r="Y38" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z37" s="26">
+      <c r="Z38" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA37" s="26">
+      <c r="AA38" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB37" s="26">
+      <c r="AB38" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC37" s="26">
+      <c r="AC38" s="26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AD37" s="26" t="s">
+      <c r="AD38" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE37" s="41">
+      <c r="AE38" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF37" s="26">
+      <c r="AF38" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AG38" t="s">
         <v>112</v>
       </c>
-      <c r="AH37" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI37" s="2" t="s">
+      <c r="AJ38" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ37">
+      <c r="AK38">
         <v>15</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AL38" t="s">
         <v>115</v>
       </c>
-      <c r="AL37">
+      <c r="AM38">
         <v>5</v>
       </c>
-      <c r="AM37">
+      <c r="AN38">
         <v>200</v>
       </c>
-      <c r="AN37" s="2" t="s">
+      <c r="AO38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO37">
+      <c r="AP38">
         <v>1</v>
       </c>
-      <c r="AP37" s="2" t="s">
+      <c r="AQ38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AQ37" s="17">
+      <c r="AR38" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR37" s="25">
+      <c r="AS38" s="25">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AS37" s="2" t="s">
+      <c r="AT38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT37" s="12">
+      <c r="AU38" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU37" s="12">
+      <c r="AV38" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV37" s="12">
+      <c r="AW38" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW37" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="18" t="b">
+      <c r="AX38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY37" s="18" t="b">
+      <c r="AZ38" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>269</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="C38" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>211</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>1000</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>500</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>109</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J39" t="s">
         <v>109</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K39" t="s">
         <v>208</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L39" t="s">
         <v>167</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M39" t="s">
         <v>215</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N39" t="s">
         <v>202</v>
       </c>
-      <c r="O38" s="26">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="26">
+      <c r="O39" s="26">
+        <v>0</v>
+      </c>
+      <c r="P39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R38">
+      <c r="R39">
         <v>3</v>
       </c>
-      <c r="S38">
+      <c r="S39">
         <v>75</v>
       </c>
-      <c r="T38">
+      <c r="T39">
         <v>50</v>
       </c>
-      <c r="U38">
+      <c r="U39">
         <v>60</v>
       </c>
-      <c r="V38" s="26">
+      <c r="V39" s="26">
         <v>0.02</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>10</v>
       </c>
-      <c r="Y38" s="26">
+      <c r="Y39" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z38" s="26">
+      <c r="Z39" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA38" s="26">
+      <c r="AA39" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB38" s="26">
+      <c r="AB39" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC38" s="26">
+      <c r="AC39" s="26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AD38" s="26" t="s">
+      <c r="AD39" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE38" s="41">
+      <c r="AE39" s="41">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="AF38" s="26">
+      <c r="AF39" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AG39" t="s">
         <v>112</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI38" s="2" t="s">
+      <c r="AJ39" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ38">
+      <c r="AK39">
         <v>15</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AL39" t="s">
         <v>115</v>
       </c>
-      <c r="AL38">
+      <c r="AM39">
         <v>5</v>
       </c>
-      <c r="AM38">
+      <c r="AN39">
         <v>200</v>
       </c>
-      <c r="AN38" s="2" t="s">
+      <c r="AO39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO38">
+      <c r="AP39">
         <v>1</v>
       </c>
-      <c r="AP38" s="2" t="s">
+      <c r="AQ39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AQ38" s="17">
+      <c r="AR39" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR38" s="25">
+      <c r="AS39" s="25">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AS38" s="2" t="s">
+      <c r="AT39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT38" s="12">
+      <c r="AU39" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU38" s="12">
+      <c r="AV39" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV38" s="12">
+      <c r="AW39" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW38" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="18" t="b">
+      <c r="AX39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY38" s="18" t="b">
+      <c r="AZ39" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>355</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C39" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C40" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>211</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>188</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>1000</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>500</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>109</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>109</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K40" t="s">
         <v>208</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L40" t="s">
         <v>167</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M40" t="s">
         <v>215</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N40" t="s">
         <v>202</v>
       </c>
-      <c r="O39" s="26">
-        <v>0</v>
-      </c>
-      <c r="P39" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="26">
+      <c r="O40" s="26">
+        <v>0</v>
+      </c>
+      <c r="P40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R39">
+      <c r="R40">
         <v>3</v>
       </c>
-      <c r="S39">
+      <c r="S40">
         <v>75</v>
       </c>
-      <c r="T39">
+      <c r="T40">
         <v>50</v>
       </c>
-      <c r="U39">
+      <c r="U40">
         <v>60</v>
       </c>
-      <c r="V39" s="26">
+      <c r="V40" s="26">
         <v>0.02</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
         <v>10</v>
       </c>
-      <c r="Y39" s="26">
+      <c r="Y40" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z39" s="26">
+      <c r="Z40" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA39" s="26">
+      <c r="AA40" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB39" s="26">
+      <c r="AB40" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC39" s="26">
+      <c r="AC40" s="26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AD39" s="26" t="s">
+      <c r="AD40" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE39" s="41">
+      <c r="AE40" s="41">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AF39" s="26">
+      <c r="AF40" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AG40" t="s">
         <v>112</v>
       </c>
-      <c r="AH39" s="2" t="s">
+      <c r="AI40" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI39" s="2" t="s">
+      <c r="AJ40" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ39">
+      <c r="AK40">
         <v>15</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AL40" t="s">
         <v>115</v>
       </c>
-      <c r="AL39">
+      <c r="AM40">
         <v>5</v>
       </c>
-      <c r="AM39">
+      <c r="AN40">
         <v>200</v>
       </c>
-      <c r="AN39" s="2" t="s">
+      <c r="AO40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO39">
+      <c r="AP40">
         <v>1</v>
       </c>
-      <c r="AP39" s="2" t="s">
+      <c r="AQ40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AQ39" s="17">
+      <c r="AR40" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR39" s="25">
+      <c r="AS40" s="25">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AS39" s="2" t="s">
+      <c r="AT40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT39" s="12">
+      <c r="AU40" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU39" s="12">
+      <c r="AV40" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV39" s="12">
+      <c r="AW40" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW39" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="18" t="b">
+      <c r="AX40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY39" s="18" t="b">
+      <c r="AZ40" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="26"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="17"/>
-      <c r="AR40" s="25"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="12"/>
-      <c r="AU40" s="12"/>
-      <c r="AV40" s="12"/>
-      <c r="AW40" s="18"/>
-      <c r="AX40" s="18"/>
-      <c r="AY40" s="18"/>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="26"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="17"/>
+      <c r="AS41" s="25"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="18"/>
+      <c r="AY41" s="18"/>
+      <c r="AZ41" s="18"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>354</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B42" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="C41" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41">
-        <v>1000</v>
-      </c>
-      <c r="H41">
-        <v>500</v>
-      </c>
-      <c r="I41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" t="s">
-        <v>208</v>
-      </c>
-      <c r="L41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M41" t="s">
-        <v>215</v>
-      </c>
-      <c r="N41" t="s">
-        <v>202</v>
-      </c>
-      <c r="O41" s="26">
-        <v>0</v>
-      </c>
-      <c r="P41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R41">
-        <v>3</v>
-      </c>
-      <c r="S41">
-        <v>75</v>
-      </c>
-      <c r="T41">
-        <v>50</v>
-      </c>
-      <c r="U41">
-        <v>60</v>
-      </c>
-      <c r="V41" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>10</v>
-      </c>
-      <c r="Y41" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z41" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA41" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB41" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC41" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD41" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE41" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF41" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI41" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ41">
-        <v>30</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL41">
-        <v>5</v>
-      </c>
-      <c r="AM41">
-        <v>200</v>
-      </c>
-      <c r="AN41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AP41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ41" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR41">
-        <v>200</v>
-      </c>
-      <c r="AS41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT41" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="AU41" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV41" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY41" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="C42" s="11" t="b">
         <v>0</v>
@@ -7244,7 +7304,7 @@
         <v>0.01</v>
       </c>
       <c r="AC42" s="26">
-        <v>6.4000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD42" s="26" t="s">
         <v>156</v>
@@ -7258,250 +7318,374 @@
       <c r="AG42" t="s">
         <v>112</v>
       </c>
-      <c r="AH42" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI42" s="2" t="s">
+      <c r="AJ42" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ42">
+      <c r="AK42">
+        <v>30</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM42">
+        <v>5</v>
+      </c>
+      <c r="AN42">
+        <v>200</v>
+      </c>
+      <c r="AO42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR42" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS42">
+        <v>200</v>
+      </c>
+      <c r="AT42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU42" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AV42" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW42" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>500</v>
+      </c>
+      <c r="I43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" t="s">
+        <v>167</v>
+      </c>
+      <c r="M43" t="s">
+        <v>215</v>
+      </c>
+      <c r="N43" t="s">
+        <v>202</v>
+      </c>
+      <c r="O43" s="26">
+        <v>0</v>
+      </c>
+      <c r="P43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>75</v>
+      </c>
+      <c r="T43">
+        <v>50</v>
+      </c>
+      <c r="U43">
+        <v>60</v>
+      </c>
+      <c r="V43" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA43" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB43" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC43" s="26">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AD43" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE43" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF43" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK43">
         <v>15</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AL43" t="s">
         <v>115</v>
       </c>
-      <c r="AL42">
+      <c r="AM43">
         <v>5</v>
       </c>
-      <c r="AM42">
+      <c r="AN43">
         <v>200</v>
       </c>
-      <c r="AN42" s="2" t="s">
+      <c r="AO43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO42">
+      <c r="AP43">
         <v>1</v>
       </c>
-      <c r="AP42" s="2" t="s">
+      <c r="AQ43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AQ42" s="17">
+      <c r="AR43" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR42" s="25">
+      <c r="AS43" s="25">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AS42" s="2" t="s">
+      <c r="AT43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AT42" s="12">
+      <c r="AU43" s="12">
         <v>0.2</v>
       </c>
-      <c r="AU42" s="12">
+      <c r="AV43" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV42" s="12">
+      <c r="AW43" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW42" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX42" s="18" t="b">
+      <c r="AX43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY42" s="18" t="b">
+      <c r="AZ43" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B44" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C43" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>211</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>1000</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>500</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>109</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J44" t="s">
         <v>109</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K44" t="s">
         <v>208</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L44" t="s">
         <v>167</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M44" t="s">
         <v>215</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N44" t="s">
         <v>202</v>
       </c>
-      <c r="O43" s="26">
-        <v>0</v>
-      </c>
-      <c r="P43" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="26">
+      <c r="O44" s="26">
+        <v>0</v>
+      </c>
+      <c r="P44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R43">
+      <c r="R44">
         <v>3</v>
       </c>
-      <c r="S43">
+      <c r="S44">
         <v>75</v>
       </c>
-      <c r="T43">
+      <c r="T44">
         <v>50</v>
       </c>
-      <c r="U43">
+      <c r="U44">
         <v>60</v>
       </c>
-      <c r="V43" s="26">
+      <c r="V44" s="26">
         <v>0.02</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
         <v>10</v>
       </c>
-      <c r="Y43" s="26">
+      <c r="Y44" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z43" s="26">
+      <c r="Z44" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA43" s="26">
+      <c r="AA44" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB43" s="26">
+      <c r="AB44" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC43" s="26">
+      <c r="AC44" s="26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AD43" s="26" t="s">
+      <c r="AD44" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE43" s="41">
+      <c r="AE44" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF43" s="26">
+      <c r="AF44" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AG44" t="s">
         <v>112</v>
       </c>
-      <c r="AH43" s="2" t="s">
+      <c r="AI44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI43" s="2" t="s">
+      <c r="AJ44" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ43">
+      <c r="AK44">
         <v>15</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AL44" t="s">
         <v>115</v>
       </c>
-      <c r="AL43">
+      <c r="AM44">
         <v>5</v>
       </c>
-      <c r="AM43">
+      <c r="AN44">
         <v>200</v>
       </c>
-      <c r="AN43" s="2" t="s">
+      <c r="AO44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO43">
+      <c r="AP44">
         <v>1</v>
       </c>
-      <c r="AP43" s="2" t="s">
+      <c r="AQ44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AQ43" s="17">
+      <c r="AR44" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR43" s="25">
-        <f t="shared" ref="AR43" si="1">225068282*0.75</f>
+      <c r="AS44" s="25">
+        <f t="shared" ref="AS44" si="1">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AS43" s="2" t="s">
+      <c r="AT44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AT43" s="12">
+      <c r="AU44" s="12">
         <v>0.2</v>
       </c>
-      <c r="AU43" s="12">
+      <c r="AV44" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV43" s="12">
+      <c r="AW44" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW43" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="18" t="b">
+      <c r="AX44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY43" s="18" t="b">
+      <c r="AZ44" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="41"/>
-      <c r="AF44" s="26"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AN44" s="2"/>
-      <c r="AP44" s="2"/>
-      <c r="AQ44" s="17"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="12"/>
-      <c r="AU44" s="12"/>
-      <c r="AV44" s="12"/>
-      <c r="AW44" s="18"/>
-      <c r="AX44" s="18"/>
-      <c r="AY44" s="18"/>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
-        <v>273</v>
-      </c>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="O45" s="26"/>
@@ -7516,180 +7700,56 @@
       <c r="AD45" s="26"/>
       <c r="AE45" s="41"/>
       <c r="AF45" s="26"/>
-      <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
-      <c r="AN45" s="2"/>
-      <c r="AP45" s="2"/>
-      <c r="AQ45" s="17"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="12"/>
+      <c r="AJ45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="17"/>
+      <c r="AT45" s="2"/>
       <c r="AU45" s="12"/>
       <c r="AV45" s="12"/>
-      <c r="AW45" s="18"/>
+      <c r="AW45" s="12"/>
       <c r="AX45" s="18"/>
       <c r="AY45" s="18"/>
+      <c r="AZ45" s="18"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B46" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="41"/>
+      <c r="AF46" s="26"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="17"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="12"/>
+      <c r="AX46" s="18"/>
+      <c r="AY46" s="18"/>
+      <c r="AZ46" s="18"/>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>274</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="C46" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>211</v>
-      </c>
-      <c r="F46" t="s">
-        <v>188</v>
-      </c>
-      <c r="G46">
-        <v>1000</v>
-      </c>
-      <c r="H46">
-        <v>500</v>
-      </c>
-      <c r="I46" t="s">
-        <v>109</v>
-      </c>
-      <c r="J46" t="s">
-        <v>109</v>
-      </c>
-      <c r="K46" t="s">
-        <v>208</v>
-      </c>
-      <c r="L46" t="s">
-        <v>167</v>
-      </c>
-      <c r="M46" t="s">
-        <v>215</v>
-      </c>
-      <c r="N46" t="s">
-        <v>202</v>
-      </c>
-      <c r="O46" s="26">
-        <v>0</v>
-      </c>
-      <c r="P46" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R46">
-        <v>3</v>
-      </c>
-      <c r="S46">
-        <v>75</v>
-      </c>
-      <c r="T46">
-        <v>50</v>
-      </c>
-      <c r="U46">
-        <v>60</v>
-      </c>
-      <c r="V46" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>10</v>
-      </c>
-      <c r="Y46" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z46" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA46" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB46" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC46" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD46" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE46" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF46" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ46">
-        <v>1</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL46">
-        <v>5</v>
-      </c>
-      <c r="AM46">
-        <v>200</v>
-      </c>
-      <c r="AN46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO46">
-        <v>1</v>
-      </c>
-      <c r="AP46" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ46" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR46">
-        <v>200</v>
-      </c>
-      <c r="AS46" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT46" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU46" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV46" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW46" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX46" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY46" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>277</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -7784,67 +7844,67 @@
       <c r="AG47" t="s">
         <v>112</v>
       </c>
-      <c r="AH47" s="2" t="s">
+      <c r="AI47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI47" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ47">
-        <v>30</v>
-      </c>
-      <c r="AK47" t="s">
+      <c r="AJ47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="s">
         <v>142</v>
       </c>
-      <c r="AL47">
+      <c r="AM47">
         <v>5</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <v>200</v>
       </c>
-      <c r="AN47" s="2" t="s">
+      <c r="AO47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO47">
+      <c r="AP47">
         <v>1</v>
       </c>
-      <c r="AP47" s="2" t="s">
+      <c r="AQ47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ47" s="17">
+      <c r="AR47" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR47">
+      <c r="AS47">
         <v>200</v>
       </c>
-      <c r="AS47" s="2" t="s">
+      <c r="AT47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT47" s="12">
+      <c r="AU47" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU47" s="12">
+      <c r="AV47" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV47" s="12">
+      <c r="AW47" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW47" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY47" s="18" t="b">
+      <c r="AZ47" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C48" s="11" t="b">
         <v>0</v>
@@ -7939,67 +7999,67 @@
       <c r="AG48" t="s">
         <v>112</v>
       </c>
-      <c r="AH48" s="2" t="s">
+      <c r="AI48" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI48" s="2" t="s">
+      <c r="AJ48" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
         <v>30</v>
       </c>
-      <c r="AK48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL48">
+      <c r="AL48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM48">
         <v>5</v>
       </c>
-      <c r="AM48">
+      <c r="AN48">
         <v>200</v>
       </c>
-      <c r="AN48" s="2" t="s">
+      <c r="AO48" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO48">
+      <c r="AP48">
         <v>1</v>
       </c>
-      <c r="AP48" s="2" t="s">
+      <c r="AQ48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ48" s="17">
+      <c r="AR48" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR48">
+      <c r="AS48">
         <v>200</v>
       </c>
-      <c r="AS48" s="2" t="s">
+      <c r="AT48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT48" s="12">
+      <c r="AU48" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU48" s="12">
+      <c r="AV48" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV48" s="12">
+      <c r="AW48" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW48" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY48" s="18" t="b">
+      <c r="AZ48" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C49" s="11" t="b">
         <v>0</v>
@@ -8094,67 +8154,67 @@
       <c r="AG49" t="s">
         <v>112</v>
       </c>
-      <c r="AH49" s="2" t="s">
+      <c r="AI49" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI49" s="2" t="s">
+      <c r="AJ49" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ49">
+      <c r="AK49">
         <v>30</v>
       </c>
-      <c r="AK49" t="s">
+      <c r="AL49" t="s">
         <v>115</v>
       </c>
-      <c r="AL49">
-        <v>10</v>
-      </c>
       <c r="AM49">
+        <v>5</v>
+      </c>
+      <c r="AN49">
         <v>200</v>
       </c>
-      <c r="AN49" s="2" t="s">
+      <c r="AO49" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO49">
+      <c r="AP49">
         <v>1</v>
       </c>
-      <c r="AP49" s="2" t="s">
+      <c r="AQ49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ49" s="17">
+      <c r="AR49" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR49">
+      <c r="AS49">
         <v>200</v>
       </c>
-      <c r="AS49" s="2" t="s">
+      <c r="AT49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT49" s="12">
+      <c r="AU49" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU49" s="12">
+      <c r="AV49" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV49" s="12">
+      <c r="AW49" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW49" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY49" s="18" t="b">
+      <c r="AZ49" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
-        <v>282</v>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>349</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C50" s="11" t="b">
         <v>0</v>
@@ -8249,94 +8309,218 @@
       <c r="AG50" t="s">
         <v>112</v>
       </c>
-      <c r="AH50" s="2" t="s">
+      <c r="AI50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI50" s="2" t="s">
+      <c r="AJ50" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>30</v>
       </c>
-      <c r="AK50" t="s">
+      <c r="AL50" t="s">
         <v>115</v>
       </c>
-      <c r="AL50">
+      <c r="AM50">
+        <v>10</v>
+      </c>
+      <c r="AN50">
+        <v>200</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR50" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS50">
+        <v>200</v>
+      </c>
+      <c r="AT50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU50" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV50" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW50" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ50" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>500</v>
+      </c>
+      <c r="I51" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" t="s">
+        <v>208</v>
+      </c>
+      <c r="L51" t="s">
+        <v>167</v>
+      </c>
+      <c r="M51" t="s">
+        <v>215</v>
+      </c>
+      <c r="N51" t="s">
+        <v>202</v>
+      </c>
+      <c r="O51" s="26">
+        <v>0</v>
+      </c>
+      <c r="P51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>75</v>
+      </c>
+      <c r="T51">
+        <v>50</v>
+      </c>
+      <c r="U51">
+        <v>60</v>
+      </c>
+      <c r="V51" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>10</v>
+      </c>
+      <c r="Y51" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z51" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA51" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB51" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC51" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD51" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE51" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF51" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ51" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK51">
+        <v>30</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM51">
         <v>5</v>
       </c>
-      <c r="AM50">
+      <c r="AN51">
         <v>200</v>
       </c>
-      <c r="AN50" s="2" t="s">
+      <c r="AO51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO50">
+      <c r="AP51">
         <v>1</v>
       </c>
-      <c r="AP50" s="2" t="s">
+      <c r="AQ51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ50" s="17">
+      <c r="AR51" s="17">
         <v>1</v>
       </c>
-      <c r="AR50">
+      <c r="AS51">
         <v>200</v>
       </c>
-      <c r="AS50" s="2" t="s">
+      <c r="AT51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT50" s="12">
+      <c r="AU51" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU50" s="12">
+      <c r="AV51" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV50" s="12">
+      <c r="AW51" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW50" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX50" s="18" t="b">
+      <c r="AX51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY50" s="18" t="b">
+      <c r="AZ51" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="26"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AN51" s="2"/>
-      <c r="AP51" s="2"/>
-      <c r="AQ51" s="17"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="12"/>
-      <c r="AU51" s="12"/>
-      <c r="AV51" s="12"/>
-      <c r="AW51" s="18"/>
-      <c r="AX51" s="18"/>
-      <c r="AY51" s="18"/>
-    </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B52" s="31" t="s">
-        <v>284</v>
-      </c>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="O52" s="26"/>
@@ -8351,180 +8535,56 @@
       <c r="AD52" s="26"/>
       <c r="AE52" s="41"/>
       <c r="AF52" s="26"/>
-      <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AP52" s="2"/>
-      <c r="AQ52" s="17"/>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="12"/>
+      <c r="AJ52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="17"/>
+      <c r="AT52" s="2"/>
       <c r="AU52" s="12"/>
       <c r="AV52" s="12"/>
-      <c r="AW52" s="18"/>
+      <c r="AW52" s="12"/>
       <c r="AX52" s="18"/>
       <c r="AY52" s="18"/>
+      <c r="AZ52" s="18"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="26"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="26"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="17"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="12"/>
+      <c r="AX53" s="18"/>
+      <c r="AY53" s="18"/>
+      <c r="AZ53" s="18"/>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B54" s="19" t="s">
         <v>286</v>
-      </c>
-      <c r="C53" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G53">
-        <v>1000</v>
-      </c>
-      <c r="H53">
-        <v>500</v>
-      </c>
-      <c r="I53" t="s">
-        <v>109</v>
-      </c>
-      <c r="J53" t="s">
-        <v>109</v>
-      </c>
-      <c r="K53" t="s">
-        <v>208</v>
-      </c>
-      <c r="L53" t="s">
-        <v>167</v>
-      </c>
-      <c r="M53" t="s">
-        <v>215</v>
-      </c>
-      <c r="N53" t="s">
-        <v>202</v>
-      </c>
-      <c r="O53" s="26">
-        <v>0</v>
-      </c>
-      <c r="P53" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R53">
-        <v>3</v>
-      </c>
-      <c r="S53">
-        <v>75</v>
-      </c>
-      <c r="T53">
-        <v>50</v>
-      </c>
-      <c r="U53">
-        <v>60</v>
-      </c>
-      <c r="V53" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>10</v>
-      </c>
-      <c r="Y53" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z53" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA53" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB53" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC53" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD53" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE53" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AF53" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI53" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ53">
-        <v>30</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL53">
-        <v>5</v>
-      </c>
-      <c r="AM53">
-        <v>200</v>
-      </c>
-      <c r="AN53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO53">
-        <v>1</v>
-      </c>
-      <c r="AP53" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ53" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR53">
-        <v>200</v>
-      </c>
-      <c r="AS53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT53" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU53" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV53" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW53" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX53" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY53" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>289</v>
       </c>
       <c r="C54" s="11" t="b">
         <v>0</v>
@@ -8611,7 +8671,7 @@
         <v>156</v>
       </c>
       <c r="AE54" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AF54" s="26">
         <v>0.12</v>
@@ -8619,152 +8679,307 @@
       <c r="AG54" t="s">
         <v>112</v>
       </c>
-      <c r="AH54" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI54" s="2" t="s">
+      <c r="AJ54" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ54">
+      <c r="AK54">
         <v>30</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="AL54" t="s">
         <v>115</v>
       </c>
-      <c r="AL54">
+      <c r="AM54">
         <v>5</v>
       </c>
-      <c r="AM54">
+      <c r="AN54">
         <v>200</v>
       </c>
-      <c r="AN54" s="2" t="s">
+      <c r="AO54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO54">
+      <c r="AP54">
         <v>1</v>
       </c>
-      <c r="AP54" s="2" t="s">
+      <c r="AQ54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ54" s="17">
+      <c r="AR54" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR54">
+      <c r="AS54">
         <v>200</v>
       </c>
-      <c r="AS54" s="2" t="s">
+      <c r="AT54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT54" s="12">
+      <c r="AU54" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU54" s="12">
+      <c r="AV54" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV54" s="12">
+      <c r="AW54" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW54" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="AX54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY54" s="18" t="b">
+      <c r="AZ54" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>500</v>
+      </c>
+      <c r="I55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" t="s">
+        <v>208</v>
+      </c>
+      <c r="L55" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" t="s">
+        <v>215</v>
+      </c>
+      <c r="N55" t="s">
+        <v>202</v>
+      </c>
+      <c r="O55" s="26">
+        <v>0</v>
+      </c>
+      <c r="P55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>75</v>
+      </c>
+      <c r="T55">
+        <v>50</v>
+      </c>
+      <c r="U55">
+        <v>60</v>
+      </c>
+      <c r="V55" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Y55" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z55" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA55" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB55" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC55" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD55" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE55" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF55" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ55" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK55">
+        <v>30</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM55">
+        <v>5</v>
+      </c>
+      <c r="AN55">
+        <v>200</v>
+      </c>
+      <c r="AO55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR55" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS55">
+        <v>200</v>
+      </c>
+      <c r="AT55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU55" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV55" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW55" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY55" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ55" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="Q4:X4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="AD4:AF4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO10 AO14:AO55 AO12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ10 AJ14:AJ55 AJ12" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI10 AI14:AI55 AI12" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT10 AT14:AT55 AT12" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 P13:P54 C6:D10 C13:D54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P10 P14:P55 C6:D12 C14:D55 P12" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB54 V13:V54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB10 V6:V10 AB14:AB55 V14:V55 AB12 V12" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X10 W14:X55 W12:X12" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 Y13:AA54 AC13:AC54 AE13:AE54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA10 AC6:AC10 AE6:AE10 Y14:AA55 AC14:AC55 AE14:AE55 Y12:AA12 AC12 AE12" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AK6:AK10 AK14:AK55 AK12" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AU6:AV10 AU14:AV55 AU12:AV12" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AW6:AW10 AW14:AW55 AW12" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF10 AF14:AF55 AF12" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AM6:AM10 AM14:AM55 AM12" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM54">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN10 AN14:AN55 AN12" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO54">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP10 AP14:AP55 AP12" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD54"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY54">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD10 AD14:AD55 AD12" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AZ10 AX14:AZ55 AX12:AZ12" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ10 AQ14:AQ55 AQ12" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR10 AR14:AR55 AR12" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S10 S14:S55 S12" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J10 I14:J55 I12:J12" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8773,41 +8988,41 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000015000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L54</xm:sqref>
+          <xm:sqref>L6:L10 L14:L55 L12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M54</xm:sqref>
+          <xm:sqref>M6:M10 M14:M55 M12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F9 F13:F54</xm:sqref>
+          <xm:sqref>F6:F10 F14:F55 F12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E54</xm:sqref>
+          <xm:sqref>E6:E10 E14:E55 E12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K54</xm:sqref>
+          <xm:sqref>K6:K10 K14:K55 K12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N9 N13:N54</xm:sqref>
+          <xm:sqref>N6:N10 N14:N55 N12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8816,11 +9031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8984,11 +9199,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-1</formula1>
       <formula2>0.5</formula2>
     </dataValidation>
@@ -8998,7 +9213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9042,7 +9257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9112,7 +9327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -9516,7 +9731,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9524,7 +9739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -10075,78 +10290,78 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40" xr:uid="{00000000-0002-0000-0700-00000D000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40" xr:uid="{00000000-0002-0000-0700-00000E000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40" xr:uid="{00000000-0002-0000-0700-000011000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40" xr:uid="{00000000-0002-0000-0700-000012000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40" xr:uid="{00000000-0002-0000-0700-000013000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -10155,13 +10370,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I39:I40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000015000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
@@ -10174,7 +10389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="366">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1153,13 +1153,19 @@
     <t>NYSLRS_1</t>
   </si>
   <si>
-    <t>NYSLRS, plan policies</t>
-  </si>
-  <si>
     <t>use_AGG</t>
   </si>
   <si>
     <t>use aggregate method for funding</t>
+  </si>
+  <si>
+    <t>NYSLRS, plan policies, AGG</t>
+  </si>
+  <si>
+    <t>NYSLRS, plan policies, closed.cd20</t>
+  </si>
+  <si>
+    <t>NYSLRS_2</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1423,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,16 +1433,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2117,13 +2123,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AZ55"/>
+  <dimension ref="A1:AZ56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AJ6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AT15" sqref="AT15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,23 +2327,23 @@
       </c>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="45" t="s">
         <v>61</v>
       </c>
@@ -2364,22 +2370,22 @@
       </c>
       <c r="AB4" s="46"/>
       <c r="AC4" s="46"/>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="AI4" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
       <c r="AL4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2387,17 +2393,17 @@
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
       <c r="AP4" s="21"/>
-      <c r="AQ4" s="48" t="s">
+      <c r="AQ4" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="49" t="s">
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
       <c r="AX4" s="15"/>
       <c r="AY4" s="22"/>
       <c r="AZ4" s="20"/>
@@ -2503,7 +2509,7 @@
         <v>94</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>95</v>
@@ -3210,7 +3216,7 @@
       <c r="AZ10" s="18"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="43" t="s">
         <v>359</v>
       </c>
       <c r="C11" s="11"/>
@@ -3221,10 +3227,10 @@
         <v>360</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C12" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="11" t="b">
         <v>0</v>
@@ -3281,7 +3287,7 @@
         <v>60</v>
       </c>
       <c r="V12" s="26">
-        <v>0.02</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -3290,10 +3296,10 @@
         <v>10</v>
       </c>
       <c r="Y12" s="26">
-        <v>0.04</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Z12" s="26">
-        <v>0.04</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AA12" s="26">
         <v>0.03</v>
@@ -3302,13 +3308,13 @@
         <v>0.01</v>
       </c>
       <c r="AC12" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD12" s="26" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="AE12" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="AF12" s="26">
         <v>0.12</v>
@@ -3320,13 +3326,13 @@
         <v>1</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="s">
         <v>115</v>
@@ -3347,7 +3353,7 @@
         <v>166</v>
       </c>
       <c r="AR12" s="17">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="AS12">
         <v>200</v>
@@ -3374,198 +3380,201 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="26"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="17"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="12"/>
-      <c r="AX14" s="18"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="18"/>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13">
+        <v>600000</v>
+      </c>
+      <c r="H13">
+        <v>400000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" t="s">
+        <v>215</v>
+      </c>
+      <c r="N13" t="s">
+        <v>202</v>
+      </c>
+      <c r="O13" s="26">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>75</v>
+      </c>
+      <c r="T13">
+        <v>50</v>
+      </c>
+      <c r="U13">
+        <v>60</v>
+      </c>
+      <c r="V13" s="26">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC13" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD13" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE13" s="41">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AF13" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK13">
+        <v>20</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM13">
+        <v>5</v>
+      </c>
+      <c r="AN13">
+        <v>200</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR13" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="AS13">
+        <v>200</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU13" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV13" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AX13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>500</v>
-      </c>
-      <c r="I15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>208</v>
-      </c>
-      <c r="L15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M15" t="s">
-        <v>215</v>
-      </c>
-      <c r="N15" t="s">
-        <v>202</v>
-      </c>
-      <c r="O15" s="26">
-        <v>0</v>
-      </c>
-      <c r="P15" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
-        <v>75</v>
-      </c>
-      <c r="T15">
-        <v>50</v>
-      </c>
-      <c r="U15">
-        <v>60</v>
-      </c>
-      <c r="V15" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z15" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA15" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB15" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC15" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD15" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE15" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF15" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM15">
-        <v>5</v>
-      </c>
-      <c r="AN15">
-        <v>200</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP15">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR15" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS15">
-        <v>200</v>
-      </c>
-      <c r="AT15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU15" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV15" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW15" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX15" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B15" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="26"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="17"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>228</v>
+      <c r="A16" t="s">
+        <v>225</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C16" s="11" t="b">
         <v>0</v>
@@ -3709,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="18" t="b">
         <v>0</v>
@@ -3717,10 +3726,10 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C17" s="11" t="b">
         <v>0</v>
@@ -3822,7 +3831,7 @@
         <v>179</v>
       </c>
       <c r="AK17">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="s">
         <v>142</v>
@@ -3872,10 +3881,10 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C18" s="11" t="b">
         <v>0</v>
@@ -3974,7 +3983,7 @@
         <v>158</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK18">
         <v>15</v>
@@ -4027,10 +4036,10 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
@@ -4129,10 +4138,10 @@
         <v>158</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="AK19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="s">
         <v>142</v>
@@ -4182,10 +4191,10 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C20" s="11" t="b">
         <v>0</v>
@@ -4284,7 +4293,7 @@
         <v>158</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK20">
         <v>30</v>
@@ -4336,11 +4345,11 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>238</v>
+      <c r="A21" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C21" s="11" t="b">
         <v>0</v>
@@ -4436,13 +4445,13 @@
         <v>112</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="AK21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="s">
         <v>142</v>
@@ -4491,11 +4500,11 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>240</v>
+      <c r="A22" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C22" s="11" t="b">
         <v>0</v>
@@ -4597,7 +4606,7 @@
         <v>179</v>
       </c>
       <c r="AK22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL22" t="s">
         <v>142</v>
@@ -4647,10 +4656,10 @@
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
@@ -4749,7 +4758,7 @@
         <v>347</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK23">
         <v>15</v>
@@ -4802,10 +4811,10 @@
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C24" s="11" t="b">
         <v>0</v>
@@ -4904,10 +4913,10 @@
         <v>347</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="AK24">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="s">
         <v>142</v>
@@ -4956,11 +4965,11 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>246</v>
+      <c r="A25" t="s">
+        <v>244</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="11" t="b">
         <v>0</v>
@@ -5059,7 +5068,7 @@
         <v>347</v>
       </c>
       <c r="AJ25" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK25">
         <v>30</v>
@@ -5111,195 +5120,195 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="26"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="17"/>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="18"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="18"/>
+      <c r="A26" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>500</v>
+      </c>
+      <c r="I26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" t="s">
+        <v>215</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" s="26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>75</v>
+      </c>
+      <c r="T26">
+        <v>50</v>
+      </c>
+      <c r="U26">
+        <v>60</v>
+      </c>
+      <c r="V26" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z26" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA26" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB26" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC26" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD26" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE26" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF26" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK26">
+        <v>30</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM26">
+        <v>5</v>
+      </c>
+      <c r="AN26">
+        <v>200</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR26" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS26">
+        <v>200</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU26" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV26" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW26" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX26" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
-        <v>500</v>
-      </c>
-      <c r="I27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27" t="s">
-        <v>208</v>
-      </c>
-      <c r="L27" t="s">
-        <v>167</v>
-      </c>
-      <c r="M27" t="s">
-        <v>215</v>
-      </c>
-      <c r="N27" t="s">
-        <v>202</v>
-      </c>
-      <c r="O27" s="26">
-        <v>0</v>
-      </c>
-      <c r="P27" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R27">
-        <v>3</v>
-      </c>
-      <c r="S27">
-        <v>75</v>
-      </c>
-      <c r="T27">
-        <v>50</v>
-      </c>
-      <c r="U27">
-        <v>60</v>
-      </c>
-      <c r="V27" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>10</v>
-      </c>
-      <c r="Y27" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z27" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA27" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB27" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC27" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD27" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE27" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF27" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK27">
-        <v>1</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM27">
-        <v>5</v>
-      </c>
-      <c r="AN27">
-        <v>200</v>
-      </c>
-      <c r="AO27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR27" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS27">
-        <v>200</v>
-      </c>
-      <c r="AT27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU27" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV27" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW27" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX27" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ27" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="26"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="17"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
@@ -5407,7 +5416,7 @@
         <v>115</v>
       </c>
       <c r="AM28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN28">
         <v>200</v>
@@ -5450,11 +5459,11 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>252</v>
+      <c r="A29" t="s">
+        <v>250</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="11" t="b">
         <v>0</v>
@@ -5553,16 +5562,16 @@
         <v>158</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK29">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AL29" t="s">
         <v>115</v>
       </c>
       <c r="AM29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN29">
         <v>200</v>
@@ -5605,11 +5614,11 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>254</v>
+      <c r="A30" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C30" s="11" t="b">
         <v>0</v>
@@ -5717,7 +5726,7 @@
         <v>115</v>
       </c>
       <c r="AM30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN30">
         <v>200</v>
@@ -5760,11 +5769,11 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>256</v>
+      <c r="A31" t="s">
+        <v>254</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -5860,7 +5869,7 @@
         <v>112</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>348</v>
@@ -5872,7 +5881,7 @@
         <v>115</v>
       </c>
       <c r="AM31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN31">
         <v>200</v>
@@ -5916,10 +5925,10 @@
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>0</v>
@@ -6027,7 +6036,7 @@
         <v>115</v>
       </c>
       <c r="AM32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN32">
         <v>200</v>
@@ -6070,11 +6079,11 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>258</v>
+      <c r="A33" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>259</v>
+        <v>351</v>
       </c>
       <c r="C33" s="11" t="b">
         <v>0</v>
@@ -6170,7 +6179,7 @@
         <v>112</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>348</v>
@@ -6182,7 +6191,7 @@
         <v>115</v>
       </c>
       <c r="AM33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN33">
         <v>200</v>
@@ -6197,7 +6206,7 @@
         <v>166</v>
       </c>
       <c r="AR33" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS33">
         <v>200</v>
@@ -6225,195 +6234,194 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="26"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="17"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="12"/>
-      <c r="AV34" s="12"/>
-      <c r="AW34" s="12"/>
-      <c r="AX34" s="18"/>
-      <c r="AY34" s="18"/>
-      <c r="AZ34" s="18"/>
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>500</v>
+      </c>
+      <c r="I34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L34" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" t="s">
+        <v>215</v>
+      </c>
+      <c r="N34" t="s">
+        <v>202</v>
+      </c>
+      <c r="O34" s="26">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>75</v>
+      </c>
+      <c r="T34">
+        <v>50</v>
+      </c>
+      <c r="U34">
+        <v>60</v>
+      </c>
+      <c r="V34" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z34" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA34" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB34" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC34" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD34" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE34" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF34" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK34">
+        <v>30</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM34">
+        <v>5</v>
+      </c>
+      <c r="AN34">
+        <v>200</v>
+      </c>
+      <c r="AO34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR34" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>200</v>
+      </c>
+      <c r="AT34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU34" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV34" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW34" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C35" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35">
-        <v>500</v>
-      </c>
-      <c r="I35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K35" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" t="s">
-        <v>167</v>
-      </c>
-      <c r="M35" t="s">
-        <v>215</v>
-      </c>
-      <c r="N35" t="s">
-        <v>202</v>
-      </c>
-      <c r="O35" s="26">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R35">
-        <v>3</v>
-      </c>
-      <c r="S35">
-        <v>75</v>
-      </c>
-      <c r="T35">
-        <v>50</v>
-      </c>
-      <c r="U35">
-        <v>60</v>
-      </c>
-      <c r="V35" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z35" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA35" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB35" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC35" s="26">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AD35" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE35" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF35" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ35" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK35">
-        <v>15</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM35">
-        <v>5</v>
-      </c>
-      <c r="AN35">
-        <v>200</v>
-      </c>
-      <c r="AO35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR35" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS35" s="25">
-        <f>225068282*0.75</f>
-        <v>168801211.5</v>
-      </c>
-      <c r="AT35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU35" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV35" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW35" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX35" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ35" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="26"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="17"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="18"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>262</v>
+      <c r="A36" s="36" t="s">
+        <v>260</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C36" s="11" t="b">
         <v>0</v>
@@ -6500,7 +6508,7 @@
         <v>156</v>
       </c>
       <c r="AE36" s="41">
-        <v>7.1199999999999999E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF36" s="26">
         <v>0.12</v>
@@ -6539,7 +6547,7 @@
         <v>0.75</v>
       </c>
       <c r="AS36" s="25">
-        <f t="shared" ref="AS36:AS40" si="0">225068282*0.75</f>
+        <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
       <c r="AT36" s="2" t="s">
@@ -6566,7 +6574,7 @@
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>262</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>263</v>
@@ -6656,7 +6664,7 @@
         <v>156</v>
       </c>
       <c r="AE37" s="41">
-        <v>6.4000000000000001E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="AF37" s="26">
         <v>0.12</v>
@@ -6695,7 +6703,7 @@
         <v>0.75</v>
       </c>
       <c r="AS37" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AS37:AS41" si="0">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
       <c r="AT37" s="2" t="s">
@@ -6721,11 +6729,11 @@
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>266</v>
+      <c r="A38" t="s">
+        <v>357</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C38" s="11" t="b">
         <v>0</v>
@@ -6806,13 +6814,13 @@
         <v>0.01</v>
       </c>
       <c r="AC38" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD38" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE38" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AF38" s="26">
         <v>0.12</v>
@@ -6877,11 +6885,11 @@
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>269</v>
+      <c r="A39" s="37" t="s">
+        <v>266</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
@@ -6968,7 +6976,7 @@
         <v>156</v>
       </c>
       <c r="AE39" s="41">
-        <v>6.6199999999999995E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF39" s="26">
         <v>0.12</v>
@@ -7034,10 +7042,10 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="C40" s="11" t="b">
         <v>0</v>
@@ -7124,7 +7132,7 @@
         <v>156</v>
       </c>
       <c r="AE40" s="41">
-        <v>5.8999999999999997E-2</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="AF40" s="26">
         <v>0.12</v>
@@ -7189,196 +7197,197 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="26"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="17"/>
-      <c r="AS41" s="25"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="12"/>
-      <c r="AV41" s="12"/>
-      <c r="AW41" s="12"/>
-      <c r="AX41" s="18"/>
-      <c r="AY41" s="18"/>
-      <c r="AZ41" s="18"/>
+      <c r="A41" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C41" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>500</v>
+      </c>
+      <c r="I41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" t="s">
+        <v>167</v>
+      </c>
+      <c r="M41" t="s">
+        <v>215</v>
+      </c>
+      <c r="N41" t="s">
+        <v>202</v>
+      </c>
+      <c r="O41" s="26">
+        <v>0</v>
+      </c>
+      <c r="P41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>75</v>
+      </c>
+      <c r="T41">
+        <v>50</v>
+      </c>
+      <c r="U41">
+        <v>60</v>
+      </c>
+      <c r="V41" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA41" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB41" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC41" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AD41" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE41" s="41">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AF41" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ41" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK41">
+        <v>15</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM41">
+        <v>5</v>
+      </c>
+      <c r="AN41">
+        <v>200</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR41" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS41" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AT41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU41" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV41" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW41" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>354</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C42" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>211</v>
-      </c>
-      <c r="F42" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42">
-        <v>1000</v>
-      </c>
-      <c r="H42">
-        <v>500</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K42" t="s">
-        <v>208</v>
-      </c>
-      <c r="L42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M42" t="s">
-        <v>215</v>
-      </c>
-      <c r="N42" t="s">
-        <v>202</v>
-      </c>
-      <c r="O42" s="26">
-        <v>0</v>
-      </c>
-      <c r="P42" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R42">
-        <v>3</v>
-      </c>
-      <c r="S42">
-        <v>75</v>
-      </c>
-      <c r="T42">
-        <v>50</v>
-      </c>
-      <c r="U42">
-        <v>60</v>
-      </c>
-      <c r="V42" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>10</v>
-      </c>
-      <c r="Y42" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z42" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA42" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB42" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC42" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD42" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE42" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF42" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ42" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK42">
-        <v>30</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM42">
-        <v>5</v>
-      </c>
-      <c r="AN42">
-        <v>200</v>
-      </c>
-      <c r="AO42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR42" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS42">
-        <v>200</v>
-      </c>
-      <c r="AT42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU42" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="AV42" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW42" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX42" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY42" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ42" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="26"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="25"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="18"/>
+      <c r="AY42" s="18"/>
+      <c r="AZ42" s="18"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>352</v>
+      <c r="A43" t="s">
+        <v>354</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
@@ -7459,7 +7468,7 @@
         <v>0.01</v>
       </c>
       <c r="AC43" s="26">
-        <v>6.4000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD43" s="26" t="s">
         <v>156</v>
@@ -7480,7 +7489,7 @@
         <v>348</v>
       </c>
       <c r="AK43">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AL43" t="s">
         <v>115</v>
@@ -7498,171 +7507,170 @@
         <v>1</v>
       </c>
       <c r="AQ43" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AR43" s="17">
         <v>0.75</v>
       </c>
-      <c r="AS43" s="25">
+      <c r="AS43">
+        <v>200</v>
+      </c>
+      <c r="AT43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU43" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AV43" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW43" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>500</v>
+      </c>
+      <c r="I44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" t="s">
+        <v>208</v>
+      </c>
+      <c r="L44" t="s">
+        <v>167</v>
+      </c>
+      <c r="M44" t="s">
+        <v>215</v>
+      </c>
+      <c r="N44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O44" s="26">
+        <v>0</v>
+      </c>
+      <c r="P44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>75</v>
+      </c>
+      <c r="T44">
+        <v>50</v>
+      </c>
+      <c r="U44">
+        <v>60</v>
+      </c>
+      <c r="V44" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA44" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB44" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC44" s="26">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AD44" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE44" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF44" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ44" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK44">
+        <v>15</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM44">
+        <v>5</v>
+      </c>
+      <c r="AN44">
+        <v>200</v>
+      </c>
+      <c r="AO44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR44" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS44" s="25">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AT43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU43" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="AV43" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW43" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX43" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ43" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C44" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>211</v>
-      </c>
-      <c r="F44" t="s">
-        <v>188</v>
-      </c>
-      <c r="G44">
-        <v>1000</v>
-      </c>
-      <c r="H44">
-        <v>500</v>
-      </c>
-      <c r="I44" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" t="s">
-        <v>109</v>
-      </c>
-      <c r="K44" t="s">
-        <v>208</v>
-      </c>
-      <c r="L44" t="s">
-        <v>167</v>
-      </c>
-      <c r="M44" t="s">
-        <v>215</v>
-      </c>
-      <c r="N44" t="s">
-        <v>202</v>
-      </c>
-      <c r="O44" s="26">
-        <v>0</v>
-      </c>
-      <c r="P44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R44">
-        <v>3</v>
-      </c>
-      <c r="S44">
-        <v>75</v>
-      </c>
-      <c r="T44">
-        <v>50</v>
-      </c>
-      <c r="U44">
-        <v>60</v>
-      </c>
-      <c r="V44" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>10</v>
-      </c>
-      <c r="Y44" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z44" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA44" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB44" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC44" s="26">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="AD44" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE44" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF44" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ44" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK44">
-        <v>15</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM44">
-        <v>5</v>
-      </c>
-      <c r="AN44">
-        <v>200</v>
-      </c>
-      <c r="AO44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR44" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS44" s="25">
-        <f t="shared" ref="AS44" si="1">225068282*0.75</f>
-        <v>168801211.5</v>
-      </c>
       <c r="AT44" s="2" t="s">
         <v>134</v>
       </c>
@@ -7686,37 +7694,162 @@
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="26"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AQ45" s="2"/>
-      <c r="AR45" s="17"/>
-      <c r="AT45" s="2"/>
-      <c r="AU45" s="12"/>
-      <c r="AV45" s="12"/>
-      <c r="AW45" s="12"/>
-      <c r="AX45" s="18"/>
-      <c r="AY45" s="18"/>
-      <c r="AZ45" s="18"/>
+      <c r="A45" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>500</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>208</v>
+      </c>
+      <c r="L45" t="s">
+        <v>167</v>
+      </c>
+      <c r="M45" t="s">
+        <v>215</v>
+      </c>
+      <c r="N45" t="s">
+        <v>202</v>
+      </c>
+      <c r="O45" s="26">
+        <v>0</v>
+      </c>
+      <c r="P45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>75</v>
+      </c>
+      <c r="T45">
+        <v>50</v>
+      </c>
+      <c r="U45">
+        <v>60</v>
+      </c>
+      <c r="V45" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA45" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB45" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC45" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AD45" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE45" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF45" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK45">
+        <v>15</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM45">
+        <v>5</v>
+      </c>
+      <c r="AN45">
+        <v>200</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR45" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS45" s="25">
+        <f t="shared" ref="AS45" si="1">225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AT45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU45" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AV45" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW45" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B46" s="39" t="s">
-        <v>273</v>
-      </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="O46" s="26"/>
@@ -7745,166 +7878,42 @@
       <c r="AZ46" s="18"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>211</v>
-      </c>
-      <c r="F47" t="s">
-        <v>188</v>
-      </c>
-      <c r="G47">
-        <v>1000</v>
-      </c>
-      <c r="H47">
-        <v>500</v>
-      </c>
-      <c r="I47" t="s">
-        <v>109</v>
-      </c>
-      <c r="J47" t="s">
-        <v>109</v>
-      </c>
-      <c r="K47" t="s">
-        <v>208</v>
-      </c>
-      <c r="L47" t="s">
-        <v>167</v>
-      </c>
-      <c r="M47" t="s">
-        <v>215</v>
-      </c>
-      <c r="N47" t="s">
-        <v>202</v>
-      </c>
-      <c r="O47" s="26">
-        <v>0</v>
-      </c>
-      <c r="P47" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R47">
-        <v>3</v>
-      </c>
-      <c r="S47">
-        <v>75</v>
-      </c>
-      <c r="T47">
-        <v>50</v>
-      </c>
-      <c r="U47">
-        <v>60</v>
-      </c>
-      <c r="V47" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>10</v>
-      </c>
-      <c r="Y47" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z47" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA47" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB47" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC47" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD47" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE47" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF47" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK47">
-        <v>1</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM47">
-        <v>5</v>
-      </c>
-      <c r="AN47">
-        <v>200</v>
-      </c>
-      <c r="AO47" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR47" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS47">
-        <v>200</v>
-      </c>
-      <c r="AT47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU47" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV47" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW47" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX47" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY47" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ47" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B47" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="26"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="17"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="18"/>
+      <c r="AY47" s="18"/>
+      <c r="AZ47" s="18"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
-        <v>276</v>
+      <c r="A48" t="s">
+        <v>274</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C48" s="11" t="b">
         <v>0</v>
@@ -8003,10 +8012,10 @@
         <v>158</v>
       </c>
       <c r="AJ48" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK48">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AL48" t="s">
         <v>142</v>
@@ -8056,10 +8065,10 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C49" s="11" t="b">
         <v>0</v>
@@ -8164,7 +8173,7 @@
         <v>30</v>
       </c>
       <c r="AL49" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AM49">
         <v>5</v>
@@ -8211,10 +8220,10 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C50" s="11" t="b">
         <v>0</v>
@@ -8322,7 +8331,7 @@
         <v>115</v>
       </c>
       <c r="AM50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN50">
         <v>200</v>
@@ -8365,11 +8374,11 @@
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
-        <v>282</v>
+      <c r="A51" s="34" t="s">
+        <v>349</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
@@ -8477,7 +8486,7 @@
         <v>115</v>
       </c>
       <c r="AM51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN51">
         <v>200</v>
@@ -8492,7 +8501,7 @@
         <v>166</v>
       </c>
       <c r="AR51" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS51">
         <v>200</v>
@@ -8520,38 +8529,162 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="26"/>
-      <c r="AE52" s="41"/>
-      <c r="AF52" s="26"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="17"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="12"/>
-      <c r="AV52" s="12"/>
-      <c r="AW52" s="12"/>
-      <c r="AX52" s="18"/>
-      <c r="AY52" s="18"/>
-      <c r="AZ52" s="18"/>
+      <c r="A52" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>500</v>
+      </c>
+      <c r="I52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" t="s">
+        <v>208</v>
+      </c>
+      <c r="L52" t="s">
+        <v>167</v>
+      </c>
+      <c r="M52" t="s">
+        <v>215</v>
+      </c>
+      <c r="N52" t="s">
+        <v>202</v>
+      </c>
+      <c r="O52" s="26">
+        <v>0</v>
+      </c>
+      <c r="P52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R52">
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <v>75</v>
+      </c>
+      <c r="T52">
+        <v>50</v>
+      </c>
+      <c r="U52">
+        <v>60</v>
+      </c>
+      <c r="V52" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Y52" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z52" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA52" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB52" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC52" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD52" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE52" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF52" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ52" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK52">
+        <v>30</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM52">
+        <v>5</v>
+      </c>
+      <c r="AN52">
+        <v>200</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR52" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS52">
+        <v>200</v>
+      </c>
+      <c r="AT52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU52" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV52" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW52" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ52" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B53" s="31" t="s">
-        <v>284</v>
-      </c>
+      <c r="A53" s="40"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="O53" s="26"/>
@@ -8580,166 +8713,42 @@
       <c r="AZ53" s="18"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C54" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>211</v>
-      </c>
-      <c r="F54" t="s">
-        <v>188</v>
-      </c>
-      <c r="G54">
-        <v>1000</v>
-      </c>
-      <c r="H54">
-        <v>500</v>
-      </c>
-      <c r="I54" t="s">
-        <v>109</v>
-      </c>
-      <c r="J54" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54" t="s">
-        <v>208</v>
-      </c>
-      <c r="L54" t="s">
-        <v>167</v>
-      </c>
-      <c r="M54" t="s">
-        <v>215</v>
-      </c>
-      <c r="N54" t="s">
-        <v>202</v>
-      </c>
-      <c r="O54" s="26">
-        <v>0</v>
-      </c>
-      <c r="P54" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R54">
-        <v>3</v>
-      </c>
-      <c r="S54">
-        <v>75</v>
-      </c>
-      <c r="T54">
-        <v>50</v>
-      </c>
-      <c r="U54">
-        <v>60</v>
-      </c>
-      <c r="V54" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>10</v>
-      </c>
-      <c r="Y54" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z54" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA54" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB54" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC54" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD54" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE54" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AF54" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI54" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ54" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK54">
-        <v>30</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM54">
-        <v>5</v>
-      </c>
-      <c r="AN54">
-        <v>200</v>
-      </c>
-      <c r="AO54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR54" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS54">
-        <v>200</v>
-      </c>
-      <c r="AT54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU54" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV54" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW54" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX54" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY54" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ54" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B54" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="26"/>
+      <c r="V54" s="26"/>
+      <c r="Y54" s="26"/>
+      <c r="Z54" s="26"/>
+      <c r="AA54" s="26"/>
+      <c r="AB54" s="26"/>
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="26"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="26"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="17"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="12"/>
+      <c r="AX54" s="18"/>
+      <c r="AY54" s="18"/>
+      <c r="AZ54" s="18"/>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>0</v>
@@ -8826,7 +8835,7 @@
         <v>156</v>
       </c>
       <c r="AE55" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AF55" s="26">
         <v>0.12</v>
@@ -8886,100 +8895,255 @@
         <v>1</v>
       </c>
       <c r="AZ55" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>500</v>
+      </c>
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56" t="s">
+        <v>208</v>
+      </c>
+      <c r="L56" t="s">
+        <v>167</v>
+      </c>
+      <c r="M56" t="s">
+        <v>215</v>
+      </c>
+      <c r="N56" t="s">
+        <v>202</v>
+      </c>
+      <c r="O56" s="26">
+        <v>0</v>
+      </c>
+      <c r="P56" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>75</v>
+      </c>
+      <c r="T56">
+        <v>50</v>
+      </c>
+      <c r="U56">
+        <v>60</v>
+      </c>
+      <c r="V56" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Y56" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z56" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA56" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB56" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC56" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD56" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE56" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF56" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ56" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK56">
+        <v>30</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM56">
+        <v>5</v>
+      </c>
+      <c r="AN56">
+        <v>200</v>
+      </c>
+      <c r="AO56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR56" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS56">
+        <v>200</v>
+      </c>
+      <c r="AT56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU56" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV56" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW56" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX56" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AQ4:AS4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO10 AO14:AO55 AO12" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO10 AO15:AO56 AO12:AO13" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ10 AJ14:AJ55 AJ12" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ10 AJ15:AJ56 AJ12:AJ13" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI10 AI14:AI55 AI12" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI10 AI15:AI56 AI12:AI13" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT10 AT14:AT55 AT12" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT10 AT15:AT56 AT12:AT13" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P10 P14:P55 C6:D12 C14:D55 P12" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P10 P15:P56 C15:D56 C6:D13 P12:P13" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB10 V6:V10 AB14:AB55 V14:V55 AB12 V12" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB10 V6:V10 AB15:AB56 V15:V56 AB12:AB13 V12:V13" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X10 W14:X55 W12:X12" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X10 W15:X56 W12:X13" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA10 AC6:AC10 AE6:AE10 Y14:AA55 AC14:AC55 AE14:AE55 Y12:AA12 AC12 AE12" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA10 AC6:AC10 AE6:AE10 Y15:AA56 AC15:AC56 AE15:AE56 AC12:AC13 Y12:AA13 AE12:AE13" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AK6:AK10 AK14:AK55 AK12" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AK6:AK10 AK15:AK56 AK12:AK13" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AU6:AV10 AU14:AV55 AU12:AV12" xr:uid="{00000000-0002-0000-0200-000009000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AU6:AV10 AU15:AV56 AU12:AV13" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AW6:AW10 AW14:AW55 AW12" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AW6:AW10 AW15:AW56 AW12:AW13" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF10 AF14:AF55 AF12" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF10 AF15:AF56 AF12:AF13" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AM6:AM10 AM14:AM55 AM12" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AM6:AM10 AM15:AM56 AM12:AM13" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN10 AN14:AN55 AN12" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN10 AN15:AN56 AN12:AN13" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP10 AP14:AP55 AP12" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP10 AP15:AP56 AP12:AP13" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD10 AD14:AD55 AD12" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AZ10 AX14:AZ55 AX12:AZ12" xr:uid="{00000000-0002-0000-0200-000010000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD10 AD15:AD56 AD12:AD13" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AZ10 AX15:AZ56 AX12:AZ13" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ10 AQ14:AQ55 AQ12" xr:uid="{00000000-0002-0000-0200-000011000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ10 AQ15:AQ56 AQ12:AQ13" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR10 AR14:AR55 AR12" xr:uid="{00000000-0002-0000-0200-000012000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR10 AR15:AR56 AR12:AR13" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S10 S14:S55 S12" xr:uid="{00000000-0002-0000-0200-000013000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S10 S15:S56 S12:S13" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J10 I14:J55 I12:J12" xr:uid="{00000000-0002-0000-0200-000014000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J10 I15:J56 I12:J13" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8992,37 +9156,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L10 L14:L55 L12</xm:sqref>
+          <xm:sqref>L6:L10 L15:L56 L12:L13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M10 M14:M55 M12</xm:sqref>
+          <xm:sqref>M6:M10 M15:M56 M12:M13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F10 F14:F55 F12</xm:sqref>
+          <xm:sqref>F6:F10 F15:F56 F12:F13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E10 E14:E55 E12</xm:sqref>
+          <xm:sqref>E6:E10 E15:E56 E12:E13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K10 K14:K55 K12</xm:sqref>
+          <xm:sqref>K6:K10 K15:K56 K12:K13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N10 N14:N55 N12</xm:sqref>
+          <xm:sqref>N6:N10 N15:N56 N12:N13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9032,10 +9196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9197,13 +9361,69 @@
         <v>59</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="26">
+        <v>0.115</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="26">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.115</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="26">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="D17">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C17" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B17" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-1</formula1>
       <formula2>0.5</formula2>
     </dataValidation>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="368">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1166,6 +1166,12 @@
   </si>
   <si>
     <t>NYSLRS_2</t>
+  </si>
+  <si>
+    <t>NYSLRS_1_lowReturn</t>
+  </si>
+  <si>
+    <t>NYSLRS_2_lowReturn</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1430,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,16 +1442,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2123,13 +2129,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AZ56"/>
+  <dimension ref="A1:AZ58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,65 +2333,65 @@
       </c>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="45" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="45" t="s">
+      <c r="P4" s="47"/>
+      <c r="Q4" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="44" t="s">
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="AI4" s="47" t="s">
+      <c r="AI4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
       <c r="AL4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2393,17 +2399,17 @@
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
       <c r="AP4" s="21"/>
-      <c r="AQ4" s="44" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="48" t="s">
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
       <c r="AX4" s="15"/>
       <c r="AY4" s="22"/>
       <c r="AZ4" s="20"/>
@@ -3230,7 +3236,7 @@
         <v>363</v>
       </c>
       <c r="C12" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11" t="b">
         <v>0</v>
@@ -3353,7 +3359,7 @@
         <v>166</v>
       </c>
       <c r="AR12" s="17">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AS12">
         <v>200</v>
@@ -3388,7 +3394,7 @@
         <v>364</v>
       </c>
       <c r="C13" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="11" t="b">
         <v>0</v>
@@ -3511,7 +3517,7 @@
         <v>166</v>
       </c>
       <c r="AR13" s="17">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AS13">
         <v>200</v>
@@ -3538,353 +3544,359 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14">
+        <v>600000</v>
+      </c>
+      <c r="H14">
+        <v>400000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s">
+        <v>215</v>
+      </c>
+      <c r="N14" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" s="26">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>75</v>
+      </c>
+      <c r="T14">
+        <v>50</v>
+      </c>
+      <c r="U14">
+        <v>60</v>
+      </c>
+      <c r="V14" s="26">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC14" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD14" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE14" s="41">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AF14" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK14">
+        <v>20</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM14">
+        <v>5</v>
+      </c>
+      <c r="AN14">
+        <v>200</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR14" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="AS14">
+        <v>200</v>
+      </c>
+      <c r="AT14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU14" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV14" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW14" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AX14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="26"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="17"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
-      <c r="AX15" s="18"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="18"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="A15" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>211</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F15" t="s">
         <v>188</v>
       </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
-        <v>500</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="G15">
+        <v>600000</v>
+      </c>
+      <c r="H15">
+        <v>400000</v>
+      </c>
+      <c r="I15" t="s">
         <v>109</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J15" t="s">
         <v>109</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K15" t="s">
         <v>208</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L15" t="s">
         <v>167</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M15" t="s">
         <v>215</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N15" t="s">
         <v>202</v>
       </c>
-      <c r="O16" s="26">
-        <v>0</v>
-      </c>
-      <c r="P16" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="26">
+      <c r="O15" s="26">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R16">
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="S16">
+      <c r="S15">
         <v>75</v>
       </c>
-      <c r="T16">
+      <c r="T15">
         <v>50</v>
       </c>
-      <c r="U16">
+      <c r="U15">
         <v>60</v>
       </c>
-      <c r="V16" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="V15" s="26">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>10</v>
       </c>
-      <c r="Y16" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z16" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA16" s="26">
+      <c r="Y15" s="26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AA15" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB16" s="26">
+      <c r="AB15" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC16" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD16" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE16" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF16" s="26">
+      <c r="AC15" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD15" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE15" s="41">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AF15" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG15" t="s">
         <v>112</v>
       </c>
-      <c r="AI16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AK16">
+      <c r="AK15">
+        <v>20</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM15">
+        <v>5</v>
+      </c>
+      <c r="AN15">
+        <v>200</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP15">
         <v>1</v>
       </c>
-      <c r="AL16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM16">
-        <v>5</v>
-      </c>
-      <c r="AN16">
+      <c r="AQ15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR15" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="AS15">
         <v>200</v>
       </c>
-      <c r="AO16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP16">
+      <c r="AT15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU15" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV15" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW15" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AX15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AQ16" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR16" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS16">
-        <v>200</v>
-      </c>
-      <c r="AT16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU16" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV16" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW16" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX16" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="18" t="b">
+      <c r="AZ15" s="18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
-        <v>500</v>
-      </c>
-      <c r="I17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" t="s">
-        <v>167</v>
-      </c>
-      <c r="M17" t="s">
-        <v>215</v>
-      </c>
-      <c r="N17" t="s">
-        <v>202</v>
-      </c>
-      <c r="O17" s="26">
-        <v>0</v>
-      </c>
-      <c r="P17" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>75</v>
-      </c>
-      <c r="T17">
-        <v>50</v>
-      </c>
-      <c r="U17">
-        <v>60</v>
-      </c>
-      <c r="V17" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z17" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA17" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB17" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC17" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD17" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE17" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF17" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM17">
-        <v>5</v>
-      </c>
-      <c r="AN17">
-        <v>200</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP17">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR17" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS17">
-        <v>200</v>
-      </c>
-      <c r="AT17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV17" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW17" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX17" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B17" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="26"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="17"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>230</v>
+      <c r="A18" t="s">
+        <v>225</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C18" s="11" t="b">
         <v>0</v>
@@ -3986,7 +3998,7 @@
         <v>179</v>
       </c>
       <c r="AK18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AL18" t="s">
         <v>142</v>
@@ -4028,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="18" t="b">
         <v>0</v>
@@ -4036,10 +4048,10 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
@@ -4138,10 +4150,10 @@
         <v>158</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="s">
         <v>142</v>
@@ -4191,10 +4203,10 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C20" s="11" t="b">
         <v>0</v>
@@ -4296,7 +4308,7 @@
         <v>179</v>
       </c>
       <c r="AK20">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="s">
         <v>142</v>
@@ -4346,10 +4358,10 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C21" s="11" t="b">
         <v>0</v>
@@ -4451,7 +4463,7 @@
         <v>348</v>
       </c>
       <c r="AK21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="s">
         <v>142</v>
@@ -4500,11 +4512,11 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>238</v>
+      <c r="A22" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C22" s="11" t="b">
         <v>0</v>
@@ -4600,13 +4612,13 @@
         <v>112</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AJ22" s="2" t="s">
         <v>179</v>
       </c>
       <c r="AK22">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AL22" t="s">
         <v>142</v>
@@ -4655,11 +4667,11 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>240</v>
+      <c r="A23" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
@@ -4755,13 +4767,13 @@
         <v>112</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="AK23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AL23" t="s">
         <v>142</v>
@@ -4810,11 +4822,11 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>242</v>
+      <c r="A24" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C24" s="11" t="b">
         <v>0</v>
@@ -4913,10 +4925,10 @@
         <v>347</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="s">
         <v>142</v>
@@ -4966,10 +4978,10 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C25" s="11" t="b">
         <v>0</v>
@@ -5071,7 +5083,7 @@
         <v>179</v>
       </c>
       <c r="AK25">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="s">
         <v>142</v>
@@ -5120,11 +5132,11 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>246</v>
+      <c r="A26" t="s">
+        <v>242</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C26" s="11" t="b">
         <v>0</v>
@@ -5226,7 +5238,7 @@
         <v>348</v>
       </c>
       <c r="AK26">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="s">
         <v>142</v>
@@ -5275,40 +5287,166 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="26"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="17"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="18"/>
-      <c r="AY27" s="18"/>
-      <c r="AZ27" s="18"/>
+      <c r="A27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>500</v>
+      </c>
+      <c r="I27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" t="s">
+        <v>215</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" s="26">
+        <v>0</v>
+      </c>
+      <c r="P27" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>75</v>
+      </c>
+      <c r="T27">
+        <v>50</v>
+      </c>
+      <c r="U27">
+        <v>60</v>
+      </c>
+      <c r="V27" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z27" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA27" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB27" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC27" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD27" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE27" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF27" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK27">
+        <v>30</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM27">
+        <v>5</v>
+      </c>
+      <c r="AN27">
+        <v>200</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR27" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS27">
+        <v>200</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU27" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV27" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW27" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX27" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>248</v>
+      <c r="A28" s="34" t="s">
+        <v>246</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
@@ -5404,16 +5542,16 @@
         <v>112</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="AK28">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AM28">
         <v>5</v>
@@ -5459,166 +5597,40 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29">
-        <v>500</v>
-      </c>
-      <c r="I29" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K29" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" t="s">
-        <v>167</v>
-      </c>
-      <c r="M29" t="s">
-        <v>215</v>
-      </c>
-      <c r="N29" t="s">
-        <v>202</v>
-      </c>
-      <c r="O29" s="26">
-        <v>0</v>
-      </c>
-      <c r="P29" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R29">
-        <v>3</v>
-      </c>
-      <c r="S29">
-        <v>75</v>
-      </c>
-      <c r="T29">
-        <v>50</v>
-      </c>
-      <c r="U29">
-        <v>60</v>
-      </c>
-      <c r="V29" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z29" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA29" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB29" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC29" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD29" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE29" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF29" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM29">
-        <v>10</v>
-      </c>
-      <c r="AN29">
-        <v>200</v>
-      </c>
-      <c r="AO29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR29" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS29">
-        <v>200</v>
-      </c>
-      <c r="AT29" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU29" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV29" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW29" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX29" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ29" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="26"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="17"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>252</v>
+      <c r="A30" t="s">
+        <v>248</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C30" s="11" t="b">
         <v>0</v>
@@ -5717,10 +5729,10 @@
         <v>158</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK30">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="s">
         <v>115</v>
@@ -5770,10 +5782,10 @@
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -5872,10 +5884,10 @@
         <v>158</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK31">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="s">
         <v>115</v>
@@ -5924,11 +5936,11 @@
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>256</v>
+      <c r="A32" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>0</v>
@@ -6024,7 +6036,7 @@
         <v>112</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>348</v>
@@ -6079,11 +6091,11 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>350</v>
+      <c r="A33" t="s">
+        <v>254</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
       <c r="C33" s="11" t="b">
         <v>0</v>
@@ -6179,7 +6191,7 @@
         <v>112</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>348</v>
@@ -6234,11 +6246,11 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>258</v>
+      <c r="A34" s="34" t="s">
+        <v>256</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C34" s="11" t="b">
         <v>0</v>
@@ -6334,7 +6346,7 @@
         <v>112</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>348</v>
@@ -6361,7 +6373,7 @@
         <v>166</v>
       </c>
       <c r="AR34" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS34">
         <v>200</v>
@@ -6389,39 +6401,166 @@
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="26"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="17"/>
-      <c r="AT35" s="2"/>
-      <c r="AU35" s="12"/>
-      <c r="AV35" s="12"/>
-      <c r="AW35" s="12"/>
-      <c r="AX35" s="18"/>
-      <c r="AY35" s="18"/>
-      <c r="AZ35" s="18"/>
+      <c r="A35" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>500</v>
+      </c>
+      <c r="I35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s">
+        <v>167</v>
+      </c>
+      <c r="M35" t="s">
+        <v>215</v>
+      </c>
+      <c r="N35" t="s">
+        <v>202</v>
+      </c>
+      <c r="O35" s="26">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>75</v>
+      </c>
+      <c r="T35">
+        <v>50</v>
+      </c>
+      <c r="U35">
+        <v>60</v>
+      </c>
+      <c r="V35" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z35" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA35" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB35" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC35" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD35" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE35" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF35" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI35" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK35">
+        <v>30</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM35">
+        <v>10</v>
+      </c>
+      <c r="AN35">
+        <v>200</v>
+      </c>
+      <c r="AO35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR35" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS35">
+        <v>200</v>
+      </c>
+      <c r="AT35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU35" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV35" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW35" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ35" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>260</v>
+      <c r="A36" t="s">
+        <v>258</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C36" s="11" t="b">
         <v>0</v>
@@ -6502,7 +6641,7 @@
         <v>0.01</v>
       </c>
       <c r="AC36" s="26">
-        <v>6.4000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD36" s="26" t="s">
         <v>156</v>
@@ -6523,7 +6662,7 @@
         <v>348</v>
       </c>
       <c r="AK36">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AL36" t="s">
         <v>115</v>
@@ -6541,327 +6680,198 @@
         <v>1</v>
       </c>
       <c r="AQ36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR36" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>200</v>
+      </c>
+      <c r="AT36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU36" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV36" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW36" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="26"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="17"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="18"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>500</v>
+      </c>
+      <c r="I38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s">
+        <v>167</v>
+      </c>
+      <c r="M38" t="s">
+        <v>215</v>
+      </c>
+      <c r="N38" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" s="26">
+        <v>0</v>
+      </c>
+      <c r="P38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>75</v>
+      </c>
+      <c r="T38">
+        <v>50</v>
+      </c>
+      <c r="U38">
+        <v>60</v>
+      </c>
+      <c r="V38" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Y38" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z38" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA38" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB38" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC38" s="26">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AD38" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE38" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF38" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ38" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK38">
+        <v>15</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM38">
+        <v>5</v>
+      </c>
+      <c r="AN38">
+        <v>200</v>
+      </c>
+      <c r="AO38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AR36" s="17">
+      <c r="AP38">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR38" s="17">
         <v>0.75</v>
       </c>
-      <c r="AS36" s="25">
+      <c r="AS38" s="25">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AT36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU36" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV36" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW36" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX36" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY36" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ36" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37">
-        <v>1000</v>
-      </c>
-      <c r="H37">
-        <v>500</v>
-      </c>
-      <c r="I37" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37" t="s">
-        <v>208</v>
-      </c>
-      <c r="L37" t="s">
-        <v>167</v>
-      </c>
-      <c r="M37" t="s">
-        <v>215</v>
-      </c>
-      <c r="N37" t="s">
-        <v>202</v>
-      </c>
-      <c r="O37" s="26">
-        <v>0</v>
-      </c>
-      <c r="P37" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R37">
-        <v>3</v>
-      </c>
-      <c r="S37">
-        <v>75</v>
-      </c>
-      <c r="T37">
-        <v>50</v>
-      </c>
-      <c r="U37">
-        <v>60</v>
-      </c>
-      <c r="V37" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>10</v>
-      </c>
-      <c r="Y37" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z37" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA37" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB37" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC37" s="26">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AD37" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE37" s="41">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="AF37" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI37" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ37" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK37">
-        <v>15</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM37">
-        <v>5</v>
-      </c>
-      <c r="AN37">
-        <v>200</v>
-      </c>
-      <c r="AO37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR37" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS37" s="25">
-        <f t="shared" ref="AS37:AS41" si="0">225068282*0.75</f>
-        <v>168801211.5</v>
-      </c>
-      <c r="AT37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU37" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV37" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW37" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX37" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ37" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>357</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38">
-        <v>1000</v>
-      </c>
-      <c r="H38">
-        <v>500</v>
-      </c>
-      <c r="I38" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" t="s">
-        <v>109</v>
-      </c>
-      <c r="K38" t="s">
-        <v>208</v>
-      </c>
-      <c r="L38" t="s">
-        <v>167</v>
-      </c>
-      <c r="M38" t="s">
-        <v>215</v>
-      </c>
-      <c r="N38" t="s">
-        <v>202</v>
-      </c>
-      <c r="O38" s="26">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R38">
-        <v>3</v>
-      </c>
-      <c r="S38">
-        <v>75</v>
-      </c>
-      <c r="T38">
-        <v>50</v>
-      </c>
-      <c r="U38">
-        <v>60</v>
-      </c>
-      <c r="V38" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>10</v>
-      </c>
-      <c r="Y38" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z38" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA38" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB38" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC38" s="26">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AD38" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE38" s="41">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AF38" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ38" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK38">
-        <v>15</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM38">
-        <v>5</v>
-      </c>
-      <c r="AN38">
-        <v>200</v>
-      </c>
-      <c r="AO38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR38" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS38" s="25">
-        <f t="shared" si="0"/>
-        <v>168801211.5</v>
-      </c>
       <c r="AT38" s="2" t="s">
         <v>113</v>
       </c>
@@ -6885,11 +6895,11 @@
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>266</v>
+      <c r="A39" t="s">
+        <v>262</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
@@ -6970,13 +6980,13 @@
         <v>0.01</v>
       </c>
       <c r="AC39" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD39" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE39" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="AF39" s="26">
         <v>0.12</v>
@@ -7015,7 +7025,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AS39:AS43" si="0">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
       <c r="AT39" s="2" t="s">
@@ -7042,10 +7052,10 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C40" s="11" t="b">
         <v>0</v>
@@ -7126,13 +7136,13 @@
         <v>0.01</v>
       </c>
       <c r="AC40" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD40" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE40" s="41">
-        <v>6.6199999999999995E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AF40" s="26">
         <v>0.12</v>
@@ -7197,11 +7207,11 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>355</v>
+      <c r="A41" s="37" t="s">
+        <v>266</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="C41" s="11" t="b">
         <v>0</v>
@@ -7288,7 +7298,7 @@
         <v>156</v>
       </c>
       <c r="AE41" s="41">
-        <v>5.8999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF41" s="26">
         <v>0.12</v>
@@ -7353,41 +7363,167 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="26"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="17"/>
-      <c r="AS42" s="25"/>
-      <c r="AT42" s="2"/>
-      <c r="AU42" s="12"/>
-      <c r="AV42" s="12"/>
-      <c r="AW42" s="12"/>
-      <c r="AX42" s="18"/>
-      <c r="AY42" s="18"/>
-      <c r="AZ42" s="18"/>
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>500</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M42" t="s">
+        <v>215</v>
+      </c>
+      <c r="N42" t="s">
+        <v>202</v>
+      </c>
+      <c r="O42" s="26">
+        <v>0</v>
+      </c>
+      <c r="P42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>75</v>
+      </c>
+      <c r="T42">
+        <v>50</v>
+      </c>
+      <c r="U42">
+        <v>60</v>
+      </c>
+      <c r="V42" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Y42" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z42" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA42" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB42" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC42" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AD42" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE42" s="41">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="AF42" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK42">
+        <v>15</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM42">
+        <v>5</v>
+      </c>
+      <c r="AN42">
+        <v>200</v>
+      </c>
+      <c r="AO42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR42" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS42" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AT42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU42" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV42" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW42" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
@@ -7468,13 +7604,13 @@
         <v>0.01</v>
       </c>
       <c r="AC43" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AD43" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE43" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AF43" s="26">
         <v>0.12</v>
@@ -7489,7 +7625,7 @@
         <v>348</v>
       </c>
       <c r="AK43">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL43" t="s">
         <v>115</v>
@@ -7507,19 +7643,20 @@
         <v>1</v>
       </c>
       <c r="AQ43" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AR43" s="17">
         <v>0.75</v>
       </c>
-      <c r="AS43">
-        <v>200</v>
+      <c r="AS43" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
       </c>
       <c r="AT43" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="AU43" s="12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AV43" s="12">
         <v>0.14499999999999999</v>
@@ -7538,692 +7675,567 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="41"/>
+      <c r="AF44" s="26"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="25"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="18"/>
+      <c r="AY44" s="18"/>
+      <c r="AZ44" s="18"/>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>354</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>500</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>208</v>
+      </c>
+      <c r="L45" t="s">
+        <v>167</v>
+      </c>
+      <c r="M45" t="s">
+        <v>215</v>
+      </c>
+      <c r="N45" t="s">
+        <v>202</v>
+      </c>
+      <c r="O45" s="26">
+        <v>0</v>
+      </c>
+      <c r="P45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>75</v>
+      </c>
+      <c r="T45">
+        <v>50</v>
+      </c>
+      <c r="U45">
+        <v>60</v>
+      </c>
+      <c r="V45" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA45" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB45" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC45" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD45" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE45" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF45" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK45">
+        <v>30</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM45">
+        <v>5</v>
+      </c>
+      <c r="AN45">
+        <v>200</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR45" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS45">
+        <v>200</v>
+      </c>
+      <c r="AT45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU45" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AV45" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW45" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
         <v>211</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <v>1000</v>
       </c>
-      <c r="H44">
+      <c r="H46">
         <v>500</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I46" t="s">
         <v>109</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J46" t="s">
         <v>109</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K46" t="s">
         <v>208</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L46" t="s">
         <v>167</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M46" t="s">
         <v>215</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N46" t="s">
         <v>202</v>
       </c>
-      <c r="O44" s="26">
-        <v>0</v>
-      </c>
-      <c r="P44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="26">
+      <c r="O46" s="26">
+        <v>0</v>
+      </c>
+      <c r="P46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R44">
+      <c r="R46">
         <v>3</v>
       </c>
-      <c r="S44">
+      <c r="S46">
         <v>75</v>
       </c>
-      <c r="T44">
+      <c r="T46">
         <v>50</v>
       </c>
-      <c r="U44">
+      <c r="U46">
         <v>60</v>
       </c>
-      <c r="V44" s="26">
+      <c r="V46" s="26">
         <v>0.02</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
         <v>10</v>
       </c>
-      <c r="Y44" s="26">
+      <c r="Y46" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z44" s="26">
+      <c r="Z46" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA44" s="26">
+      <c r="AA46" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB44" s="26">
+      <c r="AB46" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC44" s="26">
+      <c r="AC46" s="26">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AD44" s="26" t="s">
+      <c r="AD46" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE44" s="41">
+      <c r="AE46" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF44" s="26">
+      <c r="AF46" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AG46" t="s">
         <v>112</v>
       </c>
-      <c r="AI44" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AJ44" s="2" t="s">
+      <c r="AJ46" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AK44">
+      <c r="AK46">
         <v>15</v>
       </c>
-      <c r="AL44" t="s">
+      <c r="AL46" t="s">
         <v>115</v>
       </c>
-      <c r="AM44">
+      <c r="AM46">
         <v>5</v>
       </c>
-      <c r="AN44">
+      <c r="AN46">
         <v>200</v>
       </c>
-      <c r="AO44" s="2" t="s">
+      <c r="AO46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP44">
+      <c r="AP46">
         <v>1</v>
       </c>
-      <c r="AQ44" s="2" t="s">
+      <c r="AQ46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AR44" s="17">
+      <c r="AR46" s="17">
         <v>0.75</v>
       </c>
-      <c r="AS44" s="25">
+      <c r="AS46" s="25">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AT44" s="2" t="s">
+      <c r="AT46" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AU44" s="12">
+      <c r="AU46" s="12">
         <v>0.2</v>
       </c>
-      <c r="AV44" s="12">
+      <c r="AV46" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AW44" s="12">
+      <c r="AW46" s="12">
         <v>0.05</v>
       </c>
-      <c r="AX44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="18" t="b">
+      <c r="AX46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AZ44" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C45" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>211</v>
-      </c>
-      <c r="F45" t="s">
-        <v>188</v>
-      </c>
-      <c r="G45">
-        <v>1000</v>
-      </c>
-      <c r="H45">
-        <v>500</v>
-      </c>
-      <c r="I45" t="s">
-        <v>109</v>
-      </c>
-      <c r="J45" t="s">
-        <v>109</v>
-      </c>
-      <c r="K45" t="s">
-        <v>208</v>
-      </c>
-      <c r="L45" t="s">
-        <v>167</v>
-      </c>
-      <c r="M45" t="s">
-        <v>215</v>
-      </c>
-      <c r="N45" t="s">
-        <v>202</v>
-      </c>
-      <c r="O45" s="26">
-        <v>0</v>
-      </c>
-      <c r="P45" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R45">
-        <v>3</v>
-      </c>
-      <c r="S45">
-        <v>75</v>
-      </c>
-      <c r="T45">
-        <v>50</v>
-      </c>
-      <c r="U45">
-        <v>60</v>
-      </c>
-      <c r="V45" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>10</v>
-      </c>
-      <c r="Y45" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z45" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA45" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB45" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC45" s="26">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="AD45" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE45" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF45" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK45">
-        <v>15</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM45">
-        <v>5</v>
-      </c>
-      <c r="AN45">
-        <v>200</v>
-      </c>
-      <c r="AO45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR45" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS45" s="25">
-        <f t="shared" ref="AS45" si="1">225068282*0.75</f>
-        <v>168801211.5</v>
-      </c>
-      <c r="AT45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU45" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="AV45" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW45" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX45" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ45" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="41"/>
-      <c r="AF46" s="26"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
-      <c r="AO46" s="2"/>
-      <c r="AQ46" s="2"/>
-      <c r="AR46" s="17"/>
-      <c r="AT46" s="2"/>
-      <c r="AU46" s="12"/>
-      <c r="AV46" s="12"/>
-      <c r="AW46" s="12"/>
-      <c r="AX46" s="18"/>
-      <c r="AY46" s="18"/>
-      <c r="AZ46" s="18"/>
+      <c r="AZ46" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="26"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2"/>
-      <c r="AO47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="17"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="12"/>
-      <c r="AV47" s="12"/>
-      <c r="AW47" s="12"/>
-      <c r="AX47" s="18"/>
-      <c r="AY47" s="18"/>
-      <c r="AZ47" s="18"/>
+      <c r="A47" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>500</v>
+      </c>
+      <c r="I47" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" t="s">
+        <v>167</v>
+      </c>
+      <c r="M47" t="s">
+        <v>215</v>
+      </c>
+      <c r="N47" t="s">
+        <v>202</v>
+      </c>
+      <c r="O47" s="26">
+        <v>0</v>
+      </c>
+      <c r="P47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>75</v>
+      </c>
+      <c r="T47">
+        <v>50</v>
+      </c>
+      <c r="U47">
+        <v>60</v>
+      </c>
+      <c r="V47" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z47" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA47" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB47" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC47" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AD47" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE47" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF47" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK47">
+        <v>15</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM47">
+        <v>5</v>
+      </c>
+      <c r="AN47">
+        <v>200</v>
+      </c>
+      <c r="AO47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR47" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS47" s="25">
+        <f t="shared" ref="AS47" si="1">225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AT47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU47" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AV47" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW47" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ47" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>211</v>
-      </c>
-      <c r="F48" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48">
-        <v>1000</v>
-      </c>
-      <c r="H48">
-        <v>500</v>
-      </c>
-      <c r="I48" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" t="s">
-        <v>208</v>
-      </c>
-      <c r="L48" t="s">
-        <v>167</v>
-      </c>
-      <c r="M48" t="s">
-        <v>215</v>
-      </c>
-      <c r="N48" t="s">
-        <v>202</v>
-      </c>
-      <c r="O48" s="26">
-        <v>0</v>
-      </c>
-      <c r="P48" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R48">
-        <v>3</v>
-      </c>
-      <c r="S48">
-        <v>75</v>
-      </c>
-      <c r="T48">
-        <v>50</v>
-      </c>
-      <c r="U48">
-        <v>60</v>
-      </c>
-      <c r="V48" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>10</v>
-      </c>
-      <c r="Y48" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z48" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA48" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB48" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC48" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD48" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE48" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF48" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ48" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK48">
-        <v>1</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM48">
-        <v>5</v>
-      </c>
-      <c r="AN48">
-        <v>200</v>
-      </c>
-      <c r="AO48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR48" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS48">
-        <v>200</v>
-      </c>
-      <c r="AT48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU48" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV48" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW48" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX48" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY48" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ48" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="26"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="17"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="12"/>
+      <c r="AW48" s="12"/>
+      <c r="AX48" s="18"/>
+      <c r="AY48" s="18"/>
+      <c r="AZ48" s="18"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>211</v>
-      </c>
-      <c r="F49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49">
-        <v>1000</v>
-      </c>
-      <c r="H49">
-        <v>500</v>
-      </c>
-      <c r="I49" t="s">
-        <v>109</v>
-      </c>
-      <c r="J49" t="s">
-        <v>109</v>
-      </c>
-      <c r="K49" t="s">
-        <v>208</v>
-      </c>
-      <c r="L49" t="s">
-        <v>167</v>
-      </c>
-      <c r="M49" t="s">
-        <v>215</v>
-      </c>
-      <c r="N49" t="s">
-        <v>202</v>
-      </c>
-      <c r="O49" s="26">
-        <v>0</v>
-      </c>
-      <c r="P49" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R49">
-        <v>3</v>
-      </c>
-      <c r="S49">
-        <v>75</v>
-      </c>
-      <c r="T49">
-        <v>50</v>
-      </c>
-      <c r="U49">
-        <v>60</v>
-      </c>
-      <c r="V49" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>10</v>
-      </c>
-      <c r="Y49" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z49" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA49" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB49" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC49" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD49" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE49" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF49" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ49" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK49">
-        <v>30</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM49">
-        <v>5</v>
-      </c>
-      <c r="AN49">
-        <v>200</v>
-      </c>
-      <c r="AO49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR49" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS49">
-        <v>200</v>
-      </c>
-      <c r="AT49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU49" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV49" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW49" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX49" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY49" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ49" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B49" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="41"/>
+      <c r="AF49" s="26"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="17"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="12"/>
+      <c r="AX49" s="18"/>
+      <c r="AY49" s="18"/>
+      <c r="AZ49" s="18"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
-        <v>278</v>
+      <c r="A50" t="s">
+        <v>274</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C50" s="11" t="b">
         <v>0</v>
@@ -8322,13 +8334,13 @@
         <v>158</v>
       </c>
       <c r="AJ50" s="2" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="AK50">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AL50" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AM50">
         <v>5</v>
@@ -8375,10 +8387,10 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
@@ -8483,10 +8495,10 @@
         <v>30</v>
       </c>
       <c r="AL51" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AM51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN51">
         <v>200</v>
@@ -8529,11 +8541,11 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
-        <v>282</v>
+      <c r="A52" s="34" t="s">
+        <v>278</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C52" s="11" t="b">
         <v>0</v>
@@ -8656,7 +8668,7 @@
         <v>166</v>
       </c>
       <c r="AR52" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS52">
         <v>200</v>
@@ -8684,466 +8696,776 @@
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="26"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="17"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="12"/>
-      <c r="AV53" s="12"/>
-      <c r="AW53" s="12"/>
-      <c r="AX53" s="18"/>
-      <c r="AY53" s="18"/>
-      <c r="AZ53" s="18"/>
+      <c r="A53" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>500</v>
+      </c>
+      <c r="I53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J53" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" t="s">
+        <v>208</v>
+      </c>
+      <c r="L53" t="s">
+        <v>167</v>
+      </c>
+      <c r="M53" t="s">
+        <v>215</v>
+      </c>
+      <c r="N53" t="s">
+        <v>202</v>
+      </c>
+      <c r="O53" s="26">
+        <v>0</v>
+      </c>
+      <c r="P53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>75</v>
+      </c>
+      <c r="T53">
+        <v>50</v>
+      </c>
+      <c r="U53">
+        <v>60</v>
+      </c>
+      <c r="V53" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="Y53" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z53" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA53" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB53" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC53" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD53" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE53" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF53" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ53" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK53">
+        <v>30</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM53">
+        <v>10</v>
+      </c>
+      <c r="AN53">
+        <v>200</v>
+      </c>
+      <c r="AO53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR53" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS53">
+        <v>200</v>
+      </c>
+      <c r="AT53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU53" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV53" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW53" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ53" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B54" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="41"/>
-      <c r="AF54" s="26"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="17"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="12"/>
-      <c r="AV54" s="12"/>
-      <c r="AW54" s="12"/>
-      <c r="AX54" s="18"/>
-      <c r="AY54" s="18"/>
-      <c r="AZ54" s="18"/>
+      <c r="A54" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>500</v>
+      </c>
+      <c r="I54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J54" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" t="s">
+        <v>208</v>
+      </c>
+      <c r="L54" t="s">
+        <v>167</v>
+      </c>
+      <c r="M54" t="s">
+        <v>215</v>
+      </c>
+      <c r="N54" t="s">
+        <v>202</v>
+      </c>
+      <c r="O54" s="26">
+        <v>0</v>
+      </c>
+      <c r="P54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>75</v>
+      </c>
+      <c r="T54">
+        <v>50</v>
+      </c>
+      <c r="U54">
+        <v>60</v>
+      </c>
+      <c r="V54" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Y54" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z54" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA54" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB54" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC54" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD54" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE54" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF54" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK54">
+        <v>30</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM54">
+        <v>5</v>
+      </c>
+      <c r="AN54">
+        <v>200</v>
+      </c>
+      <c r="AO54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR54" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS54">
+        <v>200</v>
+      </c>
+      <c r="AT54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU54" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV54" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW54" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ54" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C55" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>211</v>
-      </c>
-      <c r="F55" t="s">
-        <v>188</v>
-      </c>
-      <c r="G55">
-        <v>1000</v>
-      </c>
-      <c r="H55">
-        <v>500</v>
-      </c>
-      <c r="I55" t="s">
-        <v>109</v>
-      </c>
-      <c r="J55" t="s">
-        <v>109</v>
-      </c>
-      <c r="K55" t="s">
-        <v>208</v>
-      </c>
-      <c r="L55" t="s">
-        <v>167</v>
-      </c>
-      <c r="M55" t="s">
-        <v>215</v>
-      </c>
-      <c r="N55" t="s">
-        <v>202</v>
-      </c>
-      <c r="O55" s="26">
-        <v>0</v>
-      </c>
-      <c r="P55" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R55">
-        <v>3</v>
-      </c>
-      <c r="S55">
-        <v>75</v>
-      </c>
-      <c r="T55">
-        <v>50</v>
-      </c>
-      <c r="U55">
-        <v>60</v>
-      </c>
-      <c r="V55" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>10</v>
-      </c>
-      <c r="Y55" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z55" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA55" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB55" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC55" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD55" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE55" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AF55" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI55" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ55" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK55">
-        <v>30</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM55">
-        <v>5</v>
-      </c>
-      <c r="AN55">
-        <v>200</v>
-      </c>
-      <c r="AO55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP55">
-        <v>1</v>
-      </c>
-      <c r="AQ55" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR55" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AS55">
-        <v>200</v>
-      </c>
-      <c r="AT55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU55" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AV55" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AW55" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AX55" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY55" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ55" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="A55" s="40"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="26"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="26"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="26"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="17"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="12"/>
+      <c r="AX55" s="18"/>
+      <c r="AY55" s="18"/>
+      <c r="AZ55" s="18"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="B56" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="41"/>
+      <c r="AF56" s="26"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="17"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="12"/>
+      <c r="AW56" s="12"/>
+      <c r="AX56" s="18"/>
+      <c r="AY56" s="18"/>
+      <c r="AZ56" s="18"/>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>500</v>
+      </c>
+      <c r="I57" t="s">
+        <v>109</v>
+      </c>
+      <c r="J57" t="s">
+        <v>109</v>
+      </c>
+      <c r="K57" t="s">
+        <v>208</v>
+      </c>
+      <c r="L57" t="s">
+        <v>167</v>
+      </c>
+      <c r="M57" t="s">
+        <v>215</v>
+      </c>
+      <c r="N57" t="s">
+        <v>202</v>
+      </c>
+      <c r="O57" s="26">
+        <v>0</v>
+      </c>
+      <c r="P57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+      <c r="S57">
+        <v>75</v>
+      </c>
+      <c r="T57">
+        <v>50</v>
+      </c>
+      <c r="U57">
+        <v>60</v>
+      </c>
+      <c r="V57" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Y57" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z57" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA57" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB57" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC57" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD57" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE57" s="41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AF57" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ57" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK57">
+        <v>30</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM57">
+        <v>5</v>
+      </c>
+      <c r="AN57">
+        <v>200</v>
+      </c>
+      <c r="AO57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR57" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AS57">
+        <v>200</v>
+      </c>
+      <c r="AT57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU57" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AV57" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AW57" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AX57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ57" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B58" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C56" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C58" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
         <v>211</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="G56">
+      <c r="G58">
         <v>1000</v>
       </c>
-      <c r="H56">
+      <c r="H58">
         <v>500</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I58" t="s">
         <v>109</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J58" t="s">
         <v>109</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K58" t="s">
         <v>208</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L58" t="s">
         <v>167</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M58" t="s">
         <v>215</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N58" t="s">
         <v>202</v>
       </c>
-      <c r="O56" s="26">
-        <v>0</v>
-      </c>
-      <c r="P56" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="26">
+      <c r="O58" s="26">
+        <v>0</v>
+      </c>
+      <c r="P58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R56">
+      <c r="R58">
         <v>3</v>
       </c>
-      <c r="S56">
+      <c r="S58">
         <v>75</v>
       </c>
-      <c r="T56">
+      <c r="T58">
         <v>50</v>
       </c>
-      <c r="U56">
+      <c r="U58">
         <v>60</v>
       </c>
-      <c r="V56" s="26">
+      <c r="V58" s="26">
         <v>0.02</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
         <v>10</v>
       </c>
-      <c r="Y56" s="26">
+      <c r="Y58" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z56" s="26">
+      <c r="Z58" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA56" s="26">
+      <c r="AA58" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB56" s="26">
+      <c r="AB58" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC56" s="26">
+      <c r="AC58" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD56" s="26" t="s">
+      <c r="AD58" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE56" s="41">
+      <c r="AE58" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF56" s="26">
+      <c r="AF58" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AG58" t="s">
         <v>112</v>
       </c>
-      <c r="AI56" s="2" t="s">
+      <c r="AI58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AJ56" s="2" t="s">
+      <c r="AJ58" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AK56">
+      <c r="AK58">
         <v>30</v>
       </c>
-      <c r="AL56" t="s">
+      <c r="AL58" t="s">
         <v>115</v>
       </c>
-      <c r="AM56">
+      <c r="AM58">
         <v>5</v>
       </c>
-      <c r="AN56">
+      <c r="AN58">
         <v>200</v>
       </c>
-      <c r="AO56" s="2" t="s">
+      <c r="AO58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP56">
+      <c r="AP58">
         <v>1</v>
       </c>
-      <c r="AQ56" s="2" t="s">
+      <c r="AQ58" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AR56" s="17">
+      <c r="AR58" s="17">
         <v>0.75</v>
       </c>
-      <c r="AS56">
+      <c r="AS58">
         <v>200</v>
       </c>
-      <c r="AT56" s="2" t="s">
+      <c r="AT58" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AU56" s="12">
+      <c r="AU58" s="12">
         <v>0.25</v>
       </c>
-      <c r="AV56" s="12">
+      <c r="AV58" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AW56" s="12">
+      <c r="AW58" s="12">
         <v>0.05</v>
       </c>
-      <c r="AX56" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY56" s="18" t="b">
+      <c r="AX58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AZ56" s="18" t="b">
+      <c r="AZ58" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AQ4:AS4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO10 AO15:AO56 AO12:AO13" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO10 AO17:AO58 AO12:AO15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ10 AJ15:AJ56 AJ12:AJ13" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ10 AJ17:AJ58 AJ12:AJ15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI10 AI15:AI56 AI12:AI13" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI10 AI17:AI58 AI12:AI15" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT10 AT15:AT56 AT12:AT13" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT10 AT17:AT58 AT12:AT15" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P10 P15:P56 C15:D56 C6:D13 P12:P13" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P10 P17:P58 C17:D58 P12:P15 C6:D15" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB10 V6:V10 AB15:AB56 V15:V56 AB12:AB13 V12:V13" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB10 V6:V10 AB17:AB58 V17:V58 V12:V15 AB12:AB15" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X10 W15:X56 W12:X13" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X10 W17:X58 W12:X15" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA10 AC6:AC10 AE6:AE10 Y15:AA56 AC15:AC56 AE15:AE56 AC12:AC13 Y12:AA13 AE12:AE13" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA10 AC6:AC10 AE6:AE10 Y17:AA58 AC17:AC58 AE17:AE58 Y12:AA15 AE12:AE15 AC12:AC15" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AK6:AK10 AK15:AK56 AK12:AK13" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AK6:AK10 AK17:AK58 AK12:AK15" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AU6:AV10 AU15:AV56 AU12:AV13" xr:uid="{00000000-0002-0000-0200-000009000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AU6:AV10 AU17:AV58 AU12:AV15" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AW6:AW10 AW15:AW56 AW12:AW13" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AW6:AW10 AW17:AW58 AW12:AW15" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF10 AF15:AF56 AF12:AF13" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF10 AF17:AF58 AF12:AF15" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AM6:AM10 AM15:AM56 AM12:AM13" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AM6:AM10 AM17:AM58 AM12:AM15" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN10 AN15:AN56 AN12:AN13" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN10 AN17:AN58 AN12:AN15" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP10 AP15:AP56 AP12:AP13" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP10 AP17:AP58 AP12:AP15" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD10 AD15:AD56 AD12:AD13" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AZ10 AX15:AZ56 AX12:AZ13" xr:uid="{00000000-0002-0000-0200-000010000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD10 AD17:AD58 AD12:AD15" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AZ10 AX17:AZ58 AX12:AZ15" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ10 AQ15:AQ56 AQ12:AQ13" xr:uid="{00000000-0002-0000-0200-000011000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ10 AQ17:AQ58 AQ12:AQ15" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR10 AR15:AR56 AR12:AR13" xr:uid="{00000000-0002-0000-0200-000012000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR10 AR17:AR58 AR12:AR15" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S10 S15:S56 S12:S13" xr:uid="{00000000-0002-0000-0200-000013000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S10 S17:S58 S12:S15" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J10 I15:J56 I12:J13" xr:uid="{00000000-0002-0000-0200-000014000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J10 I17:J58 I12:J15" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -9156,37 +9478,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L10 L15:L56 L12:L13</xm:sqref>
+          <xm:sqref>L6:L10 L17:L58 L12:L15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M10 M15:M56 M12:M13</xm:sqref>
+          <xm:sqref>M6:M10 M17:M58 M12:M15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F10 F15:F56 F12:F13</xm:sqref>
+          <xm:sqref>F6:F10 F17:F58 F12:F15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E10 E15:E56 E12:E13</xm:sqref>
+          <xm:sqref>E6:E10 E17:E58 E12:E15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K10 K15:K56 K12:K13</xm:sqref>
+          <xm:sqref>K6:K10 K17:K58 K12:K15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N10 N15:N56 N12:N13</xm:sqref>
+          <xm:sqref>N6:N10 N17:N58 N12:N15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9196,10 +9518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:D17"/>
+  <dimension ref="A3:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9417,13 +9739,125 @@
         <v>59</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.115</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" s="26">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="26">
+        <v>7.22E-2</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="26">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="D21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="26">
+        <v>0.115</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" s="26">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="26">
+        <v>7.22E-2</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="26">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C17" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C25" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B17" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B25" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-1</formula1>
       <formula2>0.5</formula2>
     </dataValidation>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B56AE9C-FBB3-4F77-BA57-3C517FFF58A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1150,7 +1151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1402,7 +1403,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,16 +1415,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1838,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1889,9 +1890,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Notes'!A1" display="Notes"/>
-    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl"/>
-    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns"/>
+    <hyperlink ref="B2" location="'Notes'!A1" display="Notes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1899,7 +1900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2011,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2100,20 +2101,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="106" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
@@ -2302,62 +2303,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="44" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="44" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="43" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AH4" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2365,17 +2366,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="47" t="s">
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -8676,95 +8677,95 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI54" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH54" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS54" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 P13:P54 C6:D10 C13:D54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 P13:P54 C6:D10 C13:D54" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB54 V13:V54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB54 V13:V54" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X54" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 Y13:AA54 AC13:AC54 AE13:AE54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 Y13:AA54 AC13:AC54 AE13:AE54" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ54" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU54" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV54" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF54" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL54" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM54">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM54" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO54">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO54" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD54"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY54">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD54" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY54" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP54" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ54" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S54" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J54" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8773,37 +8774,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000015000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>L6:L9 L13:L54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
           <xm:sqref>M6:M9 M13:M54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F9 F13:F54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E9 E13:E54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K9 K13:K54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
@@ -8816,7 +8817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8984,11 +8985,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-1</formula1>
       <formula2>0.5</formula2>
     </dataValidation>
@@ -8998,7 +8999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9042,7 +9043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9112,7 +9113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -9516,7 +9517,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9524,7 +9525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -10075,78 +10076,78 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40" xr:uid="{00000000-0002-0000-0700-00000D000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40" xr:uid="{00000000-0002-0000-0700-00000E000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40" xr:uid="{00000000-0002-0000-0700-000011000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40" xr:uid="{00000000-0002-0000-0700-000012000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40" xr:uid="{00000000-0002-0000-0700-000013000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -10155,13 +10156,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I39:I40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000015000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
@@ -10174,7 +10175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B56AE9C-FBB3-4F77-BA57-3C517FFF58A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2FB246-EDD0-43A6-8385-8948BBE0CE0C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -1403,10 +1403,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,13 +1412,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2108,7 +2108,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B16:B17"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,62 +2303,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="45" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="45" t="s">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="48" t="s">
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2366,17 +2366,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="48" t="s">
+      <c r="AP4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="49" t="s">
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -8677,17 +8677,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54" xr:uid="{00000000-0002-0000-0200-000000000000}">

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9AB532-8D27-42A7-8C11-E11FBBE729ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1150,7 +1159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1322,7 +1331,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1402,6 +1411,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1889,9 +1906,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Notes'!A1" display="Notes"/>
-    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl"/>
-    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns"/>
+    <hyperlink ref="B2" location="'Notes'!A1" display="Notes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1899,7 +1916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2011,7 +2028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2100,14 +2117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="N9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2135,7 @@
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="24.42578125"/>
@@ -2302,62 +2319,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="44" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="44" t="s">
+      <c r="P4" s="53"/>
+      <c r="Q4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="43" t="s">
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AH4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2365,17 +2382,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="47" t="s">
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -2591,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T6">
         <v>50</v>
@@ -2606,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="26">
         <v>0.04</v>
@@ -2746,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T7">
         <v>50</v>
@@ -2761,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="26">
         <v>0.04</v>
@@ -2901,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="S8">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T8">
         <v>50</v>
@@ -2916,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="26">
         <v>0.04</v>
@@ -3056,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T9">
         <v>50</v>
@@ -3071,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="26">
         <v>0.04</v>
@@ -3198,7 +3215,7 @@
         <v>226</v>
       </c>
       <c r="C14" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="11" t="b">
         <v>0</v>
@@ -3246,7 +3263,7 @@
         <v>3</v>
       </c>
       <c r="S14">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T14">
         <v>50</v>
@@ -3261,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z14" s="26">
         <v>0.04</v>
@@ -3401,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="S15">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T15">
         <v>50</v>
@@ -3416,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z15" s="26">
         <v>0.04</v>
@@ -3500,158 +3517,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="31">
         <v>1000</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="31">
         <v>500</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="O16" s="26">
-        <v>0</v>
-      </c>
-      <c r="P16" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R16">
+      <c r="O16" s="46">
+        <v>0</v>
+      </c>
+      <c r="P16" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="46">
+        <f>2.2%*1.461</f>
+        <v>3.2142000000000004E-2</v>
+      </c>
+      <c r="R16" s="31">
         <v>3</v>
       </c>
-      <c r="S16">
-        <v>75</v>
-      </c>
-      <c r="T16">
+      <c r="S16" s="31">
+        <v>60</v>
+      </c>
+      <c r="T16" s="31">
         <v>50</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="31">
         <v>60</v>
       </c>
-      <c r="V16" s="26">
+      <c r="V16" s="46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W16" s="31">
+        <v>0</v>
+      </c>
+      <c r="X16" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="46">
         <v>0.02</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z16" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA16" s="26">
+      <c r="Z16" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AA16" s="46">
         <v>0.03</v>
       </c>
-      <c r="AB16" s="26">
+      <c r="AB16" s="46">
         <v>0.01</v>
       </c>
-      <c r="AC16" s="26">
+      <c r="AC16" s="46">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD16" s="26" t="s">
+      <c r="AD16" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="AE16" s="41">
+      <c r="AE16" s="48">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF16" s="26">
+      <c r="AF16" s="46">
         <v>0.12</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AH16" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AI16" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="31">
         <v>15</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AK16" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="31">
         <v>5</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="31">
         <v>200</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" s="31">
         <v>1</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AP16" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="AQ16" s="17">
+      <c r="AQ16" s="49">
         <v>0.75</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" s="31">
         <v>200</v>
       </c>
-      <c r="AS16" s="2" t="s">
+      <c r="AS16" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AT16" s="12">
+      <c r="AT16" s="50">
         <v>0.25</v>
       </c>
-      <c r="AU16" s="12">
+      <c r="AU16" s="50">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV16" s="12">
+      <c r="AV16" s="50">
         <v>0.05</v>
       </c>
-      <c r="AW16" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="18" t="b">
+      <c r="AW16" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AY16" s="18" t="b">
+      <c r="AY16" s="47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3711,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="S17">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T17">
         <v>50</v>
@@ -3726,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z17" s="26">
         <v>0.04</v>
@@ -3866,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="S18">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T18">
         <v>50</v>
@@ -3881,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z18" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA18" s="26">
         <v>0.03</v>
@@ -4021,7 +4039,7 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T19">
         <v>50</v>
@@ -4036,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z19" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA19" s="26">
         <v>0.03</v>
@@ -4176,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="S20">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T20">
         <v>50</v>
@@ -4191,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z20" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA20" s="26">
         <v>0.03</v>
@@ -4331,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="S21">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T21">
         <v>50</v>
@@ -4346,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z21" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA21" s="26">
         <v>0.03</v>
@@ -4486,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="S22">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T22">
         <v>50</v>
@@ -4501,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z22" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA22" s="26">
         <v>0.03</v>
@@ -4641,7 +4659,7 @@
         <v>3</v>
       </c>
       <c r="S23">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T23">
         <v>50</v>
@@ -4656,13 +4674,13 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z23" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA23" s="26">
         <v>0.03</v>
@@ -4796,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="S24">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T24">
         <v>50</v>
@@ -4811,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z24" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA24" s="26">
         <v>0.03</v>
@@ -4980,7 +4998,7 @@
         <v>3</v>
       </c>
       <c r="S26">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T26">
         <v>50</v>
@@ -4995,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z26" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA26" s="26">
         <v>0.03</v>
@@ -5135,7 +5153,7 @@
         <v>3</v>
       </c>
       <c r="S27">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T27">
         <v>50</v>
@@ -5150,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z27" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA27" s="26">
         <v>0.03</v>
@@ -5290,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="S28">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T28">
         <v>50</v>
@@ -5305,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z28" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA28" s="26">
         <v>0.03</v>
@@ -5445,7 +5463,7 @@
         <v>3</v>
       </c>
       <c r="S29">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T29">
         <v>50</v>
@@ -5460,13 +5478,13 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z29" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA29" s="26">
         <v>0.03</v>
@@ -5600,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="S30">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T30">
         <v>50</v>
@@ -5615,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z30" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA30" s="26">
         <v>0.03</v>
@@ -5755,7 +5773,7 @@
         <v>3</v>
       </c>
       <c r="S31">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T31">
         <v>50</v>
@@ -5770,13 +5788,13 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z31" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA31" s="26">
         <v>0.03</v>
@@ -5910,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="S32">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T32">
         <v>50</v>
@@ -5925,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z32" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA32" s="26">
         <v>0.03</v>
@@ -6016,6 +6034,9 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="26"/>
       <c r="V33" s="26"/>
+      <c r="X33">
+        <v>0</v>
+      </c>
       <c r="Y33" s="26"/>
       <c r="Z33" s="26"/>
       <c r="AA33" s="26"/>
@@ -6093,7 +6114,7 @@
         <v>3</v>
       </c>
       <c r="S34">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T34">
         <v>50</v>
@@ -6108,13 +6129,13 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z34" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA34" s="26">
         <v>0.03</v>
@@ -6249,7 +6270,7 @@
         <v>3</v>
       </c>
       <c r="S35">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T35">
         <v>50</v>
@@ -6264,13 +6285,13 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z35" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA35" s="26">
         <v>0.03</v>
@@ -6405,7 +6426,7 @@
         <v>3</v>
       </c>
       <c r="S36">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T36">
         <v>50</v>
@@ -6420,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z36" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA36" s="26">
         <v>0.03</v>
@@ -6561,7 +6582,7 @@
         <v>3</v>
       </c>
       <c r="S37">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T37">
         <v>50</v>
@@ -6576,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z37" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA37" s="26">
         <v>0.03</v>
@@ -6717,7 +6738,7 @@
         <v>3</v>
       </c>
       <c r="S38">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T38">
         <v>50</v>
@@ -6732,13 +6753,13 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z38" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA38" s="26">
         <v>0.03</v>
@@ -6873,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="S39">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T39">
         <v>50</v>
@@ -6888,13 +6909,13 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z39" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA39" s="26">
         <v>0.03</v>
@@ -7059,7 +7080,7 @@
         <v>3</v>
       </c>
       <c r="S41">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T41">
         <v>50</v>
@@ -7074,13 +7095,13 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z41" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA41" s="26">
         <v>0.03</v>
@@ -7214,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="S42">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T42">
         <v>50</v>
@@ -7229,13 +7250,13 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z42" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA42" s="26">
         <v>0.03</v>
@@ -7370,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="S43">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T43">
         <v>50</v>
@@ -7385,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z43" s="26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA43" s="26">
         <v>0.03</v>
@@ -7585,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="S46">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T46">
         <v>50</v>
@@ -7600,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="26">
         <v>0.04</v>
@@ -7740,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="S47">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T47">
         <v>50</v>
@@ -7755,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="26">
         <v>0.04</v>
@@ -7895,7 +7916,7 @@
         <v>3</v>
       </c>
       <c r="S48">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T48">
         <v>50</v>
@@ -7910,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="26">
         <v>0.04</v>
@@ -8050,7 +8071,7 @@
         <v>3</v>
       </c>
       <c r="S49">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T49">
         <v>50</v>
@@ -8065,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="26">
         <v>0.04</v>
@@ -8205,7 +8226,7 @@
         <v>3</v>
       </c>
       <c r="S50">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T50">
         <v>50</v>
@@ -8220,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="26">
         <v>0.04</v>
@@ -8420,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="S53">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T53">
         <v>50</v>
@@ -8435,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="26">
         <v>0.04</v>
@@ -8575,7 +8596,7 @@
         <v>3</v>
       </c>
       <c r="S54">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T54">
         <v>50</v>
@@ -8590,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="26">
         <v>0.04</v>
@@ -8689,82 +8710,82 @@
     <mergeCell ref="AD4:AF4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN54" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI54" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH54" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS54" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 P13:P54 C6:D10 C13:D54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 P13:P54 C6:D10 C13:D54" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB54 V13:V54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB54 V13:V54" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X54" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 Y13:AA54 AC13:AC54 AE13:AE54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE13:AE54 AC13:AC54 Y13:AA54" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ54" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU54" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV54" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF54" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL54" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM54">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM54" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO54">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO54" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD54"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY54">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD54" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY54" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP54" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ54" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S54" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J54" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8773,37 +8794,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000015000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>L6:L9 L13:L54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
           <xm:sqref>M6:M9 M13:M54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F9 F13:F54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E9 E13:E54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K9 K13:K54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
@@ -8816,7 +8837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8984,11 +9005,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-1</formula1>
       <formula2>0.5</formula2>
     </dataValidation>
@@ -8998,7 +9019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9042,11 +9063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9084,19 +9105,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -9112,7 +9133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -9516,7 +9537,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9524,7 +9545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -10075,78 +10096,78 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40" xr:uid="{00000000-0002-0000-0700-00000D000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40" xr:uid="{00000000-0002-0000-0700-00000E000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40" xr:uid="{00000000-0002-0000-0700-000011000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40" xr:uid="{00000000-0002-0000-0700-000012000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40" xr:uid="{00000000-0002-0000-0700-000013000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -10154,18 +10175,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I39:I40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J39:J40</xm:sqref>
+          <xm:sqref>I39:J40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10174,7 +10189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9AB532-8D27-42A7-8C11-E11FBBE729ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E0B5AC-3A4F-49E7-BE0D-14386C3B0FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
     <sheet name="RunControl" sheetId="3" r:id="rId3"/>
-    <sheet name="Returns" sheetId="6" r:id="rId4"/>
-    <sheet name="Contributions" sheetId="7" r:id="rId5"/>
-    <sheet name="GlobalParams" sheetId="4" r:id="rId6"/>
+    <sheet name="GlobalParams" sheetId="4" r:id="rId4"/>
+    <sheet name="Returns" sheetId="6" r:id="rId5"/>
+    <sheet name="Contributions" sheetId="7" r:id="rId6"/>
     <sheet name="DropDowns" sheetId="5" r:id="rId7"/>
     <sheet name="RunList_M1" sheetId="10" r:id="rId8"/>
     <sheet name="RunList_M2.1" sheetId="11" r:id="rId9"/>
@@ -28,7 +28,7 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Returns!$A$3:$D$6</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2120,11 +2122,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="N9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8837,6 +8839,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D13"/>
   <sheetViews>
@@ -9018,7 +9090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
@@ -9059,76 +9131,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
